--- a/results/Test01.xlsx
+++ b/results/Test01.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="-1280" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-27200" yWindow="-1280" windowWidth="27200" windowHeight="14840" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Optimistic_large.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Optimistic_small.csv" sheetId="2" r:id="rId2"/>
     <sheet name="Regular_large.csv" sheetId="3" r:id="rId3"/>
     <sheet name="Regular_small.csv" sheetId="4" r:id="rId4"/>
+    <sheet name="Metrics" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="221">
   <si>
     <t>Type</t>
   </si>
@@ -635,15 +636,82 @@
   <si>
     <t>smallset/sorted32/part32</t>
   </si>
+  <si>
+    <t>Read_large_speedup</t>
+  </si>
+  <si>
+    <t>Read_small_speedup</t>
+  </si>
+  <si>
+    <t>Write_small_speedup</t>
+  </si>
+  <si>
+    <t>Write_large_speedup</t>
+  </si>
+  <si>
+    <t>Read_small_lock_ratio</t>
+  </si>
+  <si>
+    <t>Read_large_lock_ratio</t>
+  </si>
+  <si>
+    <t>Write_small_lock_ratio</t>
+  </si>
+  <si>
+    <t>Write_large_lock_ratio</t>
+  </si>
+  <si>
+    <t>Read_regular_small_latency</t>
+  </si>
+  <si>
+    <t>Read_regular_large_latency</t>
+  </si>
+  <si>
+    <t>Read_optimistic_small_latency</t>
+  </si>
+  <si>
+    <t>Read_optimistic_large_latency</t>
+  </si>
+  <si>
+    <t>Write_regular_small_latency</t>
+  </si>
+  <si>
+    <t>Write_regular_large_latency</t>
+  </si>
+  <si>
+    <t>Write_optimistic_small_latency</t>
+  </si>
+  <si>
+    <t>Write_optimistic_large_latency</t>
+  </si>
+  <si>
+    <t>Throughput: need execution time per thread</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -666,13 +734,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,9 +1088,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -4030,9 +4132,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -10017,9 +10137,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -13043,9 +13181,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -19024,4 +19180,6396 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <f>Regular_small.csv!G2/Optimistic_small.csv!G2</f>
+        <v>2.0532346250500324</v>
+      </c>
+      <c r="B2">
+        <f>Regular_large.csv!G2/Optimistic_large.csv!G2</f>
+        <v>2.0661027949044088</v>
+      </c>
+      <c r="C2">
+        <f>Regular_small.csv!H2/Optimistic_small.csv!H2</f>
+        <v>0.83362300390153155</v>
+      </c>
+      <c r="D2">
+        <f>Regular_large.csv!H2/Optimistic_large.csv!H2</f>
+        <v>0.78396800514745835</v>
+      </c>
+      <c r="E2">
+        <f>Regular_small.csv!I2/Optimistic_small.csv!I2</f>
+        <v>1.9999935261562283</v>
+      </c>
+      <c r="F2">
+        <f>Regular_large.csv!I2/Optimistic_large.csv!I2</f>
+        <v>1.9999973849607047</v>
+      </c>
+      <c r="G2">
+        <f>Regular_small.csv!J2/Optimistic_small.csv!J2</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>Regular_large.csv!J2/Optimistic_large.csv!J2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>Regular_small.csv!G2/Regular_small.csv!I2</f>
+        <v>78.091593400301505</v>
+      </c>
+      <c r="J2">
+        <f>Regular_large.csv!G2/Regular_large.csv!I2</f>
+        <v>78.36582471666911</v>
+      </c>
+      <c r="K2">
+        <f>Optimistic_small.csv!G2/Optimistic_small.csv!I2</f>
+        <v>76.066650806661542</v>
+      </c>
+      <c r="L2">
+        <f>Optimistic_large.csv!G2/Optimistic_large.csv!I2</f>
+        <v>75.858493047960167</v>
+      </c>
+      <c r="M2">
+        <f>Regular_small.csv!H2/Regular_small.csv!J2</f>
+        <v>73.890160459197162</v>
+      </c>
+      <c r="N2">
+        <f>Regular_large.csv!H2/Regular_large.csv!J2</f>
+        <v>75.126639298421978</v>
+      </c>
+      <c r="O2">
+        <f>Optimistic_small.csv!H2/Optimistic_small.csv!J2</f>
+        <v>88.637381782143265</v>
+      </c>
+      <c r="P2">
+        <f>Optimistic_large.csv!H2/Optimistic_large.csv!J2</f>
+        <v>95.828705770066776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <f>Regular_small.csv!G3/Optimistic_small.csv!G3</f>
+        <v>1.9886943894527549</v>
+      </c>
+      <c r="B3">
+        <f>Regular_large.csv!G3/Optimistic_large.csv!G3</f>
+        <v>1.7785302424510681</v>
+      </c>
+      <c r="C3">
+        <f>Regular_small.csv!H3/Optimistic_small.csv!H3</f>
+        <v>1.0000477337058227</v>
+      </c>
+      <c r="D3">
+        <f>Regular_large.csv!H3/Optimistic_large.csv!H3</f>
+        <v>0.45214846249929547</v>
+      </c>
+      <c r="E3">
+        <f>Regular_small.csv!I3/Optimistic_small.csv!I3</f>
+        <v>1.9999915987229153</v>
+      </c>
+      <c r="F3">
+        <f>Regular_large.csv!I3/Optimistic_large.csv!I3</f>
+        <v>1.9915524763848025</v>
+      </c>
+      <c r="G3">
+        <f>Regular_small.csv!J3/Optimistic_small.csv!J3</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>Regular_large.csv!J3/Optimistic_large.csv!J3</f>
+        <v>1.0000002152780956</v>
+      </c>
+      <c r="I3">
+        <f>Regular_small.csv!G3/Regular_small.csv!I3</f>
+        <v>73.676227303825897</v>
+      </c>
+      <c r="J3">
+        <f>Regular_large.csv!G3/Regular_large.csv!I3</f>
+        <v>241.06481483555001</v>
+      </c>
+      <c r="K3">
+        <f>Optimistic_small.csv!G3/Optimistic_small.csv!I3</f>
+        <v>74.094761072765763</v>
+      </c>
+      <c r="L3">
+        <f>Optimistic_large.csv!G3/Optimistic_large.csv!I3</f>
+        <v>269.93818687802951</v>
+      </c>
+      <c r="M3">
+        <f>Regular_small.csv!H3/Regular_small.csv!J3</f>
+        <v>73.756748984963366</v>
+      </c>
+      <c r="N3">
+        <f>Regular_large.csv!H3/Regular_large.csv!J3</f>
+        <v>85.755675031033931</v>
+      </c>
+      <c r="O3">
+        <f>Optimistic_small.csv!H3/Optimistic_small.csv!J3</f>
+        <v>73.753228470052107</v>
+      </c>
+      <c r="P3">
+        <f>Optimistic_large.csv!H3/Optimistic_large.csv!J3</f>
+        <v>189.66268959166473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <f>Regular_small.csv!G4/Optimistic_small.csv!G4</f>
+        <v>2.0835163159485566</v>
+      </c>
+      <c r="B4">
+        <f>Regular_large.csv!G4/Optimistic_large.csv!G4</f>
+        <v>1.709493359975744</v>
+      </c>
+      <c r="C4">
+        <f>Regular_small.csv!H4/Optimistic_small.csv!H4</f>
+        <v>0.46100332162316904</v>
+      </c>
+      <c r="D4">
+        <f>Regular_large.csv!H4/Optimistic_large.csv!H4</f>
+        <v>0.45458554652373834</v>
+      </c>
+      <c r="E4">
+        <f>Regular_small.csv!I4/Optimistic_small.csv!I4</f>
+        <v>2.015518974262676</v>
+      </c>
+      <c r="F4">
+        <f>Regular_large.csv!I4/Optimistic_large.csv!I4</f>
+        <v>1.9955492959938379</v>
+      </c>
+      <c r="G4">
+        <f>Regular_small.csv!J4/Optimistic_small.csv!J4</f>
+        <v>1.0000016965485607</v>
+      </c>
+      <c r="H4">
+        <f>Regular_large.csv!J4/Optimistic_large.csv!J4</f>
+        <v>1.0000000691017412</v>
+      </c>
+      <c r="I4">
+        <f>Regular_small.csv!G4/Regular_small.csv!I4</f>
+        <v>312.57013028026773</v>
+      </c>
+      <c r="J4">
+        <f>Regular_large.csv!G4/Regular_large.csv!I4</f>
+        <v>254.79253913689902</v>
+      </c>
+      <c r="K4">
+        <f>Optimistic_small.csv!G4/Optimistic_small.csv!I4</f>
+        <v>302.36913603473369</v>
+      </c>
+      <c r="L4">
+        <f>Optimistic_large.csv!G4/Optimistic_large.csv!I4</f>
+        <v>297.42793040526095</v>
+      </c>
+      <c r="M4">
+        <f>Regular_small.csv!H4/Regular_small.csv!J4</f>
+        <v>92.098478117627963</v>
+      </c>
+      <c r="N4">
+        <f>Regular_large.csv!H4/Regular_large.csv!J4</f>
+        <v>85.707862873429974</v>
+      </c>
+      <c r="O4">
+        <f>Optimistic_small.csv!H4/Optimistic_small.csv!J4</f>
+        <v>199.77867847653221</v>
+      </c>
+      <c r="P4">
+        <f>Optimistic_large.csv!H4/Optimistic_large.csv!J4</f>
+        <v>188.54068161957471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <f>Regular_small.csv!G5/Optimistic_small.csv!G5</f>
+        <v>2.0301185571565346</v>
+      </c>
+      <c r="B5">
+        <f>Regular_large.csv!G5/Optimistic_large.csv!G5</f>
+        <v>2.1031817382742228</v>
+      </c>
+      <c r="C5">
+        <f>Regular_small.csv!H5/Optimistic_small.csv!H5</f>
+        <v>0.47080544683778536</v>
+      </c>
+      <c r="D5">
+        <f>Regular_large.csv!H5/Optimistic_large.csv!H5</f>
+        <v>0.62912436964128227</v>
+      </c>
+      <c r="E5">
+        <f>Regular_small.csv!I5/Optimistic_small.csv!I5</f>
+        <v>2.0004086652503128</v>
+      </c>
+      <c r="F5">
+        <f>Regular_large.csv!I5/Optimistic_large.csv!I5</f>
+        <v>2.0019281225780343</v>
+      </c>
+      <c r="G5">
+        <f>Regular_small.csv!J5/Optimistic_small.csv!J5</f>
+        <v>0.99999769670928518</v>
+      </c>
+      <c r="H5">
+        <f>Regular_large.csv!J5/Optimistic_large.csv!J5</f>
+        <v>0.99999968638509906</v>
+      </c>
+      <c r="I5">
+        <f>Regular_small.csv!G5/Regular_small.csv!I5</f>
+        <v>301.18956081068887</v>
+      </c>
+      <c r="J5">
+        <f>Regular_large.csv!G5/Regular_large.csv!I5</f>
+        <v>622.67086779054546</v>
+      </c>
+      <c r="K5">
+        <f>Optimistic_small.csv!G5/Optimistic_small.csv!I5</f>
+        <v>296.78178410059309</v>
+      </c>
+      <c r="L5">
+        <f>Optimistic_large.csv!G5/Optimistic_large.csv!I5</f>
+        <v>592.6935835620269</v>
+      </c>
+      <c r="M5">
+        <f>Regular_small.csv!H5/Regular_small.csv!J5</f>
+        <v>94.357961796049111</v>
+      </c>
+      <c r="N5">
+        <f>Regular_large.csv!H5/Regular_large.csv!J5</f>
+        <v>181.80687381036594</v>
+      </c>
+      <c r="O5">
+        <f>Optimistic_small.csv!H5/Optimistic_small.csv!J5</f>
+        <v>200.41769927683637</v>
+      </c>
+      <c r="P5">
+        <f>Optimistic_large.csv!H5/Optimistic_large.csv!J5</f>
+        <v>288.98390456037316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <f>Regular_small.csv!G6/Optimistic_small.csv!G6</f>
+        <v>3.0600815885881052</v>
+      </c>
+      <c r="B6">
+        <f>Regular_large.csv!G6/Optimistic_large.csv!G6</f>
+        <v>1.9638958065520715</v>
+      </c>
+      <c r="C6">
+        <f>Regular_small.csv!H6/Optimistic_small.csv!H6</f>
+        <v>0.90798102257211988</v>
+      </c>
+      <c r="D6">
+        <f>Regular_large.csv!H6/Optimistic_large.csv!H6</f>
+        <v>0.62196961478539536</v>
+      </c>
+      <c r="E6">
+        <f>Regular_small.csv!I6/Optimistic_small.csv!I6</f>
+        <v>2.005692225386372</v>
+      </c>
+      <c r="F6">
+        <f>Regular_large.csv!I6/Optimistic_large.csv!I6</f>
+        <v>2.0019930288563716</v>
+      </c>
+      <c r="G6">
+        <f>Regular_small.csv!J6/Optimistic_small.csv!J6</f>
+        <v>1.0000115273082326</v>
+      </c>
+      <c r="H6">
+        <f>Regular_large.csv!J6/Optimistic_large.csv!J6</f>
+        <v>0.99999937276950457</v>
+      </c>
+      <c r="I6">
+        <f>Regular_small.csv!G6/Regular_small.csv!I6</f>
+        <v>323.741717555332</v>
+      </c>
+      <c r="J6">
+        <f>Regular_large.csv!G6/Regular_large.csv!I6</f>
+        <v>609.75820605302363</v>
+      </c>
+      <c r="K6">
+        <f>Optimistic_small.csv!G6/Optimistic_small.csv!I6</f>
+        <v>212.19246191195629</v>
+      </c>
+      <c r="L6">
+        <f>Optimistic_large.csv!G6/Optimistic_large.csv!I6</f>
+        <v>621.58678364373475</v>
+      </c>
+      <c r="M6">
+        <f>Regular_small.csv!H6/Regular_small.csv!J6</f>
+        <v>154.93740875232359</v>
+      </c>
+      <c r="N6">
+        <f>Regular_large.csv!H6/Regular_large.csv!J6</f>
+        <v>177.87979115762849</v>
+      </c>
+      <c r="O6">
+        <f>Optimistic_small.csv!H6/Optimistic_small.csv!J6</f>
+        <v>170.64144614463501</v>
+      </c>
+      <c r="P6">
+        <f>Optimistic_large.csv!H6/Optimistic_large.csv!J6</f>
+        <v>285.99416331194033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <f>Regular_small.csv!G7/Optimistic_small.csv!G7</f>
+        <v>2.8319744115177561</v>
+      </c>
+      <c r="B7">
+        <f>Regular_large.csv!G7/Optimistic_large.csv!G7</f>
+        <v>1.9967249618290095</v>
+      </c>
+      <c r="C7">
+        <f>Regular_small.csv!H7/Optimistic_small.csv!H7</f>
+        <v>0.83564466315062835</v>
+      </c>
+      <c r="D7">
+        <f>Regular_large.csv!H7/Optimistic_large.csv!H7</f>
+        <v>0.63311625087233114</v>
+      </c>
+      <c r="E7">
+        <f>Regular_small.csv!I7/Optimistic_small.csv!I7</f>
+        <v>2.00823611404945</v>
+      </c>
+      <c r="F7">
+        <f>Regular_large.csv!I7/Optimistic_large.csv!I7</f>
+        <v>2.0009739505420403</v>
+      </c>
+      <c r="G7">
+        <f>Regular_small.csv!J7/Optimistic_small.csv!J7</f>
+        <v>0.99998878670470814</v>
+      </c>
+      <c r="H7">
+        <f>Regular_large.csv!J7/Optimistic_large.csv!J7</f>
+        <v>1.0000011640990327</v>
+      </c>
+      <c r="I7">
+        <f>Regular_small.csv!G7/Regular_small.csv!I7</f>
+        <v>290.13209523714403</v>
+      </c>
+      <c r="J7">
+        <f>Regular_large.csv!G7/Regular_large.csv!I7</f>
+        <v>601.77654563955991</v>
+      </c>
+      <c r="K7">
+        <f>Optimistic_small.csv!G7/Optimistic_small.csv!I7</f>
+        <v>205.74117800301809</v>
+      </c>
+      <c r="L7">
+        <f>Optimistic_large.csv!G7/Optimistic_large.csv!I7</f>
+        <v>603.0571134689153</v>
+      </c>
+      <c r="M7">
+        <f>Regular_small.csv!H7/Regular_small.csv!J7</f>
+        <v>140.93719467374186</v>
+      </c>
+      <c r="N7">
+        <f>Regular_large.csv!H7/Regular_large.csv!J7</f>
+        <v>177.53354983459369</v>
+      </c>
+      <c r="O7">
+        <f>Optimistic_small.csv!H7/Optimistic_small.csv!J7</f>
+        <v>168.65495648831322</v>
+      </c>
+      <c r="P7">
+        <f>Optimistic_large.csv!H7/Optimistic_large.csv!J7</f>
+        <v>280.41257234609714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <f>Regular_small.csv!G8/Optimistic_small.csv!G8</f>
+        <v>2.1677644884573493</v>
+      </c>
+      <c r="B8">
+        <f>Regular_large.csv!G8/Optimistic_large.csv!G8</f>
+        <v>1.9992888639605455</v>
+      </c>
+      <c r="C8">
+        <f>Regular_small.csv!H8/Optimistic_small.csv!H8</f>
+        <v>0.59531719825552221</v>
+      </c>
+      <c r="D8">
+        <f>Regular_large.csv!H8/Optimistic_large.csv!H8</f>
+        <v>0.60987575684771411</v>
+      </c>
+      <c r="E8">
+        <f>Regular_small.csv!I8/Optimistic_small.csv!I8</f>
+        <v>2.0051336288309947</v>
+      </c>
+      <c r="F8">
+        <f>Regular_large.csv!I8/Optimistic_large.csv!I8</f>
+        <v>1.9999406773574724</v>
+      </c>
+      <c r="G8">
+        <f>Regular_small.csv!J8/Optimistic_small.csv!J8</f>
+        <v>1.0000008089500072</v>
+      </c>
+      <c r="H8">
+        <f>Regular_large.csv!J8/Optimistic_large.csv!J8</f>
+        <v>0.99999988305883369</v>
+      </c>
+      <c r="I8">
+        <f>Regular_small.csv!G8/Regular_small.csv!I8</f>
+        <v>703.22165161196824</v>
+      </c>
+      <c r="J8">
+        <f>Regular_large.csv!G8/Regular_large.csv!I8</f>
+        <v>610.12605690095052</v>
+      </c>
+      <c r="K8">
+        <f>Optimistic_small.csv!G8/Optimistic_small.csv!I8</f>
+        <v>650.46428690815503</v>
+      </c>
+      <c r="L8">
+        <f>Optimistic_large.csv!G8/Optimistic_large.csv!I8</f>
+        <v>610.3249717975774</v>
+      </c>
+      <c r="M8">
+        <f>Regular_small.csv!H8/Regular_small.csv!J8</f>
+        <v>181.77965477996489</v>
+      </c>
+      <c r="N8">
+        <f>Regular_large.csv!H8/Regular_large.csv!J8</f>
+        <v>178.23976319368532</v>
+      </c>
+      <c r="O8">
+        <f>Optimistic_small.csv!H8/Optimistic_small.csv!J8</f>
+        <v>305.34948824474299</v>
+      </c>
+      <c r="P8">
+        <f>Optimistic_large.csv!H8/Optimistic_large.csv!J8</f>
+        <v>292.25582481158693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <f>Regular_small.csv!G9/Optimistic_small.csv!G9</f>
+        <v>2.3077450936837125</v>
+      </c>
+      <c r="B9">
+        <f>Regular_large.csv!G9/Optimistic_large.csv!G9</f>
+        <v>1.6315959678568537</v>
+      </c>
+      <c r="C9">
+        <f>Regular_small.csv!H9/Optimistic_small.csv!H9</f>
+        <v>0.65636595368973794</v>
+      </c>
+      <c r="D9">
+        <f>Regular_large.csv!H9/Optimistic_large.csv!H9</f>
+        <v>0.7964504504746226</v>
+      </c>
+      <c r="E9">
+        <f>Regular_small.csv!I9/Optimistic_small.csv!I9</f>
+        <v>2.0025408678358332</v>
+      </c>
+      <c r="F9">
+        <f>Regular_large.csv!I9/Optimistic_large.csv!I9</f>
+        <v>2.0045617815709571</v>
+      </c>
+      <c r="G9">
+        <f>Regular_small.csv!J9/Optimistic_small.csv!J9</f>
+        <v>1.0000005392987688</v>
+      </c>
+      <c r="H9">
+        <f>Regular_large.csv!J9/Optimistic_large.csv!J9</f>
+        <v>1.0000021687131009</v>
+      </c>
+      <c r="I9">
+        <f>Regular_small.csv!G9/Regular_small.csv!I9</f>
+        <v>745.65137214291315</v>
+      </c>
+      <c r="J9">
+        <f>Regular_large.csv!G9/Regular_large.csv!I9</f>
+        <v>1130.2937773431897</v>
+      </c>
+      <c r="K9">
+        <f>Optimistic_small.csv!G9/Optimistic_small.csv!I9</f>
+        <v>647.0373829245367</v>
+      </c>
+      <c r="L9">
+        <f>Optimistic_large.csv!G9/Optimistic_large.csv!I9</f>
+        <v>1388.6671410359929</v>
+      </c>
+      <c r="M9">
+        <f>Regular_small.csv!H9/Regular_small.csv!J9</f>
+        <v>193.94705733807933</v>
+      </c>
+      <c r="N9">
+        <f>Regular_large.csv!H9/Regular_large.csv!J9</f>
+        <v>284.36432723449656</v>
+      </c>
+      <c r="O9">
+        <f>Optimistic_small.csv!H9/Optimistic_small.csv!J9</f>
+        <v>295.48632259674872</v>
+      </c>
+      <c r="P9">
+        <f>Optimistic_large.csv!H9/Optimistic_large.csv!J9</f>
+        <v>357.04034540965984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <f>Regular_small.csv!G10/Optimistic_small.csv!G10</f>
+        <v>2.1833928356957562</v>
+      </c>
+      <c r="B10">
+        <f>Regular_large.csv!G10/Optimistic_large.csv!G10</f>
+        <v>1.4994686949206668</v>
+      </c>
+      <c r="C10">
+        <f>Regular_small.csv!H10/Optimistic_small.csv!H10</f>
+        <v>0.60385129970815576</v>
+      </c>
+      <c r="D10">
+        <f>Regular_large.csv!H10/Optimistic_large.csv!H10</f>
+        <v>0.77965049496575156</v>
+      </c>
+      <c r="E10">
+        <f>Regular_small.csv!I10/Optimistic_small.csv!I10</f>
+        <v>1.9936571149039972</v>
+      </c>
+      <c r="F10">
+        <f>Regular_large.csv!I10/Optimistic_large.csv!I10</f>
+        <v>2.002815086050223</v>
+      </c>
+      <c r="G10">
+        <f>Regular_small.csv!J10/Optimistic_small.csv!J10</f>
+        <v>1.0000006516693138</v>
+      </c>
+      <c r="H10">
+        <f>Regular_large.csv!J10/Optimistic_large.csv!J10</f>
+        <v>0.99999978737802608</v>
+      </c>
+      <c r="I10">
+        <f>Regular_small.csv!G10/Regular_small.csv!I10</f>
+        <v>727.09153408759482</v>
+      </c>
+      <c r="J10">
+        <f>Regular_large.csv!G10/Regular_large.csv!I10</f>
+        <v>1142.4072552393275</v>
+      </c>
+      <c r="K10">
+        <f>Optimistic_small.csv!G10/Optimistic_small.csv!I10</f>
+        <v>663.9076516243482</v>
+      </c>
+      <c r="L10">
+        <f>Optimistic_large.csv!G10/Optimistic_large.csv!I10</f>
+        <v>1525.8941336735318</v>
+      </c>
+      <c r="M10">
+        <f>Regular_small.csv!H10/Regular_small.csv!J10</f>
+        <v>190.15853077159147</v>
+      </c>
+      <c r="N10">
+        <f>Regular_large.csv!H10/Regular_large.csv!J10</f>
+        <v>280.73857532722394</v>
+      </c>
+      <c r="O10">
+        <f>Optimistic_small.csv!H10/Optimistic_small.csv!J10</f>
+        <v>314.90973818219049</v>
+      </c>
+      <c r="P10">
+        <f>Optimistic_large.csv!H10/Optimistic_large.csv!J10</f>
+        <v>360.08252088439474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <f>Regular_small.csv!G11/Optimistic_small.csv!G11</f>
+        <v>2.2867687525147464</v>
+      </c>
+      <c r="B11">
+        <f>Regular_large.csv!G11/Optimistic_large.csv!G11</f>
+        <v>1.506717811214618</v>
+      </c>
+      <c r="C11">
+        <f>Regular_small.csv!H11/Optimistic_small.csv!H11</f>
+        <v>0.59445797305303982</v>
+      </c>
+      <c r="D11">
+        <f>Regular_large.csv!H11/Optimistic_large.csv!H11</f>
+        <v>0.78313519174846291</v>
+      </c>
+      <c r="E11">
+        <f>Regular_small.csv!I11/Optimistic_small.csv!I11</f>
+        <v>2.0017208486473499</v>
+      </c>
+      <c r="F11">
+        <f>Regular_large.csv!I11/Optimistic_large.csv!I11</f>
+        <v>2.0017092456750754</v>
+      </c>
+      <c r="G11">
+        <f>Regular_small.csv!J11/Optimistic_small.csv!J11</f>
+        <v>0.99999584291718813</v>
+      </c>
+      <c r="H11">
+        <f>Regular_large.csv!J11/Optimistic_large.csv!J11</f>
+        <v>1.0000005315541098</v>
+      </c>
+      <c r="I11">
+        <f>Regular_small.csv!G11/Regular_small.csv!I11</f>
+        <v>701.91344620270843</v>
+      </c>
+      <c r="J11">
+        <f>Regular_large.csv!G11/Regular_large.csv!I11</f>
+        <v>1135.100254287609</v>
+      </c>
+      <c r="K11">
+        <f>Optimistic_small.csv!G11/Optimistic_small.csv!I11</f>
+        <v>614.419266340229</v>
+      </c>
+      <c r="L11">
+        <f>Optimistic_large.csv!G11/Optimistic_large.csv!I11</f>
+        <v>1508.0067792813732</v>
+      </c>
+      <c r="M11">
+        <f>Regular_small.csv!H11/Regular_small.csv!J11</f>
+        <v>183.44412749614762</v>
+      </c>
+      <c r="N11">
+        <f>Regular_large.csv!H11/Regular_large.csv!J11</f>
+        <v>279.16887765949537</v>
+      </c>
+      <c r="O11">
+        <f>Optimistic_small.csv!H11/Optimistic_small.csv!J11</f>
+        <v>308.58929179060857</v>
+      </c>
+      <c r="P11">
+        <f>Optimistic_large.csv!H11/Optimistic_large.csv!J11</f>
+        <v>356.47616017558124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <f>Regular_small.csv!G12/Optimistic_small.csv!G12</f>
+        <v>2.0984670682212756</v>
+      </c>
+      <c r="B12">
+        <f>Regular_large.csv!G12/Optimistic_large.csv!G12</f>
+        <v>1.6069107423972624</v>
+      </c>
+      <c r="C12">
+        <f>Regular_small.csv!H12/Optimistic_small.csv!H12</f>
+        <v>1.6374884104280039</v>
+      </c>
+      <c r="D12">
+        <f>Regular_large.csv!H12/Optimistic_large.csv!H12</f>
+        <v>0.81386576185403015</v>
+      </c>
+      <c r="E12">
+        <f>Regular_small.csv!I12/Optimistic_small.csv!I12</f>
+        <v>2.0552395524330471</v>
+      </c>
+      <c r="F12">
+        <f>Regular_large.csv!I12/Optimistic_large.csv!I12</f>
+        <v>2.0047654546168889</v>
+      </c>
+      <c r="G12">
+        <f>Regular_small.csv!J12/Optimistic_small.csv!J12</f>
+        <v>0.9999098301312469</v>
+      </c>
+      <c r="H12">
+        <f>Regular_large.csv!J12/Optimistic_large.csv!J12</f>
+        <v>0.9999995853919994</v>
+      </c>
+      <c r="I12">
+        <f>Regular_small.csv!G12/Regular_small.csv!I12</f>
+        <v>709.12076342474995</v>
+      </c>
+      <c r="J12">
+        <f>Regular_large.csv!G12/Regular_large.csv!I12</f>
+        <v>1127.8667541107229</v>
+      </c>
+      <c r="K12">
+        <f>Optimistic_small.csv!G12/Optimistic_small.csv!I12</f>
+        <v>694.5131817948477</v>
+      </c>
+      <c r="L12">
+        <f>Optimistic_large.csv!G12/Optimistic_large.csv!I12</f>
+        <v>1407.1150602172429</v>
+      </c>
+      <c r="M12">
+        <f>Regular_small.csv!H12/Regular_small.csv!J12</f>
+        <v>611.87379340577479</v>
+      </c>
+      <c r="N12">
+        <f>Regular_large.csv!H12/Regular_large.csv!J12</f>
+        <v>284.39879046676759</v>
+      </c>
+      <c r="O12">
+        <f>Optimistic_small.csv!H12/Optimistic_small.csv!J12</f>
+        <v>373.63233652824073</v>
+      </c>
+      <c r="P12">
+        <f>Optimistic_large.csv!H12/Optimistic_large.csv!J12</f>
+        <v>349.44174565702104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <f>Regular_small.csv!G13/Optimistic_small.csv!G13</f>
+        <v>2.0839036128400195</v>
+      </c>
+      <c r="B13">
+        <f>Regular_large.csv!G13/Optimistic_large.csv!G13</f>
+        <v>1.6121231681678267</v>
+      </c>
+      <c r="C13">
+        <f>Regular_small.csv!H13/Optimistic_small.csv!H13</f>
+        <v>0.74862218583671725</v>
+      </c>
+      <c r="D13">
+        <f>Regular_large.csv!H13/Optimistic_large.csv!H13</f>
+        <v>0.80223323335379526</v>
+      </c>
+      <c r="E13">
+        <f>Regular_small.csv!I13/Optimistic_small.csv!I13</f>
+        <v>1.9995686727555901</v>
+      </c>
+      <c r="F13">
+        <f>Regular_large.csv!I13/Optimistic_large.csv!I13</f>
+        <v>2.0040157970919394</v>
+      </c>
+      <c r="G13">
+        <f>Regular_small.csv!J13/Optimistic_small.csv!J13</f>
+        <v>1.000032448896415</v>
+      </c>
+      <c r="H13">
+        <f>Regular_large.csv!J13/Optimistic_large.csv!J13</f>
+        <v>0.9999982565207215</v>
+      </c>
+      <c r="I13">
+        <f>Regular_small.csv!G13/Regular_small.csv!I13</f>
+        <v>723.41477585533482</v>
+      </c>
+      <c r="J13">
+        <f>Regular_large.csv!G13/Regular_large.csv!I13</f>
+        <v>1119.1852552419587</v>
+      </c>
+      <c r="K13">
+        <f>Optimistic_small.csv!G13/Optimistic_small.csv!I13</f>
+        <v>694.13840174568736</v>
+      </c>
+      <c r="L13">
+        <f>Optimistic_large.csv!G13/Optimistic_large.csv!I13</f>
+        <v>1391.249115243638</v>
+      </c>
+      <c r="M13">
+        <f>Regular_small.csv!H13/Regular_small.csv!J13</f>
+        <v>612.55122549370435</v>
+      </c>
+      <c r="N13">
+        <f>Regular_large.csv!H13/Regular_large.csv!J13</f>
+        <v>278.87378313837638</v>
+      </c>
+      <c r="O13">
+        <f>Optimistic_small.csv!H13/Optimistic_small.csv!J13</f>
+        <v>818.26469171537201</v>
+      </c>
+      <c r="P13">
+        <f>Optimistic_large.csv!H13/Optimistic_large.csv!J13</f>
+        <v>347.6212220252504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <f>Regular_small.csv!G14/Optimistic_small.csv!G14</f>
+        <v>2.0008556125101662</v>
+      </c>
+      <c r="B14">
+        <f>Regular_large.csv!G14/Optimistic_large.csv!G14</f>
+        <v>1.6094864149999191</v>
+      </c>
+      <c r="C14">
+        <f>Regular_small.csv!H14/Optimistic_small.csv!H14</f>
+        <v>0.53950418560342828</v>
+      </c>
+      <c r="D14">
+        <f>Regular_large.csv!H14/Optimistic_large.csv!H14</f>
+        <v>0.7921546251131063</v>
+      </c>
+      <c r="E14">
+        <f>Regular_small.csv!I14/Optimistic_small.csv!I14</f>
+        <v>1.9248781699865114</v>
+      </c>
+      <c r="F14">
+        <f>Regular_large.csv!I14/Optimistic_large.csv!I14</f>
+        <v>2.0048298297838159</v>
+      </c>
+      <c r="G14">
+        <f>Regular_small.csv!J14/Optimistic_small.csv!J14</f>
+        <v>1.0000710777715989</v>
+      </c>
+      <c r="H14">
+        <f>Regular_large.csv!J14/Optimistic_large.csv!J14</f>
+        <v>1.0000013820509703</v>
+      </c>
+      <c r="I14">
+        <f>Regular_small.csv!G14/Regular_small.csv!I14</f>
+        <v>718.40807861996382</v>
+      </c>
+      <c r="J14">
+        <f>Regular_large.csv!G14/Regular_large.csv!I14</f>
+        <v>1120.3542543683043</v>
+      </c>
+      <c r="K14">
+        <f>Optimistic_small.csv!G14/Optimistic_small.csv!I14</f>
+        <v>691.12834480978597</v>
+      </c>
+      <c r="L14">
+        <f>Optimistic_large.csv!G14/Optimistic_large.csv!I14</f>
+        <v>1395.5505359657814</v>
+      </c>
+      <c r="M14">
+        <f>Regular_small.csv!H14/Regular_small.csv!J14</f>
+        <v>481.93499284127165</v>
+      </c>
+      <c r="N14">
+        <f>Regular_large.csv!H14/Regular_large.csv!J14</f>
+        <v>280.95746343223101</v>
+      </c>
+      <c r="O14">
+        <f>Optimistic_small.csv!H14/Optimistic_small.csv!J14</f>
+        <v>893.35590078423968</v>
+      </c>
+      <c r="P14">
+        <f>Optimistic_large.csv!H14/Optimistic_large.csv!J14</f>
+        <v>354.67551766127718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <f>Regular_small.csv!G15/Optimistic_small.csv!G15</f>
+        <v>2.4164029091074055</v>
+      </c>
+      <c r="B15">
+        <f>Regular_large.csv!G15/Optimistic_large.csv!G15</f>
+        <v>1.6045515277407643</v>
+      </c>
+      <c r="C15">
+        <f>Regular_small.csv!H15/Optimistic_small.csv!H15</f>
+        <v>0.74226095501186751</v>
+      </c>
+      <c r="D15">
+        <f>Regular_large.csv!H15/Optimistic_large.csv!H15</f>
+        <v>0.75143992319625363</v>
+      </c>
+      <c r="E15">
+        <f>Regular_small.csv!I15/Optimistic_small.csv!I15</f>
+        <v>2.0045623019772769</v>
+      </c>
+      <c r="F15">
+        <f>Regular_large.csv!I15/Optimistic_large.csv!I15</f>
+        <v>1.9958749281139763</v>
+      </c>
+      <c r="G15">
+        <f>Regular_small.csv!J15/Optimistic_small.csv!J15</f>
+        <v>0.99999314628858271</v>
+      </c>
+      <c r="H15">
+        <f>Regular_large.csv!J15/Optimistic_large.csv!J15</f>
+        <v>1.0000024557725986</v>
+      </c>
+      <c r="I15">
+        <f>Regular_small.csv!G15/Regular_small.csv!I15</f>
+        <v>666.42449410273491</v>
+      </c>
+      <c r="J15">
+        <f>Regular_large.csv!G15/Regular_large.csv!I15</f>
+        <v>1116.0780970593496</v>
+      </c>
+      <c r="K15">
+        <f>Optimistic_small.csv!G15/Optimistic_small.csv!I15</f>
+        <v>552.84216591432767</v>
+      </c>
+      <c r="L15">
+        <f>Optimistic_large.csv!G15/Optimistic_large.csv!I15</f>
+        <v>1388.2709612163992</v>
+      </c>
+      <c r="M15">
+        <f>Regular_small.csv!H15/Regular_small.csv!J15</f>
+        <v>567.33920079469442</v>
+      </c>
+      <c r="N15">
+        <f>Regular_large.csv!H15/Regular_large.csv!J15</f>
+        <v>278.15077596642254</v>
+      </c>
+      <c r="O15">
+        <f>Optimistic_small.csv!H15/Optimistic_small.csv!J15</f>
+        <v>764.33403722073149</v>
+      </c>
+      <c r="P15">
+        <f>Optimistic_large.csv!H15/Optimistic_large.csv!J15</f>
+        <v>370.15794670365364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <f>Regular_small.csv!G16/Optimistic_small.csv!G16</f>
+        <v>1.735266307561663</v>
+      </c>
+      <c r="B16">
+        <f>Regular_large.csv!G16/Optimistic_large.csv!G16</f>
+        <v>1.6148855035648271</v>
+      </c>
+      <c r="C16">
+        <f>Regular_small.csv!H16/Optimistic_small.csv!H16</f>
+        <v>0.73393410339233311</v>
+      </c>
+      <c r="D16">
+        <f>Regular_large.csv!H16/Optimistic_large.csv!H16</f>
+        <v>0.75357505146283077</v>
+      </c>
+      <c r="E16">
+        <f>Regular_small.csv!I16/Optimistic_small.csv!I16</f>
+        <v>1.9932490148750024</v>
+      </c>
+      <c r="F16">
+        <f>Regular_large.csv!I16/Optimistic_large.csv!I16</f>
+        <v>1.9984434068583043</v>
+      </c>
+      <c r="G16">
+        <f>Regular_small.csv!J16/Optimistic_small.csv!J16</f>
+        <v>0.99999730348434313</v>
+      </c>
+      <c r="H16">
+        <f>Regular_large.csv!J16/Optimistic_large.csv!J16</f>
+        <v>0.99999517354081491</v>
+      </c>
+      <c r="I16">
+        <f>Regular_small.csv!G16/Regular_small.csv!I16</f>
+        <v>1338.1256607707803</v>
+      </c>
+      <c r="J16">
+        <f>Regular_large.csv!G16/Regular_large.csv!I16</f>
+        <v>1119.0338443141561</v>
+      </c>
+      <c r="K16">
+        <f>Optimistic_small.csv!G16/Optimistic_small.csv!I16</f>
+        <v>1537.0653158466512</v>
+      </c>
+      <c r="L16">
+        <f>Optimistic_large.csv!G16/Optimistic_large.csv!I16</f>
+        <v>1384.8200403584549</v>
+      </c>
+      <c r="M16">
+        <f>Regular_small.csv!H16/Regular_small.csv!J16</f>
+        <v>303.52618928233704</v>
+      </c>
+      <c r="N16">
+        <f>Regular_large.csv!H16/Regular_large.csv!J16</f>
+        <v>279.58412398965589</v>
+      </c>
+      <c r="O16">
+        <f>Optimistic_small.csv!H16/Optimistic_small.csv!J16</f>
+        <v>413.55943185673482</v>
+      </c>
+      <c r="P16">
+        <f>Optimistic_large.csv!H16/Optimistic_large.csv!J16</f>
+        <v>371.00853331804177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <f>Regular_small.csv!G17/Optimistic_small.csv!G17</f>
+        <v>1.9124273004238257</v>
+      </c>
+      <c r="B17">
+        <f>Regular_large.csv!G17/Optimistic_large.csv!G17</f>
+        <v>1.1026339270213124</v>
+      </c>
+      <c r="C17">
+        <f>Regular_small.csv!H17/Optimistic_small.csv!H17</f>
+        <v>0.72306244661161734</v>
+      </c>
+      <c r="D17">
+        <f>Regular_large.csv!H17/Optimistic_large.csv!H17</f>
+        <v>0.73833459408470892</v>
+      </c>
+      <c r="E17">
+        <f>Regular_small.csv!I17/Optimistic_small.csv!I17</f>
+        <v>1.9994680655916102</v>
+      </c>
+      <c r="F17">
+        <f>Regular_large.csv!I17/Optimistic_large.csv!I17</f>
+        <v>1.9976679475435162</v>
+      </c>
+      <c r="G17">
+        <f>Regular_small.csv!J17/Optimistic_small.csv!J17</f>
+        <v>1.0000036402719239</v>
+      </c>
+      <c r="H17">
+        <f>Regular_large.csv!J17/Optimistic_large.csv!J17</f>
+        <v>0.99999859670596714</v>
+      </c>
+      <c r="I17">
+        <f>Regular_small.csv!G17/Regular_small.csv!I17</f>
+        <v>1466.3711915120778</v>
+      </c>
+      <c r="J17">
+        <f>Regular_large.csv!G17/Regular_large.csv!I17</f>
+        <v>2486.590422277945</v>
+      </c>
+      <c r="K17">
+        <f>Optimistic_small.csv!G17/Optimistic_small.csv!I17</f>
+        <v>1533.1104973674799</v>
+      </c>
+      <c r="L17">
+        <f>Optimistic_large.csv!G17/Optimistic_large.csv!I17</f>
+        <v>4505.0146413255934</v>
+      </c>
+      <c r="M17">
+        <f>Regular_small.csv!H17/Regular_small.csv!J17</f>
+        <v>299.16960073013701</v>
+      </c>
+      <c r="N17">
+        <f>Regular_large.csv!H17/Regular_large.csv!J17</f>
+        <v>279.1096404947001</v>
+      </c>
+      <c r="O17">
+        <f>Optimistic_small.csv!H17/Optimistic_small.csv!J17</f>
+        <v>413.75498228513351</v>
+      </c>
+      <c r="P17">
+        <f>Optimistic_large.csv!H17/Optimistic_large.csv!J17</f>
+        <v>378.02542513643209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <f>Regular_small.csv!G18/Optimistic_small.csv!G18</f>
+        <v>1.4461558008833362</v>
+      </c>
+      <c r="B18">
+        <f>Regular_large.csv!G18/Optimistic_large.csv!G18</f>
+        <v>1.1541581754072174</v>
+      </c>
+      <c r="C18">
+        <f>Regular_small.csv!H18/Optimistic_small.csv!H18</f>
+        <v>0.7186599466872825</v>
+      </c>
+      <c r="D18">
+        <f>Regular_large.csv!H18/Optimistic_large.csv!H18</f>
+        <v>0.9024635115128109</v>
+      </c>
+      <c r="E18">
+        <f>Regular_small.csv!I18/Optimistic_small.csv!I18</f>
+        <v>1.9912880936932991</v>
+      </c>
+      <c r="F18">
+        <f>Regular_large.csv!I18/Optimistic_large.csv!I18</f>
+        <v>2.0065932678019647</v>
+      </c>
+      <c r="G18">
+        <f>Regular_small.csv!J18/Optimistic_small.csv!J18</f>
+        <v>1.0000016178486819</v>
+      </c>
+      <c r="H18">
+        <f>Regular_large.csv!J18/Optimistic_large.csv!J18</f>
+        <v>0.99999717219090867</v>
+      </c>
+      <c r="I18">
+        <f>Regular_small.csv!G18/Regular_small.csv!I18</f>
+        <v>1316.7396190046561</v>
+      </c>
+      <c r="J18">
+        <f>Regular_large.csv!G18/Regular_large.csv!I18</f>
+        <v>2588.2870419715405</v>
+      </c>
+      <c r="K18">
+        <f>Optimistic_small.csv!G18/Optimistic_small.csv!I18</f>
+        <v>1813.088136296695</v>
+      </c>
+      <c r="L18">
+        <f>Optimistic_large.csv!G18/Optimistic_large.csv!I18</f>
+        <v>4499.9372393014519</v>
+      </c>
+      <c r="M18">
+        <f>Regular_small.csv!H18/Regular_small.csv!J18</f>
+        <v>300.3048568457898</v>
+      </c>
+      <c r="N18">
+        <f>Regular_large.csv!H18/Regular_large.csv!J18</f>
+        <v>330.58926175795182</v>
+      </c>
+      <c r="O18">
+        <f>Optimistic_small.csv!H18/Optimistic_small.csv!J18</f>
+        <v>417.868484361605</v>
+      </c>
+      <c r="P18">
+        <f>Optimistic_large.csv!H18/Optimistic_large.csv!J18</f>
+        <v>366.31766569759986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <f>Regular_small.csv!G19/Optimistic_small.csv!G19</f>
+        <v>1.6222721502797555</v>
+      </c>
+      <c r="B19">
+        <f>Regular_large.csv!G19/Optimistic_large.csv!G19</f>
+        <v>1.103205775298101</v>
+      </c>
+      <c r="C19">
+        <f>Regular_small.csv!H19/Optimistic_small.csv!H19</f>
+        <v>0.72290579134434452</v>
+      </c>
+      <c r="D19">
+        <f>Regular_large.csv!H19/Optimistic_large.csv!H19</f>
+        <v>0.87789523902233202</v>
+      </c>
+      <c r="E19">
+        <f>Regular_small.csv!I19/Optimistic_small.csv!I19</f>
+        <v>1.9890810132919394</v>
+      </c>
+      <c r="F19">
+        <f>Regular_large.csv!I19/Optimistic_large.csv!I19</f>
+        <v>1.9959359616821113</v>
+      </c>
+      <c r="G19">
+        <f>Regular_small.csv!J19/Optimistic_small.csv!J19</f>
+        <v>0.99999901126230661</v>
+      </c>
+      <c r="H19">
+        <f>Regular_large.csv!J19/Optimistic_large.csv!J19</f>
+        <v>1.000000446506748</v>
+      </c>
+      <c r="I19">
+        <f>Regular_small.csv!G19/Regular_small.csv!I19</f>
+        <v>1450.6228896788746</v>
+      </c>
+      <c r="J19">
+        <f>Regular_large.csv!G19/Regular_large.csv!I19</f>
+        <v>2556.1823914473689</v>
+      </c>
+      <c r="K19">
+        <f>Optimistic_small.csv!G19/Optimistic_small.csv!I19</f>
+        <v>1778.6204656286295</v>
+      </c>
+      <c r="L19">
+        <f>Optimistic_large.csv!G19/Optimistic_large.csv!I19</f>
+        <v>4624.6824245728412</v>
+      </c>
+      <c r="M19">
+        <f>Regular_small.csv!H19/Regular_small.csv!J19</f>
+        <v>298.36106803731013</v>
+      </c>
+      <c r="N19">
+        <f>Regular_large.csv!H19/Regular_large.csv!J19</f>
+        <v>328.69540018521519</v>
+      </c>
+      <c r="O19">
+        <f>Optimistic_small.csv!H19/Optimistic_small.csv!J19</f>
+        <v>412.72428110118233</v>
+      </c>
+      <c r="P19">
+        <f>Optimistic_large.csv!H19/Optimistic_large.csv!J19</f>
+        <v>374.4131786339122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <f>Regular_small.csv!G20/Optimistic_small.csv!G20</f>
+        <v>1.6924520854592802</v>
+      </c>
+      <c r="B20">
+        <f>Regular_large.csv!G20/Optimistic_large.csv!G20</f>
+        <v>1.0578066590780879</v>
+      </c>
+      <c r="C20">
+        <f>Regular_small.csv!H20/Optimistic_small.csv!H20</f>
+        <v>0.74845349555962215</v>
+      </c>
+      <c r="D20">
+        <f>Regular_large.csv!H20/Optimistic_large.csv!H20</f>
+        <v>0.73941425732399813</v>
+      </c>
+      <c r="E20">
+        <f>Regular_small.csv!I20/Optimistic_small.csv!I20</f>
+        <v>2.0061387956442629</v>
+      </c>
+      <c r="F20">
+        <f>Regular_large.csv!I20/Optimistic_large.csv!I20</f>
+        <v>1.9972526110295512</v>
+      </c>
+      <c r="G20">
+        <f>Regular_small.csv!J20/Optimistic_small.csv!J20</f>
+        <v>0.99999568552026896</v>
+      </c>
+      <c r="H20">
+        <f>Regular_large.csv!J20/Optimistic_large.csv!J20</f>
+        <v>1.0000068676476304</v>
+      </c>
+      <c r="I20">
+        <f>Regular_small.csv!G20/Regular_small.csv!I20</f>
+        <v>1337.5258108039466</v>
+      </c>
+      <c r="J20">
+        <f>Regular_large.csv!G20/Regular_large.csv!I20</f>
+        <v>2454.2683977044026</v>
+      </c>
+      <c r="K20">
+        <f>Optimistic_small.csv!G20/Optimistic_small.csv!I20</f>
+        <v>1585.4288829105549</v>
+      </c>
+      <c r="L20">
+        <f>Optimistic_large.csv!G20/Optimistic_large.csv!I20</f>
+        <v>4633.9223934877673</v>
+      </c>
+      <c r="M20">
+        <f>Regular_small.csv!H20/Regular_small.csv!J20</f>
+        <v>305.03563132953201</v>
+      </c>
+      <c r="N20">
+        <f>Regular_large.csv!H20/Regular_large.csv!J20</f>
+        <v>272.58848948913749</v>
+      </c>
+      <c r="O20">
+        <f>Optimistic_small.csv!H20/Optimistic_small.csv!J20</f>
+        <v>407.55279662553755</v>
+      </c>
+      <c r="P20">
+        <f>Optimistic_large.csv!H20/Optimistic_large.csv!J20</f>
+        <v>368.65716184234617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <f>Regular_small.csv!G21/Optimistic_small.csv!G21</f>
+        <v>1.7154760065653534</v>
+      </c>
+      <c r="B21">
+        <f>Regular_large.csv!G21/Optimistic_large.csv!G21</f>
+        <v>1.0912662135737743</v>
+      </c>
+      <c r="C21">
+        <f>Regular_small.csv!H21/Optimistic_small.csv!H21</f>
+        <v>0.71576779427120696</v>
+      </c>
+      <c r="D21">
+        <f>Regular_large.csv!H21/Optimistic_large.csv!H21</f>
+        <v>0.73739911867654018</v>
+      </c>
+      <c r="E21">
+        <f>Regular_small.csv!I21/Optimistic_small.csv!I21</f>
+        <v>2.0136236550446247</v>
+      </c>
+      <c r="F21">
+        <f>Regular_large.csv!I21/Optimistic_large.csv!I21</f>
+        <v>1.9955341856740034</v>
+      </c>
+      <c r="G21">
+        <f>Regular_small.csv!J21/Optimistic_small.csv!J21</f>
+        <v>0.99999285419079686</v>
+      </c>
+      <c r="H21">
+        <f>Regular_large.csv!J21/Optimistic_large.csv!J21</f>
+        <v>0.99999632166304031</v>
+      </c>
+      <c r="I21">
+        <f>Regular_small.csv!G21/Regular_small.csv!I21</f>
+        <v>1355.9452563774466</v>
+      </c>
+      <c r="J21">
+        <f>Regular_large.csv!G21/Regular_large.csv!I21</f>
+        <v>2407.8026091085776</v>
+      </c>
+      <c r="K21">
+        <f>Optimistic_small.csv!G21/Optimistic_small.csv!I21</f>
+        <v>1591.606896708385</v>
+      </c>
+      <c r="L21">
+        <f>Optimistic_large.csv!G21/Optimistic_large.csv!I21</f>
+        <v>4403.0066715763842</v>
+      </c>
+      <c r="M21">
+        <f>Regular_small.csv!H21/Regular_small.csv!J21</f>
+        <v>296.65759280236597</v>
+      </c>
+      <c r="N21">
+        <f>Regular_large.csv!H21/Regular_large.csv!J21</f>
+        <v>267.82472264439974</v>
+      </c>
+      <c r="O21">
+        <f>Optimistic_small.csv!H21/Optimistic_small.csv!J21</f>
+        <v>414.45769887685856</v>
+      </c>
+      <c r="P21">
+        <f>Optimistic_large.csv!H21/Optimistic_large.csv!J21</f>
+        <v>363.20051205852411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <f>Regular_small.csv!G22/Optimistic_small.csv!G22</f>
+        <v>1.7868860516365928</v>
+      </c>
+      <c r="B22">
+        <f>Regular_large.csv!G22/Optimistic_large.csv!G22</f>
+        <v>1.0848136014041296</v>
+      </c>
+      <c r="C22">
+        <f>Regular_small.csv!H22/Optimistic_small.csv!H22</f>
+        <v>0.75220741977321393</v>
+      </c>
+      <c r="D22">
+        <f>Regular_large.csv!H22/Optimistic_large.csv!H22</f>
+        <v>0.75404931004366504</v>
+      </c>
+      <c r="E22">
+        <f>Regular_small.csv!I22/Optimistic_small.csv!I22</f>
+        <v>2.0011524116004002</v>
+      </c>
+      <c r="F22">
+        <f>Regular_large.csv!I22/Optimistic_large.csv!I22</f>
+        <v>1.9960877980049563</v>
+      </c>
+      <c r="G22">
+        <f>Regular_small.csv!J22/Optimistic_small.csv!J22</f>
+        <v>1.0000057525713881</v>
+      </c>
+      <c r="H22">
+        <f>Regular_large.csv!J22/Optimistic_large.csv!J22</f>
+        <v>1.0000030192325111</v>
+      </c>
+      <c r="I22">
+        <f>Regular_small.csv!G22/Regular_small.csv!I22</f>
+        <v>1353.3846744610505</v>
+      </c>
+      <c r="J22">
+        <f>Regular_large.csv!G22/Regular_large.csv!I22</f>
+        <v>2480.6179483521373</v>
+      </c>
+      <c r="K22">
+        <f>Optimistic_small.csv!G22/Optimistic_small.csv!I22</f>
+        <v>1515.6696772243645</v>
+      </c>
+      <c r="L22">
+        <f>Optimistic_large.csv!G22/Optimistic_large.csv!I22</f>
+        <v>4564.4073892591041</v>
+      </c>
+      <c r="M22">
+        <f>Regular_small.csv!H22/Regular_small.csv!J22</f>
+        <v>324.39840516268742</v>
+      </c>
+      <c r="N22">
+        <f>Regular_large.csv!H22/Regular_large.csv!J22</f>
+        <v>274.88058133743175</v>
+      </c>
+      <c r="O22">
+        <f>Optimistic_small.csv!H22/Optimistic_small.csv!J22</f>
+        <v>431.26438633838001</v>
+      </c>
+      <c r="P22">
+        <f>Optimistic_large.csv!H22/Optimistic_large.csv!J22</f>
+        <v>364.54036573536808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <f>Regular_small.csv!G23/Optimistic_small.csv!G23</f>
+        <v>1.7498840934568634</v>
+      </c>
+      <c r="B23">
+        <f>Regular_large.csv!G23/Optimistic_large.csv!G23</f>
+        <v>1.0309982063498229</v>
+      </c>
+      <c r="C23">
+        <f>Regular_small.csv!H23/Optimistic_small.csv!H23</f>
+        <v>0.75473038636106859</v>
+      </c>
+      <c r="D23">
+        <f>Regular_large.csv!H23/Optimistic_large.csv!H23</f>
+        <v>0.84722963469178314</v>
+      </c>
+      <c r="E23">
+        <f>Regular_small.csv!I23/Optimistic_small.csv!I23</f>
+        <v>1.9860350512115823</v>
+      </c>
+      <c r="F23">
+        <f>Regular_large.csv!I23/Optimistic_large.csv!I23</f>
+        <v>1.9947039773863047</v>
+      </c>
+      <c r="G23">
+        <f>Regular_small.csv!J23/Optimistic_small.csv!J23</f>
+        <v>1.0000022021360451</v>
+      </c>
+      <c r="H23">
+        <f>Regular_large.csv!J23/Optimistic_large.csv!J23</f>
+        <v>0.99999846913407531</v>
+      </c>
+      <c r="I23">
+        <f>Regular_small.csv!G23/Regular_small.csv!I23</f>
+        <v>1336.3338396009246</v>
+      </c>
+      <c r="J23">
+        <f>Regular_large.csv!G23/Regular_large.csv!I23</f>
+        <v>2325.6391192914625</v>
+      </c>
+      <c r="K23">
+        <f>Optimistic_small.csv!G23/Optimistic_small.csv!I23</f>
+        <v>1516.6752217997787</v>
+      </c>
+      <c r="L23">
+        <f>Optimistic_large.csv!G23/Optimistic_large.csv!I23</f>
+        <v>4499.485617574237</v>
+      </c>
+      <c r="M23">
+        <f>Regular_small.csv!H23/Regular_small.csv!J23</f>
+        <v>324.0196095738238</v>
+      </c>
+      <c r="N23">
+        <f>Regular_large.csv!H23/Regular_large.csv!J23</f>
+        <v>320.88257345249468</v>
+      </c>
+      <c r="O23">
+        <f>Optimistic_small.csv!H23/Optimistic_small.csv!J23</f>
+        <v>429.31930258081803</v>
+      </c>
+      <c r="P23">
+        <f>Optimistic_large.csv!H23/Optimistic_large.csv!J23</f>
+        <v>378.74275058972887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <f>Regular_small.csv!G24/Optimistic_small.csv!G24</f>
+        <v>1.8186307252329394</v>
+      </c>
+      <c r="B24">
+        <f>Regular_large.csv!G24/Optimistic_large.csv!G24</f>
+        <v>1.0585887852553821</v>
+      </c>
+      <c r="C24">
+        <f>Regular_small.csv!H24/Optimistic_small.csv!H24</f>
+        <v>0.74370112618673134</v>
+      </c>
+      <c r="D24">
+        <f>Regular_large.csv!H24/Optimistic_large.csv!H24</f>
+        <v>0.88728814781318033</v>
+      </c>
+      <c r="E24">
+        <f>Regular_small.csv!I24/Optimistic_small.csv!I24</f>
+        <v>2.0418218348077803</v>
+      </c>
+      <c r="F24">
+        <f>Regular_large.csv!I24/Optimistic_large.csv!I24</f>
+        <v>1.9966054693051614</v>
+      </c>
+      <c r="G24">
+        <f>Regular_small.csv!J24/Optimistic_small.csv!J24</f>
+        <v>0.9999938429487224</v>
+      </c>
+      <c r="H24">
+        <f>Regular_large.csv!J24/Optimistic_large.csv!J24</f>
+        <v>1.000003465693925</v>
+      </c>
+      <c r="I24">
+        <f>Regular_small.csv!G24/Regular_small.csv!I24</f>
+        <v>1370.8143774498405</v>
+      </c>
+      <c r="J24">
+        <f>Regular_large.csv!G24/Regular_large.csv!I24</f>
+        <v>2367.7109331975248</v>
+      </c>
+      <c r="K24">
+        <f>Optimistic_small.csv!G24/Optimistic_small.csv!I24</f>
+        <v>1539.0473109855843</v>
+      </c>
+      <c r="L24">
+        <f>Optimistic_large.csv!G24/Optimistic_large.csv!I24</f>
+        <v>4465.7421888475183</v>
+      </c>
+      <c r="M24">
+        <f>Regular_small.csv!H24/Regular_small.csv!J24</f>
+        <v>2622.1955964318363</v>
+      </c>
+      <c r="N24">
+        <f>Regular_large.csv!H24/Regular_large.csv!J24</f>
+        <v>326.89160654576739</v>
+      </c>
+      <c r="O24">
+        <f>Optimistic_small.csv!H24/Optimistic_small.csv!J24</f>
+        <v>3525.8511236685995</v>
+      </c>
+      <c r="P24">
+        <f>Optimistic_large.csv!H24/Optimistic_large.csv!J24</f>
+        <v>368.4177910610951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <f>Regular_small.csv!G25/Optimistic_small.csv!G25</f>
+        <v>1.8293292585957601</v>
+      </c>
+      <c r="B25">
+        <f>Regular_large.csv!G25/Optimistic_large.csv!G25</f>
+        <v>1.0442252678845512</v>
+      </c>
+      <c r="C25">
+        <f>Regular_small.csv!H25/Optimistic_small.csv!H25</f>
+        <v>0.7601334479823324</v>
+      </c>
+      <c r="D25">
+        <f>Regular_large.csv!H25/Optimistic_large.csv!H25</f>
+        <v>0.84575371554876166</v>
+      </c>
+      <c r="E25">
+        <f>Regular_small.csv!I25/Optimistic_small.csv!I25</f>
+        <v>2.0141031825873021</v>
+      </c>
+      <c r="F25">
+        <f>Regular_large.csv!I25/Optimistic_large.csv!I25</f>
+        <v>1.993656119143469</v>
+      </c>
+      <c r="G25">
+        <f>Regular_small.csv!J25/Optimistic_small.csv!J25</f>
+        <v>1.0000157298047396</v>
+      </c>
+      <c r="H25">
+        <f>Regular_large.csv!J25/Optimistic_large.csv!J25</f>
+        <v>0.99999989369020315</v>
+      </c>
+      <c r="I25">
+        <f>Regular_small.csv!G25/Regular_small.csv!I25</f>
+        <v>1393.6191684847704</v>
+      </c>
+      <c r="J25">
+        <f>Regular_large.csv!G25/Regular_large.csv!I25</f>
+        <v>2344.0318658530318</v>
+      </c>
+      <c r="K25">
+        <f>Optimistic_small.csv!G25/Optimistic_small.csv!I25</f>
+        <v>1534.3835940799902</v>
+      </c>
+      <c r="L25">
+        <f>Optimistic_large.csv!G25/Optimistic_large.csv!I25</f>
+        <v>4475.2733117561802</v>
+      </c>
+      <c r="M25">
+        <f>Regular_small.csv!H25/Regular_small.csv!J25</f>
+        <v>2723.4435829990089</v>
+      </c>
+      <c r="N25">
+        <f>Regular_large.csv!H25/Regular_large.csv!J25</f>
+        <v>313.87324430680678</v>
+      </c>
+      <c r="O25">
+        <f>Optimistic_small.csv!H25/Optimistic_small.csv!J25</f>
+        <v>3582.9056456651151</v>
+      </c>
+      <c r="P25">
+        <f>Optimistic_large.csv!H25/Optimistic_large.csv!J25</f>
+        <v>371.11656167582004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <f>Regular_small.csv!G26/Optimistic_small.csv!G26</f>
+        <v>1.8798166368504734</v>
+      </c>
+      <c r="B26">
+        <f>Regular_large.csv!G26/Optimistic_large.csv!G26</f>
+        <v>1.0503436535933857</v>
+      </c>
+      <c r="C26">
+        <f>Regular_small.csv!H26/Optimistic_small.csv!H26</f>
+        <v>0.72121370277120833</v>
+      </c>
+      <c r="D26">
+        <f>Regular_large.csv!H26/Optimistic_large.csv!H26</f>
+        <v>0.87294204964210609</v>
+      </c>
+      <c r="E26">
+        <f>Regular_small.csv!I26/Optimistic_small.csv!I26</f>
+        <v>2.0471776862254933</v>
+      </c>
+      <c r="F26">
+        <f>Regular_large.csv!I26/Optimistic_large.csv!I26</f>
+        <v>2.0012752927223088</v>
+      </c>
+      <c r="G26">
+        <f>Regular_small.csv!J26/Optimistic_small.csv!J26</f>
+        <v>0.9999633739289514</v>
+      </c>
+      <c r="H26">
+        <f>Regular_large.csv!J26/Optimistic_large.csv!J26</f>
+        <v>0.99999596021663872</v>
+      </c>
+      <c r="I26">
+        <f>Regular_small.csv!G26/Regular_small.csv!I26</f>
+        <v>1396.5724269086247</v>
+      </c>
+      <c r="J26">
+        <f>Regular_large.csv!G26/Regular_large.csv!I26</f>
+        <v>2297.953358910645</v>
+      </c>
+      <c r="K26">
+        <f>Optimistic_small.csv!G26/Optimistic_small.csv!I26</f>
+        <v>1520.90999383603</v>
+      </c>
+      <c r="L26">
+        <f>Optimistic_large.csv!G26/Optimistic_large.csv!I26</f>
+        <v>4378.4120228487045</v>
+      </c>
+      <c r="M26">
+        <f>Regular_small.csv!H26/Regular_small.csv!J26</f>
+        <v>2628.195000928943</v>
+      </c>
+      <c r="N26">
+        <f>Regular_large.csv!H26/Regular_large.csv!J26</f>
+        <v>315.23263086532404</v>
+      </c>
+      <c r="O26">
+        <f>Optimistic_small.csv!H26/Optimistic_small.csv!J26</f>
+        <v>3643.9944642951759</v>
+      </c>
+      <c r="P26">
+        <f>Optimistic_large.csv!H26/Optimistic_large.csv!J26</f>
+        <v>361.11372744963694</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <f>Regular_small.csv!G27/Optimistic_small.csv!G27</f>
+        <v>1.8366137993579796</v>
+      </c>
+      <c r="B27">
+        <f>Regular_large.csv!G27/Optimistic_large.csv!G27</f>
+        <v>1.0705674390128805</v>
+      </c>
+      <c r="C27">
+        <f>Regular_small.csv!H27/Optimistic_small.csv!H27</f>
+        <v>0.73953887451183753</v>
+      </c>
+      <c r="D27">
+        <f>Regular_large.csv!H27/Optimistic_large.csv!H27</f>
+        <v>0.84883943973641707</v>
+      </c>
+      <c r="E27">
+        <f>Regular_small.csv!I27/Optimistic_small.csv!I27</f>
+        <v>2.0249304455068771</v>
+      </c>
+      <c r="F27">
+        <f>Regular_large.csv!I27/Optimistic_large.csv!I27</f>
+        <v>2.0016863350586807</v>
+      </c>
+      <c r="G27">
+        <f>Regular_small.csv!J27/Optimistic_small.csv!J27</f>
+        <v>1.0000021123300253</v>
+      </c>
+      <c r="H27">
+        <f>Regular_large.csv!J27/Optimistic_large.csv!J27</f>
+        <v>1.0000008292334825</v>
+      </c>
+      <c r="I27">
+        <f>Regular_small.csv!G27/Regular_small.csv!I27</f>
+        <v>1383.4747195245561</v>
+      </c>
+      <c r="J27">
+        <f>Regular_large.csv!G27/Regular_large.csv!I27</f>
+        <v>2316.6782767691648</v>
+      </c>
+      <c r="K27">
+        <f>Optimistic_small.csv!G27/Optimistic_small.csv!I27</f>
+        <v>1525.3288857644723</v>
+      </c>
+      <c r="L27">
+        <f>Optimistic_large.csv!G27/Optimistic_large.csv!I27</f>
+        <v>4331.5937701336507</v>
+      </c>
+      <c r="M27">
+        <f>Regular_small.csv!H27/Regular_small.csv!J27</f>
+        <v>2642.1223280991703</v>
+      </c>
+      <c r="N27">
+        <f>Regular_large.csv!H27/Regular_large.csv!J27</f>
+        <v>310.82352856627244</v>
+      </c>
+      <c r="O27">
+        <f>Optimistic_small.csv!H27/Optimistic_small.csv!J27</f>
+        <v>3572.6694027782355</v>
+      </c>
+      <c r="P27">
+        <f>Optimistic_large.csv!H27/Optimistic_large.csv!J27</f>
+        <v>366.17500526138014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <f>Regular_small.csv!G28/Optimistic_small.csv!G28</f>
+        <v>1.9386110946654265</v>
+      </c>
+      <c r="B28">
+        <f>Regular_large.csv!G28/Optimistic_large.csv!G28</f>
+        <v>1.0586217050641438</v>
+      </c>
+      <c r="C28">
+        <f>Regular_small.csv!H28/Optimistic_small.csv!H28</f>
+        <v>0.71902952775564377</v>
+      </c>
+      <c r="D28">
+        <f>Regular_large.csv!H28/Optimistic_large.csv!H28</f>
+        <v>0.82605603890003343</v>
+      </c>
+      <c r="E28">
+        <f>Regular_small.csv!I28/Optimistic_small.csv!I28</f>
+        <v>1.9995113691687503</v>
+      </c>
+      <c r="F28">
+        <f>Regular_large.csv!I28/Optimistic_large.csv!I28</f>
+        <v>1.9910245582177797</v>
+      </c>
+      <c r="G28">
+        <f>Regular_small.csv!J28/Optimistic_small.csv!J28</f>
+        <v>1.0000084942411518</v>
+      </c>
+      <c r="H28">
+        <f>Regular_large.csv!J28/Optimistic_large.csv!J28</f>
+        <v>1.0000000637865698</v>
+      </c>
+      <c r="I28">
+        <f>Regular_small.csv!G28/Regular_small.csv!I28</f>
+        <v>1452.6772761361863</v>
+      </c>
+      <c r="J28">
+        <f>Regular_large.csv!G28/Regular_large.csv!I28</f>
+        <v>2353.7651703271681</v>
+      </c>
+      <c r="K28">
+        <f>Optimistic_small.csv!G28/Optimistic_small.csv!I28</f>
+        <v>1498.3122387776762</v>
+      </c>
+      <c r="L28">
+        <f>Optimistic_large.csv!G28/Optimistic_large.csv!I28</f>
+        <v>4426.8922845437874</v>
+      </c>
+      <c r="M28">
+        <f>Regular_small.csv!H28/Regular_small.csv!J28</f>
+        <v>2632.2240612572505</v>
+      </c>
+      <c r="N28">
+        <f>Regular_large.csv!H28/Regular_large.csv!J28</f>
+        <v>310.28250215221186</v>
+      </c>
+      <c r="O28">
+        <f>Optimistic_small.csv!H28/Optimistic_small.csv!J28</f>
+        <v>3660.8321611205638</v>
+      </c>
+      <c r="P28">
+        <f>Optimistic_large.csv!H28/Optimistic_large.csv!J28</f>
+        <v>375.61921629098788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <f>Regular_small.csv!G29/Optimistic_small.csv!G29</f>
+        <v>1.9010886565506542</v>
+      </c>
+      <c r="B29">
+        <f>Regular_large.csv!G29/Optimistic_large.csv!G29</f>
+        <v>1.0459057231607496</v>
+      </c>
+      <c r="C29">
+        <f>Regular_small.csv!H29/Optimistic_small.csv!H29</f>
+        <v>0.87526030471946015</v>
+      </c>
+      <c r="D29">
+        <f>Regular_large.csv!H29/Optimistic_large.csv!H29</f>
+        <v>0.8130041080423912</v>
+      </c>
+      <c r="E29">
+        <f>Regular_small.csv!I29/Optimistic_small.csv!I29</f>
+        <v>2.053708486528194</v>
+      </c>
+      <c r="F29">
+        <f>Regular_large.csv!I29/Optimistic_large.csv!I29</f>
+        <v>1.9903185483999848</v>
+      </c>
+      <c r="G29">
+        <f>Regular_small.csv!J29/Optimistic_small.csv!J29</f>
+        <v>1.0000161347712726</v>
+      </c>
+      <c r="H29">
+        <f>Regular_large.csv!J29/Optimistic_large.csv!J29</f>
+        <v>1.0000040610683472</v>
+      </c>
+      <c r="I29">
+        <f>Regular_small.csv!G29/Regular_small.csv!I29</f>
+        <v>1389.6747569594427</v>
+      </c>
+      <c r="J29">
+        <f>Regular_large.csv!G29/Regular_large.csv!I29</f>
+        <v>2313.2072226060177</v>
+      </c>
+      <c r="K29">
+        <f>Optimistic_small.csv!G29/Optimistic_small.csv!I29</f>
+        <v>1501.2381626956328</v>
+      </c>
+      <c r="L29">
+        <f>Optimistic_large.csv!G29/Optimistic_large.csv!I29</f>
+        <v>4401.9447828740476</v>
+      </c>
+      <c r="M29">
+        <f>Regular_small.csv!H29/Regular_small.csv!J29</f>
+        <v>2589.5794817918672</v>
+      </c>
+      <c r="N29">
+        <f>Regular_large.csv!H29/Regular_large.csv!J29</f>
+        <v>307.03252715429767</v>
+      </c>
+      <c r="O29">
+        <f>Optimistic_small.csv!H29/Optimistic_small.csv!J29</f>
+        <v>2958.6869758643147</v>
+      </c>
+      <c r="P29">
+        <f>Optimistic_large.csv!H29/Optimistic_large.csv!J29</f>
+        <v>377.65341035443578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <f>Regular_small.csv!G30/Optimistic_small.csv!G30</f>
+        <v>1.8123962510441658</v>
+      </c>
+      <c r="B30">
+        <f>Regular_large.csv!G30/Optimistic_large.csv!G30</f>
+        <v>1.0504219415852796</v>
+      </c>
+      <c r="C30">
+        <f>Regular_small.csv!H30/Optimistic_small.csv!H30</f>
+        <v>0.7781872015489204</v>
+      </c>
+      <c r="D30">
+        <f>Regular_large.csv!H30/Optimistic_large.csv!H30</f>
+        <v>0.85894062243038394</v>
+      </c>
+      <c r="E30">
+        <f>Regular_small.csv!I30/Optimistic_small.csv!I30</f>
+        <v>1.9922602366707534</v>
+      </c>
+      <c r="F30">
+        <f>Regular_large.csv!I30/Optimistic_large.csv!I30</f>
+        <v>1.9925399570211291</v>
+      </c>
+      <c r="G30">
+        <f>Regular_small.csv!J30/Optimistic_small.csv!J30</f>
+        <v>0.99991794412003565</v>
+      </c>
+      <c r="H30">
+        <f>Regular_large.csv!J30/Optimistic_large.csv!J30</f>
+        <v>0.99999812894717732</v>
+      </c>
+      <c r="I30">
+        <f>Regular_small.csv!G30/Regular_small.csv!I30</f>
+        <v>1346.8295042391585</v>
+      </c>
+      <c r="J30">
+        <f>Regular_large.csv!G30/Regular_large.csv!I30</f>
+        <v>2353.4708050628574</v>
+      </c>
+      <c r="K30">
+        <f>Optimistic_small.csv!G30/Optimistic_small.csv!I30</f>
+        <v>1480.490188238241</v>
+      </c>
+      <c r="L30">
+        <f>Optimistic_large.csv!G30/Optimistic_large.csv!I30</f>
+        <v>4464.2866177121978</v>
+      </c>
+      <c r="M30">
+        <f>Regular_small.csv!H30/Regular_small.csv!J30</f>
+        <v>1846.6903425246755</v>
+      </c>
+      <c r="N30">
+        <f>Regular_large.csv!H30/Regular_large.csv!J30</f>
+        <v>320.13143932538554</v>
+      </c>
+      <c r="O30">
+        <f>Optimistic_small.csv!H30/Optimistic_small.csv!J30</f>
+        <v>2372.8722433987709</v>
+      </c>
+      <c r="P30">
+        <f>Optimistic_large.csv!H30/Optimistic_large.csv!J30</f>
+        <v>372.70427312744607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <f>Regular_small.csv!G31/Optimistic_small.csv!G31</f>
+        <v>1.9019781728433025</v>
+      </c>
+      <c r="B31">
+        <f>Regular_large.csv!G31/Optimistic_large.csv!G31</f>
+        <v>1.0263795357954997</v>
+      </c>
+      <c r="C31">
+        <f>Regular_small.csv!H31/Optimistic_small.csv!H31</f>
+        <v>0.57993721229058826</v>
+      </c>
+      <c r="D31">
+        <f>Regular_large.csv!H31/Optimistic_large.csv!H31</f>
+        <v>0.89511851091935446</v>
+      </c>
+      <c r="E31">
+        <f>Regular_small.csv!I31/Optimistic_small.csv!I31</f>
+        <v>1.9480395811415572</v>
+      </c>
+      <c r="F31">
+        <f>Regular_large.csv!I31/Optimistic_large.csv!I31</f>
+        <v>1.9977609530345475</v>
+      </c>
+      <c r="G31">
+        <f>Regular_small.csv!J31/Optimistic_small.csv!J31</f>
+        <v>1.000099324159766</v>
+      </c>
+      <c r="H31">
+        <f>Regular_large.csv!J31/Optimistic_large.csv!J31</f>
+        <v>1.0000039972604309</v>
+      </c>
+      <c r="I31">
+        <f>Regular_small.csv!G31/Regular_small.csv!I31</f>
+        <v>1460.6690906895851</v>
+      </c>
+      <c r="J31">
+        <f>Regular_large.csv!G31/Regular_large.csv!I31</f>
+        <v>2340.6254692100615</v>
+      </c>
+      <c r="K31">
+        <f>Optimistic_small.csv!G31/Optimistic_small.csv!I31</f>
+        <v>1496.0430378439387</v>
+      </c>
+      <c r="L31">
+        <f>Optimistic_large.csv!G31/Optimistic_large.csv!I31</f>
+        <v>4555.829500674784</v>
+      </c>
+      <c r="M31">
+        <f>Regular_small.csv!H31/Regular_small.csv!J31</f>
+        <v>1855.7414786873994</v>
+      </c>
+      <c r="N31">
+        <f>Regular_large.csv!H31/Regular_large.csv!J31</f>
+        <v>339.47540776145809</v>
+      </c>
+      <c r="O31">
+        <f>Optimistic_small.csv!H31/Optimistic_small.csv!J31</f>
+        <v>3200.2185052415066</v>
+      </c>
+      <c r="P31">
+        <f>Optimistic_large.csv!H31/Optimistic_large.csv!J31</f>
+        <v>379.25342911789903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <f>Regular_small.csv!G32/Optimistic_small.csv!G32</f>
+        <v>1.2640631135022826</v>
+      </c>
+      <c r="B32">
+        <f>Regular_large.csv!G32/Optimistic_large.csv!G32</f>
+        <v>1.1028569996701445</v>
+      </c>
+      <c r="C32">
+        <f>Regular_small.csv!H32/Optimistic_small.csv!H32</f>
+        <v>0.71490538242831703</v>
+      </c>
+      <c r="D32">
+        <f>Regular_large.csv!H32/Optimistic_large.csv!H32</f>
+        <v>0.83306432202871039</v>
+      </c>
+      <c r="E32">
+        <f>Regular_small.csv!I32/Optimistic_small.csv!I32</f>
+        <v>2.0091657356767034</v>
+      </c>
+      <c r="F32">
+        <f>Regular_large.csv!I32/Optimistic_large.csv!I32</f>
+        <v>1.9993770772937818</v>
+      </c>
+      <c r="G32">
+        <f>Regular_small.csv!J32/Optimistic_small.csv!J32</f>
+        <v>1.0000092580483224</v>
+      </c>
+      <c r="H32">
+        <f>Regular_large.csv!J32/Optimistic_large.csv!J32</f>
+        <v>0.999999723594581</v>
+      </c>
+      <c r="I32">
+        <f>Regular_small.csv!G32/Regular_small.csv!I32</f>
+        <v>3464.7920715074088</v>
+      </c>
+      <c r="J32">
+        <f>Regular_large.csv!G32/Regular_large.csv!I32</f>
+        <v>2307.3742097273184</v>
+      </c>
+      <c r="K32">
+        <f>Optimistic_small.csv!G32/Optimistic_small.csv!I32</f>
+        <v>5507.1154572571286</v>
+      </c>
+      <c r="L32">
+        <f>Optimistic_large.csv!G32/Optimistic_large.csv!I32</f>
+        <v>4183.0546526407852</v>
+      </c>
+      <c r="M32">
+        <f>Regular_small.csv!H32/Regular_small.csv!J32</f>
+        <v>300.36247134750454</v>
+      </c>
+      <c r="N32">
+        <f>Regular_large.csv!H32/Regular_large.csv!J32</f>
+        <v>320.57625970209864</v>
+      </c>
+      <c r="O32">
+        <f>Optimistic_small.csv!H32/Optimistic_small.csv!J32</f>
+        <v>420.146860690192</v>
+      </c>
+      <c r="P32">
+        <f>Optimistic_large.csv!H32/Optimistic_large.csv!J32</f>
+        <v>384.81562901698135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <f>Regular_small.csv!G33/Optimistic_small.csv!G33</f>
+        <v>1.2958376656961501</v>
+      </c>
+      <c r="B33">
+        <f>Regular_large.csv!G33/Optimistic_large.csv!G33</f>
+        <v>0.98914312408449545</v>
+      </c>
+      <c r="C33">
+        <f>Regular_small.csv!H33/Optimistic_small.csv!H33</f>
+        <v>0.76146145966148138</v>
+      </c>
+      <c r="D33">
+        <f>Regular_large.csv!H33/Optimistic_large.csv!H33</f>
+        <v>0.51853538927674381</v>
+      </c>
+      <c r="E33">
+        <f>Regular_small.csv!I33/Optimistic_small.csv!I33</f>
+        <v>2.0047503699420903</v>
+      </c>
+      <c r="F33">
+        <f>Regular_large.csv!I33/Optimistic_large.csv!I33</f>
+        <v>1.9780694250906985</v>
+      </c>
+      <c r="G33">
+        <f>Regular_small.csv!J33/Optimistic_small.csv!J33</f>
+        <v>1.000004763835121</v>
+      </c>
+      <c r="H33">
+        <f>Regular_large.csv!J33/Optimistic_large.csv!J33</f>
+        <v>1.0000046351451846</v>
+      </c>
+      <c r="I33">
+        <f>Regular_small.csv!G33/Regular_small.csv!I33</f>
+        <v>3468.1975242869376</v>
+      </c>
+      <c r="J33">
+        <f>Regular_large.csv!G33/Regular_large.csv!I33</f>
+        <v>15605.925961397734</v>
+      </c>
+      <c r="K33">
+        <f>Optimistic_small.csv!G33/Optimistic_small.csv!I33</f>
+        <v>5365.5411120583976</v>
+      </c>
+      <c r="L33">
+        <f>Optimistic_large.csv!G33/Optimistic_large.csv!I33</f>
+        <v>31208.431057984133</v>
+      </c>
+      <c r="M33">
+        <f>Regular_small.csv!H33/Regular_small.csv!J33</f>
+        <v>311.80527620090095</v>
+      </c>
+      <c r="N33">
+        <f>Regular_large.csv!H33/Regular_large.csv!J33</f>
+        <v>210.86879151226353</v>
+      </c>
+      <c r="O33">
+        <f>Optimistic_small.csv!H33/Optimistic_small.csv!J33</f>
+        <v>409.48462674452992</v>
+      </c>
+      <c r="P33">
+        <f>Optimistic_large.csv!H33/Optimistic_large.csv!J33</f>
+        <v>406.66418007428479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <f>Regular_small.csv!G34/Optimistic_small.csv!G34</f>
+        <v>1.2765311584312204</v>
+      </c>
+      <c r="B34">
+        <f>Regular_large.csv!G34/Optimistic_large.csv!G34</f>
+        <v>0.98323857015066174</v>
+      </c>
+      <c r="C34">
+        <f>Regular_small.csv!H34/Optimistic_small.csv!H34</f>
+        <v>0.64134209257561625</v>
+      </c>
+      <c r="D34">
+        <f>Regular_large.csv!H34/Optimistic_large.csv!H34</f>
+        <v>0.50180909104615135</v>
+      </c>
+      <c r="E34">
+        <f>Regular_small.csv!I34/Optimistic_small.csv!I34</f>
+        <v>1.9962507577618935</v>
+      </c>
+      <c r="F34">
+        <f>Regular_large.csv!I34/Optimistic_large.csv!I34</f>
+        <v>2.0454402624574577</v>
+      </c>
+      <c r="G34">
+        <f>Regular_small.csv!J34/Optimistic_small.csv!J34</f>
+        <v>1.000006921099466</v>
+      </c>
+      <c r="H34">
+        <f>Regular_large.csv!J34/Optimistic_large.csv!J34</f>
+        <v>0.999990517258462</v>
+      </c>
+      <c r="I34">
+        <f>Regular_small.csv!G34/Regular_small.csv!I34</f>
+        <v>3514.6542945596416</v>
+      </c>
+      <c r="J34">
+        <f>Regular_large.csv!G34/Regular_large.csv!I34</f>
+        <v>15681.985940872892</v>
+      </c>
+      <c r="K34">
+        <f>Optimistic_small.csv!G34/Optimistic_small.csv!I34</f>
+        <v>5496.2475866301447</v>
+      </c>
+      <c r="L34">
+        <f>Optimistic_large.csv!G34/Optimistic_large.csv!I34</f>
+        <v>32623.379932947621</v>
+      </c>
+      <c r="M34">
+        <f>Regular_small.csv!H34/Regular_small.csv!J34</f>
+        <v>298.68320720091373</v>
+      </c>
+      <c r="N34">
+        <f>Regular_large.csv!H34/Regular_large.csv!J34</f>
+        <v>205.80471924376502</v>
+      </c>
+      <c r="O34">
+        <f>Optimistic_small.csv!H34/Optimistic_small.csv!J34</f>
+        <v>465.71911913279524</v>
+      </c>
+      <c r="P34">
+        <f>Optimistic_large.csv!H34/Optimistic_large.csv!J34</f>
+        <v>410.12164052619266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <f>Regular_small.csv!G35/Optimistic_small.csv!G35</f>
+        <v>1.3200556926836398</v>
+      </c>
+      <c r="B35">
+        <f>Regular_large.csv!G35/Optimistic_large.csv!G35</f>
+        <v>0.93434689894368894</v>
+      </c>
+      <c r="C35">
+        <f>Regular_small.csv!H35/Optimistic_small.csv!H35</f>
+        <v>0.76538639749321047</v>
+      </c>
+      <c r="D35">
+        <f>Regular_large.csv!H35/Optimistic_large.csv!H35</f>
+        <v>0.53691835583389647</v>
+      </c>
+      <c r="E35">
+        <f>Regular_small.csv!I35/Optimistic_small.csv!I35</f>
+        <v>2.0082148799008452</v>
+      </c>
+      <c r="F35">
+        <f>Regular_large.csv!I35/Optimistic_large.csv!I35</f>
+        <v>2.0055987727277529</v>
+      </c>
+      <c r="G35">
+        <f>Regular_small.csv!J35/Optimistic_small.csv!J35</f>
+        <v>1.000005033447257</v>
+      </c>
+      <c r="H35">
+        <f>Regular_large.csv!J35/Optimistic_large.csv!J35</f>
+        <v>1.0000049326478824</v>
+      </c>
+      <c r="I35">
+        <f>Regular_small.csv!G35/Regular_small.csv!I35</f>
+        <v>3528.1341003363696</v>
+      </c>
+      <c r="J35">
+        <f>Regular_large.csv!G35/Regular_large.csv!I35</f>
+        <v>14855.232589619704</v>
+      </c>
+      <c r="K35">
+        <f>Optimistic_small.csv!G35/Optimistic_small.csv!I35</f>
+        <v>5367.3882381257281</v>
+      </c>
+      <c r="L35">
+        <f>Optimistic_large.csv!G35/Optimistic_large.csv!I35</f>
+        <v>31887.124882641896</v>
+      </c>
+      <c r="M35">
+        <f>Regular_small.csv!H35/Regular_small.csv!J35</f>
+        <v>321.63368193375442</v>
+      </c>
+      <c r="N35">
+        <f>Regular_large.csv!H35/Regular_large.csv!J35</f>
+        <v>215.20895311996307</v>
+      </c>
+      <c r="O35">
+        <f>Optimistic_small.csv!H35/Optimistic_small.csv!J35</f>
+        <v>420.22604780192955</v>
+      </c>
+      <c r="P35">
+        <f>Optimistic_large.csv!H35/Optimistic_large.csv!J35</f>
+        <v>400.82446862093923</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <f>Regular_small.csv!G36/Optimistic_small.csv!G36</f>
+        <v>1.3347281984440038</v>
+      </c>
+      <c r="B36">
+        <f>Regular_large.csv!G36/Optimistic_large.csv!G36</f>
+        <v>0.96922596603671962</v>
+      </c>
+      <c r="C36">
+        <f>Regular_small.csv!H36/Optimistic_small.csv!H36</f>
+        <v>0.73023859500797927</v>
+      </c>
+      <c r="D36">
+        <f>Regular_large.csv!H36/Optimistic_large.csv!H36</f>
+        <v>0.53325846799509491</v>
+      </c>
+      <c r="E36">
+        <f>Regular_small.csv!I36/Optimistic_small.csv!I36</f>
+        <v>2.0072542988716355</v>
+      </c>
+      <c r="F36">
+        <f>Regular_large.csv!I36/Optimistic_large.csv!I36</f>
+        <v>2.0403854966562087</v>
+      </c>
+      <c r="G36">
+        <f>Regular_small.csv!J36/Optimistic_small.csv!J36</f>
+        <v>1.0000004494014827</v>
+      </c>
+      <c r="H36">
+        <f>Regular_large.csv!J36/Optimistic_large.csv!J36</f>
+        <v>0.99999634290830808</v>
+      </c>
+      <c r="I36">
+        <f>Regular_small.csv!G36/Regular_small.csv!I36</f>
+        <v>3576.3921517749295</v>
+      </c>
+      <c r="J36">
+        <f>Regular_large.csv!G36/Regular_large.csv!I36</f>
+        <v>15495.180418556934</v>
+      </c>
+      <c r="K36">
+        <f>Optimistic_small.csv!G36/Optimistic_small.csv!I36</f>
+        <v>5378.419763267013</v>
+      </c>
+      <c r="L36">
+        <f>Optimistic_large.csv!G36/Optimistic_large.csv!I36</f>
+        <v>32619.990076593818</v>
+      </c>
+      <c r="M36">
+        <f>Regular_small.csv!H36/Regular_small.csv!J36</f>
+        <v>301.6042928248412</v>
+      </c>
+      <c r="N36">
+        <f>Regular_large.csv!H36/Regular_large.csv!J36</f>
+        <v>214.81148507892627</v>
+      </c>
+      <c r="O36">
+        <f>Optimistic_small.csv!H36/Optimistic_small.csv!J36</f>
+        <v>413.02175813230184</v>
+      </c>
+      <c r="P36">
+        <f>Optimistic_large.csv!H36/Optimistic_large.csv!J36</f>
+        <v>402.82660733219666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <f>Regular_small.csv!G37/Optimistic_small.csv!G37</f>
+        <v>1.3543382588806896</v>
+      </c>
+      <c r="B37">
+        <f>Regular_large.csv!G37/Optimistic_large.csv!G37</f>
+        <v>1.079551223540121</v>
+      </c>
+      <c r="C37">
+        <f>Regular_small.csv!H37/Optimistic_small.csv!H37</f>
+        <v>0.78603689030889634</v>
+      </c>
+      <c r="D37">
+        <f>Regular_large.csv!H37/Optimistic_large.csv!H37</f>
+        <v>0.52270117411871997</v>
+      </c>
+      <c r="E37">
+        <f>Regular_small.csv!I37/Optimistic_small.csv!I37</f>
+        <v>2.0440757331777575</v>
+      </c>
+      <c r="F37">
+        <f>Regular_large.csv!I37/Optimistic_large.csv!I37</f>
+        <v>1.9993636280945519</v>
+      </c>
+      <c r="G37">
+        <f>Regular_small.csv!J37/Optimistic_small.csv!J37</f>
+        <v>1.0000088982789201</v>
+      </c>
+      <c r="H37">
+        <f>Regular_large.csv!J37/Optimistic_large.csv!J37</f>
+        <v>1.0000024239034644</v>
+      </c>
+      <c r="I37">
+        <f>Regular_small.csv!G37/Regular_small.csv!I37</f>
+        <v>3572.0530931869157</v>
+      </c>
+      <c r="J37">
+        <f>Regular_large.csv!G37/Regular_large.csv!I37</f>
+        <v>15454.369736929244</v>
+      </c>
+      <c r="K37">
+        <f>Optimistic_small.csv!G37/Optimistic_small.csv!I37</f>
+        <v>5391.2285188195001</v>
+      </c>
+      <c r="L37">
+        <f>Optimistic_large.csv!G37/Optimistic_large.csv!I37</f>
+        <v>28621.990391355579</v>
+      </c>
+      <c r="M37">
+        <f>Regular_small.csv!H37/Regular_small.csv!J37</f>
+        <v>323.58182919303397</v>
+      </c>
+      <c r="N37">
+        <f>Regular_large.csv!H37/Regular_large.csv!J37</f>
+        <v>204.21447071113116</v>
+      </c>
+      <c r="O37">
+        <f>Optimistic_small.csv!H37/Optimistic_small.csv!J37</f>
+        <v>411.66605855768609</v>
+      </c>
+      <c r="P37">
+        <f>Optimistic_large.csv!H37/Optimistic_large.csv!J37</f>
+        <v>390.69161467181112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <f>Regular_small.csv!G38/Optimistic_small.csv!G38</f>
+        <v>1.3403313625712328</v>
+      </c>
+      <c r="B38">
+        <f>Regular_large.csv!G38/Optimistic_large.csv!G38</f>
+        <v>0.91245372309174799</v>
+      </c>
+      <c r="C38">
+        <f>Regular_small.csv!H38/Optimistic_small.csv!H38</f>
+        <v>0.79305641725218445</v>
+      </c>
+      <c r="D38">
+        <f>Regular_large.csv!H38/Optimistic_large.csv!H38</f>
+        <v>0.50590104627087584</v>
+      </c>
+      <c r="E38">
+        <f>Regular_small.csv!I38/Optimistic_small.csv!I38</f>
+        <v>2.0344576915561268</v>
+      </c>
+      <c r="F38">
+        <f>Regular_large.csv!I38/Optimistic_large.csv!I38</f>
+        <v>2.0056451109886022</v>
+      </c>
+      <c r="G38">
+        <f>Regular_small.csv!J38/Optimistic_small.csv!J38</f>
+        <v>0.99999415749190657</v>
+      </c>
+      <c r="H38">
+        <f>Regular_large.csv!J38/Optimistic_large.csv!J38</f>
+        <v>1.0000046776951126</v>
+      </c>
+      <c r="I38">
+        <f>Regular_small.csv!G38/Regular_small.csv!I38</f>
+        <v>3433.4808845276402</v>
+      </c>
+      <c r="J38">
+        <f>Regular_large.csv!G38/Regular_large.csv!I38</f>
+        <v>14571.553416029472</v>
+      </c>
+      <c r="K38">
+        <f>Optimistic_small.csv!G38/Optimistic_small.csv!I38</f>
+        <v>5211.6004962667994</v>
+      </c>
+      <c r="L38">
+        <f>Optimistic_large.csv!G38/Optimistic_large.csv!I38</f>
+        <v>32029.421469553414</v>
+      </c>
+      <c r="M38">
+        <f>Regular_small.csv!H38/Regular_small.csv!J38</f>
+        <v>330.25398447897197</v>
+      </c>
+      <c r="N38">
+        <f>Regular_large.csv!H38/Regular_large.csv!J38</f>
+        <v>207.58284476099536</v>
+      </c>
+      <c r="O38">
+        <f>Optimistic_small.csv!H38/Optimistic_small.csv!J38</f>
+        <v>416.42945922014741</v>
+      </c>
+      <c r="P38">
+        <f>Optimistic_large.csv!H38/Optimistic_large.csv!J38</f>
+        <v>410.32493864246061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <f>Regular_small.csv!G39/Optimistic_small.csv!G39</f>
+        <v>1.3280078055532261</v>
+      </c>
+      <c r="B39">
+        <f>Regular_large.csv!G39/Optimistic_large.csv!G39</f>
+        <v>0.96547056783997864</v>
+      </c>
+      <c r="C39">
+        <f>Regular_small.csv!H39/Optimistic_small.csv!H39</f>
+        <v>0.74721068592079987</v>
+      </c>
+      <c r="D39">
+        <f>Regular_large.csv!H39/Optimistic_large.csv!H39</f>
+        <v>0.54247958128822094</v>
+      </c>
+      <c r="E39">
+        <f>Regular_small.csv!I39/Optimistic_small.csv!I39</f>
+        <v>2.0259092249903063</v>
+      </c>
+      <c r="F39">
+        <f>Regular_large.csv!I39/Optimistic_large.csv!I39</f>
+        <v>1.9877882220372243</v>
+      </c>
+      <c r="G39">
+        <f>Regular_small.csv!J39/Optimistic_small.csv!J39</f>
+        <v>0.9999928091516489</v>
+      </c>
+      <c r="H39">
+        <f>Regular_large.csv!J39/Optimistic_large.csv!J39</f>
+        <v>0.9999991495172128</v>
+      </c>
+      <c r="I39">
+        <f>Regular_small.csv!G39/Regular_small.csv!I39</f>
+        <v>3538.090795616858</v>
+      </c>
+      <c r="J39">
+        <f>Regular_large.csv!G39/Regular_large.csv!I39</f>
+        <v>15393.83840097282</v>
+      </c>
+      <c r="K39">
+        <f>Optimistic_small.csv!G39/Optimistic_small.csv!I39</f>
+        <v>5397.4462738247812</v>
+      </c>
+      <c r="L39">
+        <f>Optimistic_large.csv!G39/Optimistic_large.csv!I39</f>
+        <v>31694.068866188201</v>
+      </c>
+      <c r="M39">
+        <f>Regular_small.csv!H39/Regular_small.csv!J39</f>
+        <v>312.83162759191498</v>
+      </c>
+      <c r="N39">
+        <f>Regular_large.csv!H39/Regular_large.csv!J39</f>
+        <v>208.92510357294501</v>
+      </c>
+      <c r="O39">
+        <f>Optimistic_small.csv!H39/Optimistic_small.csv!J39</f>
+        <v>418.66288044531484</v>
+      </c>
+      <c r="P39">
+        <f>Optimistic_large.csv!H39/Optimistic_large.csv!J39</f>
+        <v>385.12956633244818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <f>Regular_small.csv!G40/Optimistic_small.csv!G40</f>
+        <v>1.2862014402732842</v>
+      </c>
+      <c r="B40">
+        <f>Regular_large.csv!G40/Optimistic_large.csv!G40</f>
+        <v>1.0455791601793971</v>
+      </c>
+      <c r="C40">
+        <f>Regular_small.csv!H40/Optimistic_small.csv!H40</f>
+        <v>0.81517480228716788</v>
+      </c>
+      <c r="D40">
+        <f>Regular_large.csv!H40/Optimistic_large.csv!H40</f>
+        <v>0.56052698059072592</v>
+      </c>
+      <c r="E40">
+        <f>Regular_small.csv!I40/Optimistic_small.csv!I40</f>
+        <v>2.0534109282413966</v>
+      </c>
+      <c r="F40">
+        <f>Regular_large.csv!I40/Optimistic_large.csv!I40</f>
+        <v>1.9929635952047922</v>
+      </c>
+      <c r="G40">
+        <f>Regular_small.csv!J40/Optimistic_small.csv!J40</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>Regular_large.csv!J40/Optimistic_large.csv!J40</f>
+        <v>0.99999451440071874</v>
+      </c>
+      <c r="I40">
+        <f>Regular_small.csv!G40/Regular_small.csv!I40</f>
+        <v>3363.657278198024</v>
+      </c>
+      <c r="J40">
+        <f>Regular_large.csv!G40/Regular_large.csv!I40</f>
+        <v>16026.988654030669</v>
+      </c>
+      <c r="K40">
+        <f>Optimistic_small.csv!G40/Optimistic_small.csv!I40</f>
+        <v>5370.0535527646298</v>
+      </c>
+      <c r="L40">
+        <f>Optimistic_large.csv!G40/Optimistic_large.csv!I40</f>
+        <v>30548.815570083669</v>
+      </c>
+      <c r="M40">
+        <f>Regular_small.csv!H40/Regular_small.csv!J40</f>
+        <v>341.68804654791194</v>
+      </c>
+      <c r="N40">
+        <f>Regular_large.csv!H40/Regular_large.csv!J40</f>
+        <v>230.33718547835687</v>
+      </c>
+      <c r="O40">
+        <f>Optimistic_small.csv!H40/Optimistic_small.csv!J40</f>
+        <v>419.15923503673622</v>
+      </c>
+      <c r="P40">
+        <f>Optimistic_large.csv!H40/Optimistic_large.csv!J40</f>
+        <v>410.927448484482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <f>Regular_small.csv!G41/Optimistic_small.csv!G41</f>
+        <v>1.3558450568542182</v>
+      </c>
+      <c r="B41">
+        <f>Regular_large.csv!G41/Optimistic_large.csv!G41</f>
+        <v>0.97676401391777801</v>
+      </c>
+      <c r="C41">
+        <f>Regular_small.csv!H41/Optimistic_small.csv!H41</f>
+        <v>0.7618474020265541</v>
+      </c>
+      <c r="D41">
+        <f>Regular_large.csv!H41/Optimistic_large.csv!H41</f>
+        <v>0.5947715795033508</v>
+      </c>
+      <c r="E41">
+        <f>Regular_small.csv!I41/Optimistic_small.csv!I41</f>
+        <v>2.0361122776225185</v>
+      </c>
+      <c r="F41">
+        <f>Regular_large.csv!I41/Optimistic_large.csv!I41</f>
+        <v>2.018680935285011</v>
+      </c>
+      <c r="G41">
+        <f>Regular_small.csv!J41/Optimistic_small.csv!J41</f>
+        <v>1.0000007190790825</v>
+      </c>
+      <c r="H41">
+        <f>Regular_large.csv!J41/Optimistic_large.csv!J41</f>
+        <v>1.0000032318459982</v>
+      </c>
+      <c r="I41">
+        <f>Regular_small.csv!G41/Regular_small.csv!I41</f>
+        <v>3434.5761582413697</v>
+      </c>
+      <c r="J41">
+        <f>Regular_large.csv!G41/Regular_large.csv!I41</f>
+        <v>15722.90811687946</v>
+      </c>
+      <c r="K41">
+        <f>Optimistic_small.csv!G41/Optimistic_small.csv!I41</f>
+        <v>5157.8037246012173</v>
+      </c>
+      <c r="L41">
+        <f>Optimistic_large.csv!G41/Optimistic_large.csv!I41</f>
+        <v>32494.57843504694</v>
+      </c>
+      <c r="M41">
+        <f>Regular_small.csv!H41/Regular_small.csv!J41</f>
+        <v>328.63208947422686</v>
+      </c>
+      <c r="N41">
+        <f>Regular_large.csv!H41/Regular_large.csv!J41</f>
+        <v>231.09929355476737</v>
+      </c>
+      <c r="O41">
+        <f>Optimistic_small.csv!H41/Optimistic_small.csv!J41</f>
+        <v>431.36240264455716</v>
+      </c>
+      <c r="P41">
+        <f>Optimistic_large.csv!H41/Optimistic_large.csv!J41</f>
+        <v>388.55259463653044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <f>Regular_small.csv!G42/Optimistic_small.csv!G42</f>
+        <v>1.274240579032375</v>
+      </c>
+      <c r="B42">
+        <f>Regular_large.csv!G42/Optimistic_large.csv!G42</f>
+        <v>1.0865339167726249</v>
+      </c>
+      <c r="C42">
+        <f>Regular_small.csv!H42/Optimistic_small.csv!H42</f>
+        <v>0.76059291562499165</v>
+      </c>
+      <c r="D42">
+        <f>Regular_large.csv!H42/Optimistic_large.csv!H42</f>
+        <v>0.6177574272967199</v>
+      </c>
+      <c r="E42">
+        <f>Regular_small.csv!I42/Optimistic_small.csv!I42</f>
+        <v>2.0147094535218013</v>
+      </c>
+      <c r="F42">
+        <f>Regular_large.csv!I42/Optimistic_large.csv!I42</f>
+        <v>2.0355818491834365</v>
+      </c>
+      <c r="G42">
+        <f>Regular_small.csv!J42/Optimistic_small.csv!J42</f>
+        <v>1.0000045841604672</v>
+      </c>
+      <c r="H42">
+        <f>Regular_large.csv!J42/Optimistic_large.csv!J42</f>
+        <v>0.99999251576706749</v>
+      </c>
+      <c r="I42">
+        <f>Regular_small.csv!G42/Regular_small.csv!I42</f>
+        <v>3450.2048016744479</v>
+      </c>
+      <c r="J42">
+        <f>Regular_large.csv!G42/Regular_large.csv!I42</f>
+        <v>15977.945213593151</v>
+      </c>
+      <c r="K42">
+        <f>Optimistic_small.csv!G42/Optimistic_small.csv!I42</f>
+        <v>5455.1395905146501</v>
+      </c>
+      <c r="L42">
+        <f>Optimistic_large.csv!G42/Optimistic_large.csv!I42</f>
+        <v>29934.100318420024</v>
+      </c>
+      <c r="M42">
+        <f>Regular_small.csv!H42/Regular_small.csv!J42</f>
+        <v>325.87876658964115</v>
+      </c>
+      <c r="N42">
+        <f>Regular_large.csv!H42/Regular_large.csv!J42</f>
+        <v>241.20767030754644</v>
+      </c>
+      <c r="O42">
+        <f>Optimistic_small.csv!H42/Optimistic_small.csv!J42</f>
+        <v>428.45555589012935</v>
+      </c>
+      <c r="P42">
+        <f>Optimistic_large.csv!H42/Optimistic_large.csv!J42</f>
+        <v>390.45401057930343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <f>Regular_small.csv!G43/Optimistic_small.csv!G43</f>
+        <v>1.3482908434618894</v>
+      </c>
+      <c r="B43">
+        <f>Regular_large.csv!G43/Optimistic_large.csv!G43</f>
+        <v>0.97496905556494318</v>
+      </c>
+      <c r="C43">
+        <f>Regular_small.csv!H43/Optimistic_small.csv!H43</f>
+        <v>0.74165960027703481</v>
+      </c>
+      <c r="D43">
+        <f>Regular_large.csv!H43/Optimistic_large.csv!H43</f>
+        <v>0.59953940295093222</v>
+      </c>
+      <c r="E43">
+        <f>Regular_small.csv!I43/Optimistic_small.csv!I43</f>
+        <v>2.0022906863279228</v>
+      </c>
+      <c r="F43">
+        <f>Regular_large.csv!I43/Optimistic_large.csv!I43</f>
+        <v>1.9839289049244857</v>
+      </c>
+      <c r="G43">
+        <f>Regular_small.csv!J43/Optimistic_small.csv!J43</f>
+        <v>1.0000031459605239</v>
+      </c>
+      <c r="H43">
+        <f>Regular_large.csv!J43/Optimistic_large.csv!J43</f>
+        <v>1.0000022963253989</v>
+      </c>
+      <c r="I43">
+        <f>Regular_small.csv!G43/Regular_small.csv!I43</f>
+        <v>3580.7750177878761</v>
+      </c>
+      <c r="J43">
+        <f>Regular_large.csv!G43/Regular_large.csv!I43</f>
+        <v>15729.49750502232</v>
+      </c>
+      <c r="K43">
+        <f>Optimistic_small.csv!G43/Optimistic_small.csv!I43</f>
+        <v>5317.6601344730752</v>
+      </c>
+      <c r="L43">
+        <f>Optimistic_large.csv!G43/Optimistic_large.csv!I43</f>
+        <v>32007.379703009148</v>
+      </c>
+      <c r="M43">
+        <f>Regular_small.csv!H43/Regular_small.csv!J43</f>
+        <v>309.29077850862706</v>
+      </c>
+      <c r="N43">
+        <f>Regular_large.csv!H43/Regular_large.csv!J43</f>
+        <v>228.25318086051195</v>
+      </c>
+      <c r="O43">
+        <f>Optimistic_small.csv!H43/Optimistic_small.csv!J43</f>
+        <v>417.02655963689506</v>
+      </c>
+      <c r="P43">
+        <f>Optimistic_large.csv!H43/Optimistic_large.csv!J43</f>
+        <v>380.71510209441459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <f>Regular_small.csv!G44/Optimistic_small.csv!G44</f>
+        <v>1.3344866578227577</v>
+      </c>
+      <c r="B44">
+        <f>Regular_large.csv!G44/Optimistic_large.csv!G44</f>
+        <v>0.89838105362732057</v>
+      </c>
+      <c r="C44">
+        <f>Regular_small.csv!H44/Optimistic_small.csv!H44</f>
+        <v>0.73407559354477336</v>
+      </c>
+      <c r="D44">
+        <f>Regular_large.csv!H44/Optimistic_large.csv!H44</f>
+        <v>0.52703752686307526</v>
+      </c>
+      <c r="E44">
+        <f>Regular_small.csv!I44/Optimistic_small.csv!I44</f>
+        <v>2.0226025096506768</v>
+      </c>
+      <c r="F44">
+        <f>Regular_large.csv!I44/Optimistic_large.csv!I44</f>
+        <v>1.9921021424766598</v>
+      </c>
+      <c r="G44">
+        <f>Regular_small.csv!J44/Optimistic_small.csv!J44</f>
+        <v>1.000003056068246</v>
+      </c>
+      <c r="H44">
+        <f>Regular_large.csv!J44/Optimistic_large.csv!J44</f>
+        <v>1.0000036996363086</v>
+      </c>
+      <c r="I44">
+        <f>Regular_small.csv!G44/Regular_small.csv!I44</f>
+        <v>3513.2296570802841</v>
+      </c>
+      <c r="J44">
+        <f>Regular_large.csv!G44/Regular_large.csv!I44</f>
+        <v>14758.069487551433</v>
+      </c>
+      <c r="K44">
+        <f>Optimistic_small.csv!G44/Optimistic_small.csv!I44</f>
+        <v>5324.7944291800841</v>
+      </c>
+      <c r="L44">
+        <f>Optimistic_large.csv!G44/Optimistic_large.csv!I44</f>
+        <v>32725.068862779681</v>
+      </c>
+      <c r="M44">
+        <f>Regular_small.csv!H44/Regular_small.csv!J44</f>
+        <v>316.5837489573446</v>
+      </c>
+      <c r="N44">
+        <f>Regular_large.csv!H44/Regular_large.csv!J44</f>
+        <v>218.24841528578608</v>
+      </c>
+      <c r="O44">
+        <f>Optimistic_small.csv!H44/Optimistic_small.csv!J44</f>
+        <v>431.26991176771435</v>
+      </c>
+      <c r="P44">
+        <f>Optimistic_large.csv!H44/Optimistic_large.csv!J44</f>
+        <v>414.1056596568481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <f>Regular_small.csv!G45/Optimistic_small.csv!G45</f>
+        <v>1.2736017788459777</v>
+      </c>
+      <c r="B45">
+        <f>Regular_large.csv!G45/Optimistic_large.csv!G45</f>
+        <v>1.2881434461554691</v>
+      </c>
+      <c r="C45">
+        <f>Regular_small.csv!H45/Optimistic_small.csv!H45</f>
+        <v>0.78997282572513061</v>
+      </c>
+      <c r="D45">
+        <f>Regular_large.csv!H45/Optimistic_large.csv!H45</f>
+        <v>0.61463215560162021</v>
+      </c>
+      <c r="E45">
+        <f>Regular_small.csv!I45/Optimistic_small.csv!I45</f>
+        <v>1.9795853521831512</v>
+      </c>
+      <c r="F45">
+        <f>Regular_large.csv!I45/Optimistic_large.csv!I45</f>
+        <v>1.9943117384924336</v>
+      </c>
+      <c r="G45">
+        <f>Regular_small.csv!J45/Optimistic_small.csv!J45</f>
+        <v>1.0000086287938716</v>
+      </c>
+      <c r="H45">
+        <f>Regular_large.csv!J45/Optimistic_large.csv!J45</f>
+        <v>1.0000024663899094</v>
+      </c>
+      <c r="I45">
+        <f>Regular_small.csv!G45/Regular_small.csv!I45</f>
+        <v>3421.8256644806493</v>
+      </c>
+      <c r="J45">
+        <f>Regular_large.csv!G45/Regular_large.csv!I45</f>
+        <v>15826.311542419695</v>
+      </c>
+      <c r="K45">
+        <f>Optimistic_small.csv!G45/Optimistic_small.csv!I45</f>
+        <v>5318.6137736617093</v>
+      </c>
+      <c r="L45">
+        <f>Optimistic_large.csv!G45/Optimistic_large.csv!I45</f>
+        <v>24502.394496735673</v>
+      </c>
+      <c r="M45">
+        <f>Regular_small.csv!H45/Regular_small.csv!J45</f>
+        <v>322.17498377845692</v>
+      </c>
+      <c r="N45">
+        <f>Regular_large.csv!H45/Regular_large.csv!J45</f>
+        <v>236.22357786395003</v>
+      </c>
+      <c r="O45">
+        <f>Optimistic_small.csv!H45/Optimistic_small.csv!J45</f>
+        <v>407.83398272497493</v>
+      </c>
+      <c r="P45">
+        <f>Optimistic_large.csv!H45/Optimistic_large.csv!J45</f>
+        <v>384.33420433751235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <f>Regular_small.csv!G46/Optimistic_small.csv!G46</f>
+        <v>1.2679520782881244</v>
+      </c>
+      <c r="B46">
+        <f>Regular_large.csv!G46/Optimistic_large.csv!G46</f>
+        <v>0.91797655909233455</v>
+      </c>
+      <c r="C46">
+        <f>Regular_small.csv!H46/Optimistic_small.csv!H46</f>
+        <v>0.82219034944516267</v>
+      </c>
+      <c r="D46">
+        <f>Regular_large.csv!H46/Optimistic_large.csv!H46</f>
+        <v>0.57989452944270614</v>
+      </c>
+      <c r="E46">
+        <f>Regular_small.csv!I46/Optimistic_small.csv!I46</f>
+        <v>2.0059339481086909</v>
+      </c>
+      <c r="F46">
+        <f>Regular_large.csv!I46/Optimistic_large.csv!I46</f>
+        <v>2.0519427621383626</v>
+      </c>
+      <c r="G46">
+        <f>Regular_small.csv!J46/Optimistic_small.csv!J46</f>
+        <v>1.0000006291861665</v>
+      </c>
+      <c r="H46">
+        <f>Regular_large.csv!J46/Optimistic_large.csv!J46</f>
+        <v>0.99999936214252072</v>
+      </c>
+      <c r="I46">
+        <f>Regular_small.csv!G46/Regular_small.csv!I46</f>
+        <v>3354.7886265384345</v>
+      </c>
+      <c r="J46">
+        <f>Regular_large.csv!G46/Regular_large.csv!I46</f>
+        <v>15137.197310082647</v>
+      </c>
+      <c r="K46">
+        <f>Optimistic_small.csv!G46/Optimistic_small.csv!I46</f>
+        <v>5307.3649311635845</v>
+      </c>
+      <c r="L46">
+        <f>Optimistic_large.csv!G46/Optimistic_large.csv!I46</f>
+        <v>33836.008285653996</v>
+      </c>
+      <c r="M46">
+        <f>Regular_small.csv!H46/Regular_small.csv!J46</f>
+        <v>332.11003847920404</v>
+      </c>
+      <c r="N46">
+        <f>Regular_large.csv!H46/Regular_large.csv!J46</f>
+        <v>247.18107688271198</v>
+      </c>
+      <c r="O46">
+        <f>Optimistic_small.csv!H46/Optimistic_small.csv!J46</f>
+        <v>403.93352666126947</v>
+      </c>
+      <c r="P46">
+        <f>Optimistic_large.csv!H46/Optimistic_large.csv!J46</f>
+        <v>426.25151069102287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <f>Regular_small.csv!G47/Optimistic_small.csv!G47</f>
+        <v>1.3062674346418301</v>
+      </c>
+      <c r="B47">
+        <f>Regular_large.csv!G47/Optimistic_large.csv!G47</f>
+        <v>0.99197187195310488</v>
+      </c>
+      <c r="C47">
+        <f>Regular_small.csv!H47/Optimistic_small.csv!H47</f>
+        <v>0.66782942202980167</v>
+      </c>
+      <c r="D47">
+        <f>Regular_large.csv!H47/Optimistic_large.csv!H47</f>
+        <v>0.62635657453082938</v>
+      </c>
+      <c r="E47">
+        <f>Regular_small.csv!I47/Optimistic_small.csv!I47</f>
+        <v>2.0326096272166154</v>
+      </c>
+      <c r="F47">
+        <f>Regular_large.csv!I47/Optimistic_large.csv!I47</f>
+        <v>1.9882072003691775</v>
+      </c>
+      <c r="G47">
+        <f>Regular_small.csv!J47/Optimistic_small.csv!J47</f>
+        <v>0.9999884051634953</v>
+      </c>
+      <c r="H47">
+        <f>Regular_large.csv!J47/Optimistic_large.csv!J47</f>
+        <v>0.99999906447163933</v>
+      </c>
+      <c r="I47">
+        <f>Regular_small.csv!G47/Regular_small.csv!I47</f>
+        <v>3514.8979606967528</v>
+      </c>
+      <c r="J47">
+        <f>Regular_large.csv!G47/Regular_large.csv!I47</f>
+        <v>15753.833321235597</v>
+      </c>
+      <c r="K47">
+        <f>Optimistic_small.csv!G47/Optimistic_small.csv!I47</f>
+        <v>5469.3359446377226</v>
+      </c>
+      <c r="L47">
+        <f>Optimistic_large.csv!G47/Optimistic_large.csv!I47</f>
+        <v>31575.376004388581</v>
+      </c>
+      <c r="M47">
+        <f>Regular_small.csv!H47/Regular_small.csv!J47</f>
+        <v>312.85586417453288</v>
+      </c>
+      <c r="N47">
+        <f>Regular_large.csv!H47/Regular_large.csv!J47</f>
+        <v>241.56884034474933</v>
+      </c>
+      <c r="O47">
+        <f>Optimistic_small.csv!H47/Optimistic_small.csv!J47</f>
+        <v>468.46129616609988</v>
+      </c>
+      <c r="P47">
+        <f>Optimistic_large.csv!H47/Optimistic_large.csv!J47</f>
+        <v>385.67267299971172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <f>Regular_small.csv!G48/Optimistic_small.csv!G48</f>
+        <v>1.3826420307063532</v>
+      </c>
+      <c r="B48">
+        <f>Regular_large.csv!G48/Optimistic_large.csv!G48</f>
+        <v>0.96561514714320706</v>
+      </c>
+      <c r="C48">
+        <f>Regular_small.csv!H48/Optimistic_small.csv!H48</f>
+        <v>1.3727576553150203</v>
+      </c>
+      <c r="D48">
+        <f>Regular_large.csv!H48/Optimistic_large.csv!H48</f>
+        <v>0.62495156544079866</v>
+      </c>
+      <c r="E48">
+        <f>Regular_small.csv!I48/Optimistic_small.csv!I48</f>
+        <v>1.9674483457070446</v>
+      </c>
+      <c r="F48">
+        <f>Regular_large.csv!I48/Optimistic_large.csv!I48</f>
+        <v>1.9903723717832318</v>
+      </c>
+      <c r="G48">
+        <f>Regular_small.csv!J48/Optimistic_small.csv!J48</f>
+        <v>1.0000075503181516</v>
+      </c>
+      <c r="H48">
+        <f>Regular_large.csv!J48/Optimistic_large.csv!J48</f>
+        <v>1.0000029766631733</v>
+      </c>
+      <c r="I48">
+        <f>Regular_small.csv!G48/Regular_small.csv!I48</f>
+        <v>3638.6179127090272</v>
+      </c>
+      <c r="J48">
+        <f>Regular_large.csv!G48/Regular_large.csv!I48</f>
+        <v>15892.145999958879</v>
+      </c>
+      <c r="K48">
+        <f>Optimistic_small.csv!G48/Optimistic_small.csv!I48</f>
+        <v>5177.6183813551279</v>
+      </c>
+      <c r="L48">
+        <f>Optimistic_large.csv!G48/Optimistic_large.csv!I48</f>
+        <v>32757.655490642821</v>
+      </c>
+      <c r="M48">
+        <f>Regular_small.csv!H48/Regular_small.csv!J48</f>
+        <v>12580.578975956283</v>
+      </c>
+      <c r="N48">
+        <f>Regular_large.csv!H48/Regular_large.csv!J48</f>
+        <v>235.34542912405357</v>
+      </c>
+      <c r="O48">
+        <f>Optimistic_small.csv!H48/Optimistic_small.csv!J48</f>
+        <v>9164.5265386941664</v>
+      </c>
+      <c r="P48">
+        <f>Optimistic_large.csv!H48/Optimistic_large.csv!J48</f>
+        <v>376.58299087886616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <f>Regular_small.csv!G49/Optimistic_small.csv!G49</f>
+        <v>1.3616210670487527</v>
+      </c>
+      <c r="B49">
+        <f>Regular_large.csv!G49/Optimistic_large.csv!G49</f>
+        <v>1.0128852716976389</v>
+      </c>
+      <c r="C49">
+        <f>Regular_small.csv!H49/Optimistic_small.csv!H49</f>
+        <v>0.92940900142622263</v>
+      </c>
+      <c r="D49">
+        <f>Regular_large.csv!H49/Optimistic_large.csv!H49</f>
+        <v>0.56286117054561824</v>
+      </c>
+      <c r="E49">
+        <f>Regular_small.csv!I49/Optimistic_small.csv!I49</f>
+        <v>2.0500117662811999</v>
+      </c>
+      <c r="F49">
+        <f>Regular_large.csv!I49/Optimistic_large.csv!I49</f>
+        <v>1.9699423488682737</v>
+      </c>
+      <c r="G49">
+        <f>Regular_small.csv!J49/Optimistic_small.csv!J49</f>
+        <v>0.99998858495097465</v>
+      </c>
+      <c r="H49">
+        <f>Regular_large.csv!J49/Optimistic_large.csv!J49</f>
+        <v>1.00000225377584</v>
+      </c>
+      <c r="I49">
+        <f>Regular_small.csv!G49/Regular_small.csv!I49</f>
+        <v>3557.0668864601589</v>
+      </c>
+      <c r="J49">
+        <f>Regular_large.csv!G49/Regular_large.csv!I49</f>
+        <v>15703.707419646145</v>
+      </c>
+      <c r="K49">
+        <f>Optimistic_small.csv!G49/Optimistic_small.csv!I49</f>
+        <v>5355.4025765021952</v>
+      </c>
+      <c r="L49">
+        <f>Optimistic_large.csv!G49/Optimistic_large.csv!I49</f>
+        <v>30541.858139914326</v>
+      </c>
+      <c r="M49">
+        <f>Regular_small.csv!H49/Regular_small.csv!J49</f>
+        <v>7065.5148349243727</v>
+      </c>
+      <c r="N49">
+        <f>Regular_large.csv!H49/Regular_large.csv!J49</f>
+        <v>234.29995350003156</v>
+      </c>
+      <c r="O49">
+        <f>Optimistic_small.csv!H49/Optimistic_small.csv!J49</f>
+        <v>7602.0720381273422</v>
+      </c>
+      <c r="P49">
+        <f>Optimistic_large.csv!H49/Optimistic_large.csv!J49</f>
+        <v>416.26691237642717</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <f>Regular_small.csv!G50/Optimistic_small.csv!G50</f>
+        <v>1.314832179937105</v>
+      </c>
+      <c r="B50">
+        <f>Regular_large.csv!G50/Optimistic_large.csv!G50</f>
+        <v>0.91828040275419709</v>
+      </c>
+      <c r="C50">
+        <f>Regular_small.csv!H50/Optimistic_small.csv!H50</f>
+        <v>0.97953018029726502</v>
+      </c>
+      <c r="D50">
+        <f>Regular_large.csv!H50/Optimistic_large.csv!H50</f>
+        <v>0.55571268488984571</v>
+      </c>
+      <c r="E50">
+        <f>Regular_small.csv!I50/Optimistic_small.csv!I50</f>
+        <v>1.9672002787942302</v>
+      </c>
+      <c r="F50">
+        <f>Regular_large.csv!I50/Optimistic_large.csv!I50</f>
+        <v>2.004271780977867</v>
+      </c>
+      <c r="G50">
+        <f>Regular_small.csv!J50/Optimistic_small.csv!J50</f>
+        <v>1.0000019774553905</v>
+      </c>
+      <c r="H50">
+        <f>Regular_large.csv!J50/Optimistic_large.csv!J50</f>
+        <v>0.99999906446917275</v>
+      </c>
+      <c r="I50">
+        <f>Regular_small.csv!G50/Regular_small.csv!I50</f>
+        <v>3512.2405685202061</v>
+      </c>
+      <c r="J50">
+        <f>Regular_large.csv!G50/Regular_large.csv!I50</f>
+        <v>14741.984429697273</v>
+      </c>
+      <c r="K50">
+        <f>Optimistic_small.csv!G50/Optimistic_small.csv!I50</f>
+        <v>5254.8764253061254</v>
+      </c>
+      <c r="L50">
+        <f>Optimistic_large.csv!G50/Optimistic_large.csv!I50</f>
+        <v>32176.384576472756</v>
+      </c>
+      <c r="M50">
+        <f>Regular_small.csv!H50/Regular_small.csv!J50</f>
+        <v>9143.0797580785857</v>
+      </c>
+      <c r="N50">
+        <f>Regular_large.csv!H50/Regular_large.csv!J50</f>
+        <v>213.7645442755049</v>
+      </c>
+      <c r="O50">
+        <f>Optimistic_small.csv!H50/Optimistic_small.csv!J50</f>
+        <v>9334.1665443490656</v>
+      </c>
+      <c r="P50">
+        <f>Optimistic_large.csv!H50/Optimistic_large.csv!J50</f>
+        <v>384.66702327400833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <f>Regular_small.csv!G51/Optimistic_small.csv!G51</f>
+        <v>1.3423608219668277</v>
+      </c>
+      <c r="B51">
+        <f>Regular_large.csv!G51/Optimistic_large.csv!G51</f>
+        <v>0.97336810224468739</v>
+      </c>
+      <c r="C51">
+        <f>Regular_small.csv!H51/Optimistic_small.csv!H51</f>
+        <v>1.3727607697323805</v>
+      </c>
+      <c r="D51">
+        <f>Regular_large.csv!H51/Optimistic_large.csv!H51</f>
+        <v>0.6135712188052197</v>
+      </c>
+      <c r="E51">
+        <f>Regular_small.csv!I51/Optimistic_small.csv!I51</f>
+        <v>2.0175583632117515</v>
+      </c>
+      <c r="F51">
+        <f>Regular_large.csv!I51/Optimistic_large.csv!I51</f>
+        <v>1.9735439184430066</v>
+      </c>
+      <c r="G51">
+        <f>Regular_small.csv!J51/Optimistic_small.csv!J51</f>
+        <v>0.99999442717017006</v>
+      </c>
+      <c r="H51">
+        <f>Regular_large.csv!J51/Optimistic_large.csv!J51</f>
+        <v>1.000004975315419</v>
+      </c>
+      <c r="I51">
+        <f>Regular_small.csv!G51/Regular_small.csv!I51</f>
+        <v>3548.6478390530074</v>
+      </c>
+      <c r="J51">
+        <f>Regular_large.csv!G51/Regular_large.csv!I51</f>
+        <v>15764.029445423037</v>
+      </c>
+      <c r="K51">
+        <f>Optimistic_small.csv!G51/Optimistic_small.csv!I51</f>
+        <v>5333.5913925768846</v>
+      </c>
+      <c r="L51">
+        <f>Optimistic_large.csv!G51/Optimistic_large.csv!I51</f>
+        <v>31962.218990355166</v>
+      </c>
+      <c r="M51">
+        <f>Regular_small.csv!H51/Regular_small.csv!J51</f>
+        <v>12796.103628247034</v>
+      </c>
+      <c r="N51">
+        <f>Regular_large.csv!H51/Regular_large.csv!J51</f>
+        <v>235.44975326385446</v>
+      </c>
+      <c r="O51">
+        <f>Optimistic_small.csv!H51/Optimistic_small.csv!J51</f>
+        <v>9321.3854881893312</v>
+      </c>
+      <c r="P51">
+        <f>Optimistic_large.csv!H51/Optimistic_large.csv!J51</f>
+        <v>383.73854164660065</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <f>Regular_small.csv!G52/Optimistic_small.csv!G52</f>
+        <v>1.4611655113975157</v>
+      </c>
+      <c r="B52">
+        <f>Regular_large.csv!G52/Optimistic_large.csv!G52</f>
+        <v>1.3453959582232271</v>
+      </c>
+      <c r="C52">
+        <f>Regular_small.csv!H52/Optimistic_small.csv!H52</f>
+        <v>2.0635302623778427</v>
+      </c>
+      <c r="D52">
+        <f>Regular_large.csv!H52/Optimistic_large.csv!H52</f>
+        <v>0.59243937398504165</v>
+      </c>
+      <c r="E52">
+        <f>Regular_small.csv!I52/Optimistic_small.csv!I52</f>
+        <v>2.2494077164846993</v>
+      </c>
+      <c r="F52">
+        <f>Regular_large.csv!I52/Optimistic_large.csv!I52</f>
+        <v>2.0571444710766955</v>
+      </c>
+      <c r="G52">
+        <f>Regular_small.csv!J52/Optimistic_small.csv!J52</f>
+        <v>0.99987966627927416</v>
+      </c>
+      <c r="H52">
+        <f>Regular_large.csv!J52/Optimistic_large.csv!J52</f>
+        <v>0.99998447896568166</v>
+      </c>
+      <c r="I52">
+        <f>Regular_small.csv!G52/Regular_small.csv!I52</f>
+        <v>3718.5159260279111</v>
+      </c>
+      <c r="J52">
+        <f>Regular_large.csv!G52/Regular_large.csv!I52</f>
+        <v>15661.555367551236</v>
+      </c>
+      <c r="K52">
+        <f>Optimistic_small.csv!G52/Optimistic_small.csv!I52</f>
+        <v>5724.5112566873659</v>
+      </c>
+      <c r="L52">
+        <f>Optimistic_large.csv!G52/Optimistic_large.csv!I52</f>
+        <v>23946.914539098063</v>
+      </c>
+      <c r="M52">
+        <f>Regular_small.csv!H52/Regular_small.csv!J52</f>
+        <v>12873.178724990335</v>
+      </c>
+      <c r="N52">
+        <f>Regular_large.csv!H52/Regular_large.csv!J52</f>
+        <v>232.80699302763054</v>
+      </c>
+      <c r="O52">
+        <f>Optimistic_small.csv!H52/Optimistic_small.csv!J52</f>
+        <v>6237.6742818710018</v>
+      </c>
+      <c r="P52">
+        <f>Optimistic_large.csv!H52/Optimistic_large.csv!J52</f>
+        <v>392.95730473879718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <f>Regular_small.csv!G53/Optimistic_small.csv!G53</f>
+        <v>1.3452600899691687</v>
+      </c>
+      <c r="B53">
+        <f>Regular_large.csv!G53/Optimistic_large.csv!G53</f>
+        <v>0.97689919144422643</v>
+      </c>
+      <c r="C53">
+        <f>Regular_small.csv!H53/Optimistic_small.csv!H53</f>
+        <v>1.3829854467259417</v>
+      </c>
+      <c r="D53">
+        <f>Regular_large.csv!H53/Optimistic_large.csv!H53</f>
+        <v>0.59739827071815843</v>
+      </c>
+      <c r="E53">
+        <f>Regular_small.csv!I53/Optimistic_small.csv!I53</f>
+        <v>2.0231866254001929</v>
+      </c>
+      <c r="F53">
+        <f>Regular_large.csv!I53/Optimistic_large.csv!I53</f>
+        <v>1.9769080877854626</v>
+      </c>
+      <c r="G53">
+        <f>Regular_small.csv!J53/Optimistic_small.csv!J53</f>
+        <v>0.99998777593468036</v>
+      </c>
+      <c r="H53">
+        <f>Regular_large.csv!J53/Optimistic_large.csv!J53</f>
+        <v>1.0000005102986345</v>
+      </c>
+      <c r="I53">
+        <f>Regular_small.csv!G53/Regular_small.csv!I53</f>
+        <v>3579.9866200695287</v>
+      </c>
+      <c r="J53">
+        <f>Regular_large.csv!G53/Regular_large.csv!I53</f>
+        <v>15798.390948468184</v>
+      </c>
+      <c r="K53">
+        <f>Optimistic_small.csv!G53/Optimistic_small.csv!I53</f>
+        <v>5384.0748735824836</v>
+      </c>
+      <c r="L53">
+        <f>Optimistic_large.csv!G53/Optimistic_large.csv!I53</f>
+        <v>31970.511505747836</v>
+      </c>
+      <c r="M53">
+        <f>Regular_small.csv!H53/Regular_small.csv!J53</f>
+        <v>12661.638088280222</v>
+      </c>
+      <c r="N53">
+        <f>Regular_large.csv!H53/Regular_large.csv!J53</f>
+        <v>226.59917142853013</v>
+      </c>
+      <c r="O53">
+        <f>Optimistic_small.csv!H53/Optimistic_small.csv!J53</f>
+        <v>9155.1818868114478</v>
+      </c>
+      <c r="P53">
+        <f>Optimistic_large.csv!H53/Optimistic_large.csv!J53</f>
+        <v>379.31024940760705</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <f>Regular_small.csv!G54/Optimistic_small.csv!G54</f>
+        <v>1.3619535807823955</v>
+      </c>
+      <c r="B54">
+        <f>Regular_large.csv!G54/Optimistic_large.csv!G54</f>
+        <v>1.0731451284759934</v>
+      </c>
+      <c r="C54">
+        <f>Regular_small.csv!H54/Optimistic_small.csv!H54</f>
+        <v>1.4123731487804465</v>
+      </c>
+      <c r="D54">
+        <f>Regular_large.csv!H54/Optimistic_large.csv!H54</f>
+        <v>0.60802289177915236</v>
+      </c>
+      <c r="E54">
+        <f>Regular_small.csv!I54/Optimistic_small.csv!I54</f>
+        <v>2.0410941702692802</v>
+      </c>
+      <c r="F54">
+        <f>Regular_large.csv!I54/Optimistic_large.csv!I54</f>
+        <v>1.9988296849541569</v>
+      </c>
+      <c r="G54">
+        <f>Regular_small.csv!J54/Optimistic_small.csv!J54</f>
+        <v>0.99999397765855136</v>
+      </c>
+      <c r="H54">
+        <f>Regular_large.csv!J54/Optimistic_large.csv!J54</f>
+        <v>0.99999982990113512</v>
+      </c>
+      <c r="I54">
+        <f>Regular_small.csv!G54/Regular_small.csv!I54</f>
+        <v>3500.5350133953752</v>
+      </c>
+      <c r="J54">
+        <f>Regular_large.csv!G54/Regular_large.csv!I54</f>
+        <v>15856.917553390344</v>
+      </c>
+      <c r="K54">
+        <f>Optimistic_small.csv!G54/Optimistic_small.csv!I54</f>
+        <v>5246.0830600116969</v>
+      </c>
+      <c r="L54">
+        <f>Optimistic_large.csv!G54/Optimistic_large.csv!I54</f>
+        <v>29534.9405001714</v>
+      </c>
+      <c r="M54">
+        <f>Regular_small.csv!H54/Regular_small.csv!J54</f>
+        <v>12899.419962690021</v>
+      </c>
+      <c r="N54">
+        <f>Regular_large.csv!H54/Regular_large.csv!J54</f>
+        <v>227.90963462247316</v>
+      </c>
+      <c r="O54">
+        <f>Optimistic_small.csv!H54/Optimistic_small.csv!J54</f>
+        <v>9133.0979274965812</v>
+      </c>
+      <c r="P54">
+        <f>Optimistic_large.csv!H54/Optimistic_large.csv!J54</f>
+        <v>374.83719599505622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <f>Regular_small.csv!G55/Optimistic_small.csv!G55</f>
+        <v>1.3716299541564372</v>
+      </c>
+      <c r="B55">
+        <f>Regular_large.csv!G55/Optimistic_large.csv!G55</f>
+        <v>0.98820778436417112</v>
+      </c>
+      <c r="C55">
+        <f>Regular_small.csv!H55/Optimistic_small.csv!H55</f>
+        <v>1.9648628076071548</v>
+      </c>
+      <c r="D55">
+        <f>Regular_large.csv!H55/Optimistic_large.csv!H55</f>
+        <v>0.55409944446369253</v>
+      </c>
+      <c r="E55">
+        <f>Regular_small.csv!I55/Optimistic_small.csv!I55</f>
+        <v>2.1317273594195925</v>
+      </c>
+      <c r="F55">
+        <f>Regular_large.csv!I55/Optimistic_large.csv!I55</f>
+        <v>1.9964123410723844</v>
+      </c>
+      <c r="G55">
+        <f>Regular_small.csv!J55/Optimistic_small.csv!J55</f>
+        <v>0.99999280910898924</v>
+      </c>
+      <c r="H55">
+        <f>Regular_large.csv!J55/Optimistic_large.csv!J55</f>
+        <v>1.000004422547166</v>
+      </c>
+      <c r="I55">
+        <f>Regular_small.csv!G55/Regular_small.csv!I55</f>
+        <v>3560.8535880590916</v>
+      </c>
+      <c r="J55">
+        <f>Regular_large.csv!G55/Regular_large.csv!I55</f>
+        <v>15762.134376742655</v>
+      </c>
+      <c r="K55">
+        <f>Optimistic_small.csv!G55/Optimistic_small.csv!I55</f>
+        <v>5534.1231018984045</v>
+      </c>
+      <c r="L55">
+        <f>Optimistic_large.csv!G55/Optimistic_large.csv!I55</f>
+        <v>31843.221728532684</v>
+      </c>
+      <c r="M55">
+        <f>Regular_small.csv!H55/Regular_small.csv!J55</f>
+        <v>12809.230823328784</v>
+      </c>
+      <c r="N55">
+        <f>Regular_large.csv!H55/Regular_large.csv!J55</f>
+        <v>212.40547161919451</v>
+      </c>
+      <c r="O55">
+        <f>Optimistic_small.csv!H55/Optimistic_small.csv!J55</f>
+        <v>6519.1008064044954</v>
+      </c>
+      <c r="P55">
+        <f>Optimistic_large.csv!H55/Optimistic_large.csv!J55</f>
+        <v>383.33626412132065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <f>Regular_small.csv!G56/Optimistic_small.csv!G56</f>
+        <v>1.376375328969426</v>
+      </c>
+      <c r="B56">
+        <f>Regular_large.csv!G56/Optimistic_large.csv!G56</f>
+        <v>0.96530163186961382</v>
+      </c>
+      <c r="C56">
+        <f>Regular_small.csv!H56/Optimistic_small.csv!H56</f>
+        <v>1.7703285282031767</v>
+      </c>
+      <c r="D56">
+        <f>Regular_large.csv!H56/Optimistic_large.csv!H56</f>
+        <v>0.54997289525303084</v>
+      </c>
+      <c r="E56">
+        <f>Regular_small.csv!I56/Optimistic_small.csv!I56</f>
+        <v>2.0738829215781038</v>
+      </c>
+      <c r="F56">
+        <f>Regular_large.csv!I56/Optimistic_large.csv!I56</f>
+        <v>1.9916363033973199</v>
+      </c>
+      <c r="G56">
+        <f>Regular_small.csv!J56/Optimistic_small.csv!J56</f>
+        <v>0.99999838206319303</v>
+      </c>
+      <c r="H56">
+        <f>Regular_large.csv!J56/Optimistic_large.csv!J56</f>
+        <v>1.0000018710688949</v>
+      </c>
+      <c r="I56">
+        <f>Regular_small.csv!G56/Regular_small.csv!I56</f>
+        <v>3571.4901861464091</v>
+      </c>
+      <c r="J56">
+        <f>Regular_large.csv!G56/Regular_large.csv!I56</f>
+        <v>15627.036090648689</v>
+      </c>
+      <c r="K56">
+        <f>Optimistic_small.csv!G56/Optimistic_small.csv!I56</f>
+        <v>5381.4191127494205</v>
+      </c>
+      <c r="L56">
+        <f>Optimistic_large.csv!G56/Optimistic_large.csv!I56</f>
+        <v>32242.121389928398</v>
+      </c>
+      <c r="M56">
+        <f>Regular_small.csv!H56/Regular_small.csv!J56</f>
+        <v>12862.151792560031</v>
+      </c>
+      <c r="N56">
+        <f>Regular_large.csv!H56/Regular_large.csv!J56</f>
+        <v>234.31802345414491</v>
+      </c>
+      <c r="O56">
+        <f>Optimistic_small.csv!H56/Optimistic_small.csv!J56</f>
+        <v>7265.3921447370312</v>
+      </c>
+      <c r="P56">
+        <f>Optimistic_large.csv!H56/Optimistic_large.csv!J56</f>
+        <v>426.05456360082104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <f>Regular_small.csv!G57/Optimistic_small.csv!G57</f>
+        <v>1.339623031775991</v>
+      </c>
+      <c r="B57">
+        <f>Regular_large.csv!G57/Optimistic_large.csv!G57</f>
+        <v>0.92843286517874235</v>
+      </c>
+      <c r="C57">
+        <f>Regular_small.csv!H57/Optimistic_small.csv!H57</f>
+        <v>1.4333535886993871</v>
+      </c>
+      <c r="D57">
+        <f>Regular_large.csv!H57/Optimistic_large.csv!H57</f>
+        <v>0.43218208335041347</v>
+      </c>
+      <c r="E57">
+        <f>Regular_small.csv!I57/Optimistic_small.csv!I57</f>
+        <v>2.0135306549038479</v>
+      </c>
+      <c r="F57">
+        <f>Regular_large.csv!I57/Optimistic_large.csv!I57</f>
+        <v>1.9689999659982718</v>
+      </c>
+      <c r="G57">
+        <f>Regular_small.csv!J57/Optimistic_small.csv!J57</f>
+        <v>0.99999973034342926</v>
+      </c>
+      <c r="H57">
+        <f>Regular_large.csv!J57/Optimistic_large.csv!J57</f>
+        <v>1.0000025089446001</v>
+      </c>
+      <c r="I57">
+        <f>Regular_small.csv!G57/Regular_small.csv!I57</f>
+        <v>3470.3414303831382</v>
+      </c>
+      <c r="J57">
+        <f>Regular_large.csv!G57/Regular_large.csv!I57</f>
+        <v>15170.680250042124</v>
+      </c>
+      <c r="K57">
+        <f>Optimistic_small.csv!G57/Optimistic_small.csv!I57</f>
+        <v>5216.1232580448614</v>
+      </c>
+      <c r="L57">
+        <f>Optimistic_large.csv!G57/Optimistic_large.csv!I57</f>
+        <v>32173.644446281858</v>
+      </c>
+      <c r="M57">
+        <f>Regular_small.csv!H57/Regular_small.csv!J57</f>
+        <v>12229.428011338881</v>
+      </c>
+      <c r="N57">
+        <f>Regular_large.csv!H57/Regular_large.csv!J57</f>
+        <v>179.50570632502922</v>
+      </c>
+      <c r="O57">
+        <f>Optimistic_small.csv!H57/Optimistic_small.csv!J57</f>
+        <v>8532.0362051698194</v>
+      </c>
+      <c r="P57">
+        <f>Optimistic_large.csv!H57/Optimistic_large.csv!J57</f>
+        <v>415.34844596821961</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <f>Regular_small.csv!G58/Optimistic_small.csv!G58</f>
+        <v>1.2722170188867066</v>
+      </c>
+      <c r="B58">
+        <f>Regular_large.csv!G58/Optimistic_large.csv!G58</f>
+        <v>1.1448725625479965</v>
+      </c>
+      <c r="C58">
+        <f>Regular_small.csv!H58/Optimistic_small.csv!H58</f>
+        <v>1.2918956346744743</v>
+      </c>
+      <c r="D58">
+        <f>Regular_large.csv!H58/Optimistic_large.csv!H58</f>
+        <v>0.52034239625894418</v>
+      </c>
+      <c r="E58">
+        <f>Regular_small.csv!I58/Optimistic_small.csv!I58</f>
+        <v>1.9921507230605575</v>
+      </c>
+      <c r="F58">
+        <f>Regular_large.csv!I58/Optimistic_large.csv!I58</f>
+        <v>2.0481808695968153</v>
+      </c>
+      <c r="G58">
+        <f>Regular_small.csv!J58/Optimistic_small.csv!J58</f>
+        <v>1.0000155502445029</v>
+      </c>
+      <c r="H58">
+        <f>Regular_large.csv!J58/Optimistic_large.csv!J58</f>
+        <v>0.99999476952374133</v>
+      </c>
+      <c r="I58">
+        <f>Regular_small.csv!G58/Regular_small.csv!I58</f>
+        <v>3396.5390570640461</v>
+      </c>
+      <c r="J58">
+        <f>Regular_large.csv!G58/Regular_large.csv!I58</f>
+        <v>15738.64384777367</v>
+      </c>
+      <c r="K58">
+        <f>Optimistic_small.csv!G58/Optimistic_small.csv!I58</f>
+        <v>5318.6033813277627</v>
+      </c>
+      <c r="L58">
+        <f>Optimistic_large.csv!G58/Optimistic_large.csv!I58</f>
+        <v>28156.486841352034</v>
+      </c>
+      <c r="M58">
+        <f>Regular_small.csv!H58/Regular_small.csv!J58</f>
+        <v>11889.190961223867</v>
+      </c>
+      <c r="N58">
+        <f>Regular_large.csv!H58/Regular_large.csv!J58</f>
+        <v>206.83744904511417</v>
+      </c>
+      <c r="O58">
+        <f>Optimistic_small.csv!H58/Optimistic_small.csv!J58</f>
+        <v>9203.0466873170317</v>
+      </c>
+      <c r="P58">
+        <f>Optimistic_large.csv!H58/Optimistic_large.csv!J58</f>
+        <v>397.50050865318508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <f>Regular_small.csv!G59/Optimistic_small.csv!G59</f>
+        <v>1.3216191056737689</v>
+      </c>
+      <c r="B59">
+        <f>Regular_large.csv!G59/Optimistic_large.csv!G59</f>
+        <v>1.1310036702143624</v>
+      </c>
+      <c r="C59">
+        <f>Regular_small.csv!H59/Optimistic_small.csv!H59</f>
+        <v>1.6495042259260067</v>
+      </c>
+      <c r="D59">
+        <f>Regular_large.csv!H59/Optimistic_large.csv!H59</f>
+        <v>0.56014672178746139</v>
+      </c>
+      <c r="E59">
+        <f>Regular_small.csv!I59/Optimistic_small.csv!I59</f>
+        <v>2.0520939362894635</v>
+      </c>
+      <c r="F59">
+        <f>Regular_large.csv!I59/Optimistic_large.csv!I59</f>
+        <v>2.0002279800737379</v>
+      </c>
+      <c r="G59">
+        <f>Regular_small.csv!J59/Optimistic_small.csv!J59</f>
+        <v>0.99999056203359593</v>
+      </c>
+      <c r="H59">
+        <f>Regular_large.csv!J59/Optimistic_large.csv!J59</f>
+        <v>0.99999868175655682</v>
+      </c>
+      <c r="I59">
+        <f>Regular_small.csv!G59/Regular_small.csv!I59</f>
+        <v>3373.9691625629584</v>
+      </c>
+      <c r="J59">
+        <f>Regular_large.csv!G59/Regular_large.csv!I59</f>
+        <v>15663.289864562799</v>
+      </c>
+      <c r="K59">
+        <f>Optimistic_small.csv!G59/Optimistic_small.csv!I59</f>
+        <v>5238.8026398826496</v>
+      </c>
+      <c r="L59">
+        <f>Optimistic_large.csv!G59/Optimistic_large.csv!I59</f>
+        <v>27701.192730140127</v>
+      </c>
+      <c r="M59">
+        <f>Regular_small.csv!H59/Regular_small.csv!J59</f>
+        <v>11983.195699338788</v>
+      </c>
+      <c r="N59">
+        <f>Regular_large.csv!H59/Regular_large.csv!J59</f>
+        <v>216.61044481377044</v>
+      </c>
+      <c r="O59">
+        <f>Optimistic_small.csv!H59/Optimistic_small.csv!J59</f>
+        <v>7264.6571096920006</v>
+      </c>
+      <c r="P59">
+        <f>Optimistic_large.csv!H59/Optimistic_large.csv!J59</f>
+        <v>386.7025385371461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <f>Regular_small.csv!G60/Optimistic_small.csv!G60</f>
+        <v>1.259649704045712</v>
+      </c>
+      <c r="B60">
+        <f>Regular_large.csv!G60/Optimistic_large.csv!G60</f>
+        <v>0.83764411127017013</v>
+      </c>
+      <c r="C60">
+        <f>Regular_small.csv!H60/Optimistic_small.csv!H60</f>
+        <v>1.2670734282789362</v>
+      </c>
+      <c r="D60">
+        <f>Regular_large.csv!H60/Optimistic_large.csv!H60</f>
+        <v>0.46003365729483059</v>
+      </c>
+      <c r="E60">
+        <f>Regular_small.csv!I60/Optimistic_small.csv!I60</f>
+        <v>1.9397628756092578</v>
+      </c>
+      <c r="F60">
+        <f>Regular_large.csv!I60/Optimistic_large.csv!I60</f>
+        <v>1.9780899505525056</v>
+      </c>
+      <c r="G60">
+        <f>Regular_small.csv!J60/Optimistic_small.csv!J60</f>
+        <v>1.0000168985057767</v>
+      </c>
+      <c r="H60">
+        <f>Regular_large.csv!J60/Optimistic_large.csv!J60</f>
+        <v>1.0000088875069548</v>
+      </c>
+      <c r="I60">
+        <f>Regular_small.csv!G60/Regular_small.csv!I60</f>
+        <v>3405.6043541583927</v>
+      </c>
+      <c r="J60">
+        <f>Regular_large.csv!G60/Regular_large.csv!I60</f>
+        <v>13702.393931097999</v>
+      </c>
+      <c r="K60">
+        <f>Optimistic_small.csv!G60/Optimistic_small.csv!I60</f>
+        <v>5244.3666473246458</v>
+      </c>
+      <c r="L60">
+        <f>Optimistic_large.csv!G60/Optimistic_large.csv!I60</f>
+        <v>32358.095005904484</v>
+      </c>
+      <c r="M60">
+        <f>Regular_small.csv!H60/Regular_small.csv!J60</f>
+        <v>11698.282108236337</v>
+      </c>
+      <c r="N60">
+        <f>Regular_large.csv!H60/Regular_large.csv!J60</f>
+        <v>197.96504978554296</v>
+      </c>
+      <c r="O60">
+        <f>Optimistic_small.csv!H60/Optimistic_small.csv!J60</f>
+        <v>9232.6770735095779</v>
+      </c>
+      <c r="P60">
+        <f>Optimistic_large.csv!H60/Optimistic_large.csv!J60</f>
+        <v>430.33114221558998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <f>Regular_small.csv!G61/Optimistic_small.csv!G61</f>
+        <v>1.2596223971561964</v>
+      </c>
+      <c r="B61">
+        <f>Regular_large.csv!G61/Optimistic_large.csv!G61</f>
+        <v>0.94755886685023771</v>
+      </c>
+      <c r="C61">
+        <f>Regular_small.csv!H61/Optimistic_small.csv!H61</f>
+        <v>1.19538639335909</v>
+      </c>
+      <c r="D61">
+        <f>Regular_large.csv!H61/Optimistic_large.csv!H61</f>
+        <v>0.55212761984665071</v>
+      </c>
+      <c r="E61">
+        <f>Regular_small.csv!I61/Optimistic_small.csv!I61</f>
+        <v>1.9218684395015231</v>
+      </c>
+      <c r="F61">
+        <f>Regular_large.csv!I61/Optimistic_large.csv!I61</f>
+        <v>1.9852555733057287</v>
+      </c>
+      <c r="G61">
+        <f>Regular_small.csv!J61/Optimistic_small.csv!J61</f>
+        <v>1.0000065616190408</v>
+      </c>
+      <c r="H61">
+        <f>Regular_large.csv!J61/Optimistic_large.csv!J61</f>
+        <v>1.0000023813349943</v>
+      </c>
+      <c r="I61">
+        <f>Regular_small.csv!G61/Regular_small.csv!I61</f>
+        <v>3356.699544987815</v>
+      </c>
+      <c r="J61">
+        <f>Regular_large.csv!G61/Regular_large.csv!I61</f>
+        <v>15105.078756033337</v>
+      </c>
+      <c r="K61">
+        <f>Optimistic_small.csv!G61/Optimistic_small.csv!I61</f>
+        <v>5121.4831769947068</v>
+      </c>
+      <c r="L61">
+        <f>Optimistic_large.csv!G61/Optimistic_large.csv!I61</f>
+        <v>31647.048890289876</v>
+      </c>
+      <c r="M61">
+        <f>Regular_small.csv!H61/Regular_small.csv!J61</f>
+        <v>10936.261122680258</v>
+      </c>
+      <c r="N61">
+        <f>Regular_large.csv!H61/Regular_large.csv!J61</f>
+        <v>209.87751011777928</v>
+      </c>
+      <c r="O61">
+        <f>Optimistic_small.csv!H61/Optimistic_small.csv!J61</f>
+        <v>9148.7848138608006</v>
+      </c>
+      <c r="P61">
+        <f>Optimistic_large.csv!H61/Optimistic_large.csv!J61</f>
+        <v>380.12590271200463</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <f>Regular_small.csv!G62/Optimistic_small.csv!G62</f>
+        <v>1.0312060945574104</v>
+      </c>
+      <c r="B62">
+        <f>Regular_large.csv!G62/Optimistic_large.csv!G62</f>
+        <v>1.1811660309691427</v>
+      </c>
+      <c r="C62">
+        <f>Regular_small.csv!H62/Optimistic_small.csv!H62</f>
+        <v>1.0582154056921798</v>
+      </c>
+      <c r="D62">
+        <f>Regular_large.csv!H62/Optimistic_large.csv!H62</f>
+        <v>0.46987984457663268</v>
+      </c>
+      <c r="E62">
+        <f>Regular_small.csv!I62/Optimistic_small.csv!I62</f>
+        <v>1.7287845007753664</v>
+      </c>
+      <c r="F62">
+        <f>Regular_large.csv!I62/Optimistic_large.csv!I62</f>
+        <v>2.0105101450370912</v>
+      </c>
+      <c r="G62">
+        <f>Regular_small.csv!J62/Optimistic_small.csv!J62</f>
+        <v>1.0001180151629261</v>
+      </c>
+      <c r="H62">
+        <f>Regular_large.csv!J62/Optimistic_large.csv!J62</f>
+        <v>0.99999434428633871</v>
+      </c>
+      <c r="I62">
+        <f>Regular_small.csv!G62/Regular_small.csv!I62</f>
+        <v>3420.5571517068988</v>
+      </c>
+      <c r="J62">
+        <f>Regular_large.csv!G62/Regular_large.csv!I62</f>
+        <v>15927.888329302095</v>
+      </c>
+      <c r="K62">
+        <f>Optimistic_small.csv!G62/Optimistic_small.csv!I62</f>
+        <v>5734.4562053090185</v>
+      </c>
+      <c r="L62">
+        <f>Optimistic_large.csv!G62/Optimistic_large.csv!I62</f>
+        <v>27111.498498483605</v>
+      </c>
+      <c r="M62">
+        <f>Regular_small.csv!H62/Regular_small.csv!J62</f>
+        <v>6660.3797227680916</v>
+      </c>
+      <c r="N62">
+        <f>Regular_large.csv!H62/Regular_large.csv!J62</f>
+        <v>198.57002712504118</v>
+      </c>
+      <c r="O62">
+        <f>Optimistic_small.csv!H62/Optimistic_small.csv!J62</f>
+        <v>6294.7162862452833</v>
+      </c>
+      <c r="P62">
+        <f>Optimistic_large.csv!H62/Optimistic_large.csv!J62</f>
+        <v>422.59506629559513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <f>Regular_small.csv!G63/Optimistic_small.csv!G63</f>
+        <v>1.3220887385189459</v>
+      </c>
+      <c r="B63">
+        <f>Regular_large.csv!G63/Optimistic_large.csv!G63</f>
+        <v>0.92855343833451165</v>
+      </c>
+      <c r="C63">
+        <f>Regular_small.csv!H63/Optimistic_small.csv!H63</f>
+        <v>1.9712835337748422</v>
+      </c>
+      <c r="D63">
+        <f>Regular_large.csv!H63/Optimistic_large.csv!H63</f>
+        <v>0.46921973977258435</v>
+      </c>
+      <c r="E63">
+        <f>Regular_small.csv!I63/Optimistic_small.csv!I63</f>
+        <v>2.146729940311364</v>
+      </c>
+      <c r="F63">
+        <f>Regular_large.csv!I63/Optimistic_large.csv!I63</f>
+        <v>1.9895625549679503</v>
+      </c>
+      <c r="G63">
+        <f>Regular_small.csv!J63/Optimistic_small.csv!J63</f>
+        <v>0.9999944271461263</v>
+      </c>
+      <c r="H63">
+        <f>Regular_large.csv!J63/Optimistic_large.csv!J63</f>
+        <v>1.000004337462399</v>
+      </c>
+      <c r="I63">
+        <f>Regular_small.csv!G63/Regular_small.csv!I63</f>
+        <v>3467.2373985349764</v>
+      </c>
+      <c r="J63">
+        <f>Regular_large.csv!G63/Regular_large.csv!I63</f>
+        <v>13904.397730348515</v>
+      </c>
+      <c r="K63">
+        <f>Optimistic_small.csv!G63/Optimistic_small.csv!I63</f>
+        <v>5629.8961762131785</v>
+      </c>
+      <c r="L63">
+        <f>Optimistic_large.csv!G63/Optimistic_large.csv!I63</f>
+        <v>29792.22081531609</v>
+      </c>
+      <c r="M63">
+        <f>Regular_small.csv!H63/Regular_small.csv!J63</f>
+        <v>12661.24516909526</v>
+      </c>
+      <c r="N63">
+        <f>Regular_large.csv!H63/Regular_large.csv!J63</f>
+        <v>197.04786717693148</v>
+      </c>
+      <c r="O63">
+        <f>Optimistic_small.csv!H63/Optimistic_small.csv!J63</f>
+        <v>6422.8074718307962</v>
+      </c>
+      <c r="P63">
+        <f>Optimistic_large.csv!H63/Optimistic_large.csv!J63</f>
+        <v>419.94977014425973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <f>Regular_small.csv!G64/Optimistic_small.csv!G64</f>
+        <v>1.135497626353609</v>
+      </c>
+      <c r="B64">
+        <f>Regular_large.csv!G64/Optimistic_large.csv!G64</f>
+        <v>1.0172589650985351</v>
+      </c>
+      <c r="C64">
+        <f>Regular_small.csv!H64/Optimistic_small.csv!H64</f>
+        <v>0.45951461319175385</v>
+      </c>
+      <c r="D64">
+        <f>Regular_large.csv!H64/Optimistic_large.csv!H64</f>
+        <v>0.47140590169382629</v>
+      </c>
+      <c r="E64">
+        <f>Regular_small.csv!I64/Optimistic_small.csv!I64</f>
+        <v>2.0319971633155949</v>
+      </c>
+      <c r="F64">
+        <f>Regular_large.csv!I64/Optimistic_large.csv!I64</f>
+        <v>2.0452898222958749</v>
+      </c>
+      <c r="G64">
+        <f>Regular_small.csv!J64/Optimistic_small.csv!J64</f>
+        <v>0.99999442730190635</v>
+      </c>
+      <c r="H64">
+        <f>Regular_large.csv!J64/Optimistic_large.csv!J64</f>
+        <v>0.99999306864309845</v>
+      </c>
+      <c r="I64">
+        <f>Regular_small.csv!G64/Regular_small.csv!I64</f>
+        <v>19553.644383315586</v>
+      </c>
+      <c r="J64">
+        <f>Regular_large.csv!G64/Regular_large.csv!I64</f>
+        <v>15734.174726698453</v>
+      </c>
+      <c r="K64">
+        <f>Optimistic_small.csv!G64/Optimistic_small.csv!I64</f>
+        <v>34991.662683586997</v>
+      </c>
+      <c r="L64">
+        <f>Optimistic_large.csv!G64/Optimistic_large.csv!I64</f>
+        <v>31634.960747309968</v>
+      </c>
+      <c r="M64">
+        <f>Regular_small.csv!H64/Regular_small.csv!J64</f>
+        <v>211.35567170800914</v>
+      </c>
+      <c r="N64">
+        <f>Regular_large.csv!H64/Regular_large.csv!J64</f>
+        <v>188.7552247909905</v>
+      </c>
+      <c r="O64">
+        <f>Optimistic_small.csv!H64/Optimistic_small.csv!J64</f>
+        <v>459.95162682337332</v>
+      </c>
+      <c r="P64">
+        <f>Optimistic_large.csv!H64/Optimistic_large.csv!J64</f>
+        <v>400.40634999040452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <f>Regular_small.csv!G65/Optimistic_small.csv!G65</f>
+        <v>1.0838231709269597</v>
+      </c>
+      <c r="C65">
+        <f>Regular_small.csv!H65/Optimistic_small.csv!H65</f>
+        <v>0.52561816524892824</v>
+      </c>
+      <c r="E65">
+        <f>Regular_small.csv!I65/Optimistic_small.csv!I65</f>
+        <v>2.0443034105606466</v>
+      </c>
+      <c r="G65">
+        <f>Regular_small.csv!J65/Optimistic_small.csv!J65</f>
+        <v>0.99999424750022425</v>
+      </c>
+      <c r="I65">
+        <f>Regular_small.csv!G65/Regular_small.csv!I65</f>
+        <v>19189.444531204019</v>
+      </c>
+      <c r="K65">
+        <f>Optimistic_small.csv!G65/Optimistic_small.csv!I65</f>
+        <v>36195.062030601694</v>
+      </c>
+      <c r="M65">
+        <f>Regular_small.csv!H65/Regular_small.csv!J65</f>
+        <v>228.98847569923385</v>
+      </c>
+      <c r="O65">
+        <f>Optimistic_small.csv!H65/Optimistic_small.csv!J65</f>
+        <v>435.65305307633798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66">
+        <f>Regular_small.csv!G66/Optimistic_small.csv!G66</f>
+        <v>1.0455892552081107</v>
+      </c>
+      <c r="C66">
+        <f>Regular_small.csv!H66/Optimistic_small.csv!H66</f>
+        <v>0.45724180311041207</v>
+      </c>
+      <c r="E66">
+        <f>Regular_small.csv!I66/Optimistic_small.csv!I66</f>
+        <v>2.0296038253189117</v>
+      </c>
+      <c r="G66">
+        <f>Regular_small.csv!J66/Optimistic_small.csv!J66</f>
+        <v>0.99999928093222823</v>
+      </c>
+      <c r="I66">
+        <f>Regular_small.csv!G66/Regular_small.csv!I66</f>
+        <v>18707.333054412793</v>
+      </c>
+      <c r="K66">
+        <f>Optimistic_small.csv!G66/Optimistic_small.csv!I66</f>
+        <v>36312.992448639881</v>
+      </c>
+      <c r="M66">
+        <f>Regular_small.csv!H66/Regular_small.csv!J66</f>
+        <v>213.19456657619588</v>
+      </c>
+      <c r="O66">
+        <f>Optimistic_small.csv!H66/Optimistic_small.csv!J66</f>
+        <v>466.26185931510952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <f>Regular_small.csv!G67/Optimistic_small.csv!G67</f>
+        <v>1.1104851950741956</v>
+      </c>
+      <c r="C67">
+        <f>Regular_small.csv!H67/Optimistic_small.csv!H67</f>
+        <v>0.42053834114122512</v>
+      </c>
+      <c r="E67">
+        <f>Regular_small.csv!I67/Optimistic_small.csv!I67</f>
+        <v>1.995062076791791</v>
+      </c>
+      <c r="G67">
+        <f>Regular_small.csv!J67/Optimistic_small.csv!J67</f>
+        <v>0.99999065217946237</v>
+      </c>
+      <c r="I67">
+        <f>Regular_small.csv!G67/Regular_small.csv!I67</f>
+        <v>19922.045448357592</v>
+      </c>
+      <c r="K67">
+        <f>Optimistic_small.csv!G67/Optimistic_small.csv!I67</f>
+        <v>35791.307747677965</v>
+      </c>
+      <c r="M67">
+        <f>Regular_small.csv!H67/Regular_small.csv!J67</f>
+        <v>201.50127113570969</v>
+      </c>
+      <c r="O67">
+        <f>Optimistic_small.csv!H67/Optimistic_small.csv!J67</f>
+        <v>479.14629375094603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <f>Regular_small.csv!G68/Optimistic_small.csv!G68</f>
+        <v>1.0203822061961583</v>
+      </c>
+      <c r="C68">
+        <f>Regular_small.csv!H68/Optimistic_small.csv!H68</f>
+        <v>0.46765886786199912</v>
+      </c>
+      <c r="E68">
+        <f>Regular_small.csv!I68/Optimistic_small.csv!I68</f>
+        <v>2.0105504121000797</v>
+      </c>
+      <c r="G68">
+        <f>Regular_small.csv!J68/Optimistic_small.csv!J68</f>
+        <v>0.99999946069781387</v>
+      </c>
+      <c r="I68">
+        <f>Regular_small.csv!G68/Regular_small.csv!I68</f>
+        <v>18167.90245362799</v>
+      </c>
+      <c r="K68">
+        <f>Optimistic_small.csv!G68/Optimistic_small.csv!I68</f>
+        <v>35797.844712821032</v>
+      </c>
+      <c r="M68">
+        <f>Regular_small.csv!H68/Regular_small.csv!J68</f>
+        <v>221.32027933711097</v>
+      </c>
+      <c r="O68">
+        <f>Optimistic_small.csv!H68/Optimistic_small.csv!J68</f>
+        <v>473.2512846178073</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <f>Regular_small.csv!G69/Optimistic_small.csv!G69</f>
+        <v>1.2433039950400235</v>
+      </c>
+      <c r="C69">
+        <f>Regular_small.csv!H69/Optimistic_small.csv!H69</f>
+        <v>0.46334180428548449</v>
+      </c>
+      <c r="E69">
+        <f>Regular_small.csv!I69/Optimistic_small.csv!I69</f>
+        <v>2.0795564408683016</v>
+      </c>
+      <c r="G69">
+        <f>Regular_small.csv!J69/Optimistic_small.csv!J69</f>
+        <v>0.9999780690322152</v>
+      </c>
+      <c r="I69">
+        <f>Regular_small.csv!G69/Regular_small.csv!I69</f>
+        <v>19435.423040677149</v>
+      </c>
+      <c r="K69">
+        <f>Optimistic_small.csv!G69/Optimistic_small.csv!I69</f>
+        <v>32507.785164753117</v>
+      </c>
+      <c r="M69">
+        <f>Regular_small.csv!H69/Regular_small.csv!J69</f>
+        <v>234.11583687891755</v>
+      </c>
+      <c r="O69">
+        <f>Optimistic_small.csv!H69/Optimistic_small.csv!J69</f>
+        <v>505.26565987945156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <f>Regular_small.csv!G70/Optimistic_small.csv!G70</f>
+        <v>1.055550965586977</v>
+      </c>
+      <c r="C70">
+        <f>Regular_small.csv!H70/Optimistic_small.csv!H70</f>
+        <v>0.4664297629727665</v>
+      </c>
+      <c r="E70">
+        <f>Regular_small.csv!I70/Optimistic_small.csv!I70</f>
+        <v>1.9528604884610354</v>
+      </c>
+      <c r="G70">
+        <f>Regular_small.csv!J70/Optimistic_small.csv!J70</f>
+        <v>1.0000091681536454</v>
+      </c>
+      <c r="I70">
+        <f>Regular_small.csv!G70/Regular_small.csv!I70</f>
+        <v>19275.748462978336</v>
+      </c>
+      <c r="K70">
+        <f>Optimistic_small.csv!G70/Optimistic_small.csv!I70</f>
+        <v>35661.800127226707</v>
+      </c>
+      <c r="M70">
+        <f>Regular_small.csv!H70/Regular_small.csv!J70</f>
+        <v>227.61403433711712</v>
+      </c>
+      <c r="O70">
+        <f>Optimistic_small.csv!H70/Optimistic_small.csv!J70</f>
+        <v>487.99656284122159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <f>Regular_small.csv!G71/Optimistic_small.csv!G71</f>
+        <v>1.0485583938789236</v>
+      </c>
+      <c r="C71">
+        <f>Regular_small.csv!H71/Optimistic_small.csv!H71</f>
+        <v>0.56467359748878887</v>
+      </c>
+      <c r="E71">
+        <f>Regular_small.csv!I71/Optimistic_small.csv!I71</f>
+        <v>1.925514034941495</v>
+      </c>
+      <c r="G71">
+        <f>Regular_small.csv!J71/Optimistic_small.csv!J71</f>
+        <v>0.99999730354626803</v>
+      </c>
+      <c r="I71">
+        <f>Regular_small.csv!G71/Regular_small.csv!I71</f>
+        <v>20170.454667023518</v>
+      </c>
+      <c r="K71">
+        <f>Optimistic_small.csv!G71/Optimistic_small.csv!I71</f>
+        <v>37039.895707505653</v>
+      </c>
+      <c r="M71">
+        <f>Regular_small.csv!H71/Regular_small.csv!J71</f>
+        <v>241.23295427682984</v>
+      </c>
+      <c r="O71">
+        <f>Optimistic_small.csv!H71/Optimistic_small.csv!J71</f>
+        <v>427.20662853042194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72">
+        <f>Regular_small.csv!G72/Optimistic_small.csv!G72</f>
+        <v>1.0904378156048655</v>
+      </c>
+      <c r="C72">
+        <f>Regular_small.csv!H72/Optimistic_small.csv!H72</f>
+        <v>0.52199411785662153</v>
+      </c>
+      <c r="E72">
+        <f>Regular_small.csv!I72/Optimistic_small.csv!I72</f>
+        <v>1.9132457385936428</v>
+      </c>
+      <c r="G72">
+        <f>Regular_small.csv!J72/Optimistic_small.csv!J72</f>
+        <v>0.999990652599548</v>
+      </c>
+      <c r="I72">
+        <f>Regular_small.csv!G72/Regular_small.csv!I72</f>
+        <v>20290.590045717472</v>
+      </c>
+      <c r="K72">
+        <f>Optimistic_small.csv!G72/Optimistic_small.csv!I72</f>
+        <v>35601.190992248929</v>
+      </c>
+      <c r="M72">
+        <f>Regular_small.csv!H72/Regular_small.csv!J72</f>
+        <v>221.16077966676926</v>
+      </c>
+      <c r="O72">
+        <f>Optimistic_small.csv!H72/Optimistic_small.csv!J72</f>
+        <v>423.68046846294942</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73">
+        <f>Regular_small.csv!G73/Optimistic_small.csv!G73</f>
+        <v>1.0639529607412679</v>
+      </c>
+      <c r="C73">
+        <f>Regular_small.csv!H73/Optimistic_small.csv!H73</f>
+        <v>0.4950392722220523</v>
+      </c>
+      <c r="E73">
+        <f>Regular_small.csv!I73/Optimistic_small.csv!I73</f>
+        <v>1.9770300453365885</v>
+      </c>
+      <c r="G73">
+        <f>Regular_small.csv!J73/Optimistic_small.csv!J73</f>
+        <v>0.99999406786790546</v>
+      </c>
+      <c r="I73">
+        <f>Regular_small.csv!G73/Regular_small.csv!I73</f>
+        <v>19736.546031611371</v>
+      </c>
+      <c r="K73">
+        <f>Optimistic_small.csv!G73/Optimistic_small.csv!I73</f>
+        <v>36674.313560327704</v>
+      </c>
+      <c r="M73">
+        <f>Regular_small.csv!H73/Regular_small.csv!J73</f>
+        <v>230.18166633140933</v>
+      </c>
+      <c r="O73">
+        <f>Optimistic_small.csv!H73/Optimistic_small.csv!J73</f>
+        <v>464.97381880464303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74">
+        <f>Regular_small.csv!G74/Optimistic_small.csv!G74</f>
+        <v>1.0826701050212544</v>
+      </c>
+      <c r="C74">
+        <f>Regular_small.csv!H74/Optimistic_small.csv!H74</f>
+        <v>0.52304081984518247</v>
+      </c>
+      <c r="E74">
+        <f>Regular_small.csv!I74/Optimistic_small.csv!I74</f>
+        <v>1.9795772554538715</v>
+      </c>
+      <c r="G74">
+        <f>Regular_small.csv!J74/Optimistic_small.csv!J74</f>
+        <v>0.999996404802034</v>
+      </c>
+      <c r="I74">
+        <f>Regular_small.csv!G74/Regular_small.csv!I74</f>
+        <v>19933.089219294285</v>
+      </c>
+      <c r="K74">
+        <f>Optimistic_small.csv!G74/Optimistic_small.csv!I74</f>
+        <v>36446.088117186067</v>
+      </c>
+      <c r="M74">
+        <f>Regular_small.csv!H74/Regular_small.csv!J74</f>
+        <v>227.83356474507437</v>
+      </c>
+      <c r="O74">
+        <f>Optimistic_small.csv!H74/Optimistic_small.csv!J74</f>
+        <v>435.59266694661272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75">
+        <f>Regular_small.csv!G75/Optimistic_small.csv!G75</f>
+        <v>1.0508981920576064</v>
+      </c>
+      <c r="C75">
+        <f>Regular_small.csv!H75/Optimistic_small.csv!H75</f>
+        <v>0.49769456448181676</v>
+      </c>
+      <c r="E75">
+        <f>Regular_small.csv!I75/Optimistic_small.csv!I75</f>
+        <v>2.0101222284290179</v>
+      </c>
+      <c r="G75">
+        <f>Regular_small.csv!J75/Optimistic_small.csv!J75</f>
+        <v>1.0000127631432063</v>
+      </c>
+      <c r="I75">
+        <f>Regular_small.csv!G75/Regular_small.csv!I75</f>
+        <v>19806.017068396875</v>
+      </c>
+      <c r="K75">
+        <f>Optimistic_small.csv!G75/Optimistic_small.csv!I75</f>
+        <v>37884.274106398603</v>
+      </c>
+      <c r="M75">
+        <f>Regular_small.csv!H75/Regular_small.csv!J75</f>
+        <v>228.61642822063922</v>
+      </c>
+      <c r="O75">
+        <f>Optimistic_small.csv!H75/Optimistic_small.csv!J75</f>
+        <v>459.35672679665061</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76">
+        <f>Regular_small.csv!G76/Optimistic_small.csv!G76</f>
+        <v>1.0838077581494374</v>
+      </c>
+      <c r="C76">
+        <f>Regular_small.csv!H76/Optimistic_small.csv!H76</f>
+        <v>0.80456960215303452</v>
+      </c>
+      <c r="E76">
+        <f>Regular_small.csv!I76/Optimistic_small.csv!I76</f>
+        <v>2.0061289689827344</v>
+      </c>
+      <c r="G76">
+        <f>Regular_small.csv!J76/Optimistic_small.csv!J76</f>
+        <v>0.99999946068763401</v>
+      </c>
+      <c r="I76">
+        <f>Regular_small.csv!G76/Regular_small.csv!I76</f>
+        <v>19775.591042694159</v>
+      </c>
+      <c r="K76">
+        <f>Optimistic_small.csv!G76/Optimistic_small.csv!I76</f>
+        <v>36604.633774944916</v>
+      </c>
+      <c r="M76">
+        <f>Regular_small.csv!H76/Regular_small.csv!J76</f>
+        <v>345.38611118901184</v>
+      </c>
+      <c r="O76">
+        <f>Optimistic_small.csv!H76/Optimistic_small.csv!J76</f>
+        <v>429.28035560100159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77">
+        <f>Regular_small.csv!G77/Optimistic_small.csv!G77</f>
+        <v>1.0749130519976287</v>
+      </c>
+      <c r="C77">
+        <f>Regular_small.csv!H77/Optimistic_small.csv!H77</f>
+        <v>0.62522144896931953</v>
+      </c>
+      <c r="E77">
+        <f>Regular_small.csv!I77/Optimistic_small.csv!I77</f>
+        <v>1.9723582396862287</v>
+      </c>
+      <c r="G77">
+        <f>Regular_small.csv!J77/Optimistic_small.csv!J77</f>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f>Regular_small.csv!G77/Regular_small.csv!I77</f>
+        <v>20301.507684915156</v>
+      </c>
+      <c r="K77">
+        <f>Optimistic_small.csv!G77/Optimistic_small.csv!I77</f>
+        <v>37251.241750187655</v>
+      </c>
+      <c r="M77">
+        <f>Regular_small.csv!H77/Regular_small.csv!J77</f>
+        <v>280.96340626385359</v>
+      </c>
+      <c r="O77">
+        <f>Optimistic_small.csv!H77/Optimistic_small.csv!J77</f>
+        <v>449.38222565304352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78">
+        <f>Regular_small.csv!G78/Optimistic_small.csv!G78</f>
+        <v>1.0821019656487749</v>
+      </c>
+      <c r="C78">
+        <f>Regular_small.csv!H78/Optimistic_small.csv!H78</f>
+        <v>0.50724456164357079</v>
+      </c>
+      <c r="E78">
+        <f>Regular_small.csv!I78/Optimistic_small.csv!I78</f>
+        <v>1.9844385495117429</v>
+      </c>
+      <c r="G78">
+        <f>Regular_small.csv!J78/Optimistic_small.csv!J78</f>
+        <v>1.0000113256207654</v>
+      </c>
+      <c r="I78">
+        <f>Regular_small.csv!G78/Regular_small.csv!I78</f>
+        <v>19688.961285007277</v>
+      </c>
+      <c r="K78">
+        <f>Optimistic_small.csv!G78/Optimistic_small.csv!I78</f>
+        <v>36107.072174466797</v>
+      </c>
+      <c r="M78">
+        <f>Regular_small.csv!H78/Regular_small.csv!J78</f>
+        <v>228.22687226570253</v>
+      </c>
+      <c r="O78">
+        <f>Optimistic_small.csv!H78/Optimistic_small.csv!J78</f>
+        <v>449.93968262015181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79">
+        <f>Regular_small.csv!G79/Optimistic_small.csv!G79</f>
+        <v>1.0708967766706439</v>
+      </c>
+      <c r="C79">
+        <f>Regular_small.csv!H79/Optimistic_small.csv!H79</f>
+        <v>0.44361917656007477</v>
+      </c>
+      <c r="E79">
+        <f>Regular_small.csv!I79/Optimistic_small.csv!I79</f>
+        <v>2.0955651555784507</v>
+      </c>
+      <c r="G79">
+        <f>Regular_small.csv!J79/Optimistic_small.csv!J79</f>
+        <v>1.0000079099829557</v>
+      </c>
+      <c r="I79">
+        <f>Regular_small.csv!G79/Regular_small.csv!I79</f>
+        <v>19534.962264604725</v>
+      </c>
+      <c r="K79">
+        <f>Optimistic_small.csv!G79/Optimistic_small.csv!I79</f>
+        <v>38226.640633391078</v>
+      </c>
+      <c r="M79">
+        <f>Regular_small.csv!H79/Regular_small.csv!J79</f>
+        <v>210.26968406160032</v>
+      </c>
+      <c r="O79">
+        <f>Optimistic_small.csv!H79/Optimistic_small.csv!J79</f>
+        <v>473.9906622651207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80">
+        <f>Regular_small.csv!G80/Optimistic_small.csv!G80</f>
+        <v>1.1283182491044836</v>
+      </c>
+      <c r="C80">
+        <f>Regular_small.csv!H80/Optimistic_small.csv!H80</f>
+        <v>0.75246128963484271</v>
+      </c>
+      <c r="E80">
+        <f>Regular_small.csv!I80/Optimistic_small.csv!I80</f>
+        <v>2.1107887612962584</v>
+      </c>
+      <c r="G80">
+        <f>Regular_small.csv!J80/Optimistic_small.csv!J80</f>
+        <v>0.99999226989916712</v>
+      </c>
+      <c r="I80">
+        <f>Regular_small.csv!G80/Regular_small.csv!I80</f>
+        <v>19914.183352974978</v>
+      </c>
+      <c r="K80">
+        <f>Optimistic_small.csv!G80/Optimistic_small.csv!I80</f>
+        <v>37254.236067895203</v>
+      </c>
+      <c r="M80">
+        <f>Regular_small.csv!H80/Regular_small.csv!J80</f>
+        <v>332.48905166569682</v>
+      </c>
+      <c r="O80">
+        <f>Optimistic_small.csv!H80/Optimistic_small.csv!J80</f>
+        <v>441.86523090530267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81">
+        <f>Regular_small.csv!G81/Optimistic_small.csv!G81</f>
+        <v>1.1592480971688632</v>
+      </c>
+      <c r="C81">
+        <f>Regular_small.csv!H81/Optimistic_small.csv!H81</f>
+        <v>0.6414359429840456</v>
+      </c>
+      <c r="E81">
+        <f>Regular_small.csv!I81/Optimistic_small.csv!I81</f>
+        <v>2.0414132344617406</v>
+      </c>
+      <c r="G81">
+        <f>Regular_small.csv!J81/Optimistic_small.csv!J81</f>
+        <v>0.9999987416013123</v>
+      </c>
+      <c r="I81">
+        <f>Regular_small.csv!G81/Regular_small.csv!I81</f>
+        <v>19886.388677953229</v>
+      </c>
+      <c r="K81">
+        <f>Optimistic_small.csv!G81/Optimistic_small.csv!I81</f>
+        <v>35019.541659778391</v>
+      </c>
+      <c r="M81">
+        <f>Regular_small.csv!H81/Regular_small.csv!J81</f>
+        <v>272.06985487768532</v>
+      </c>
+      <c r="O81">
+        <f>Optimistic_small.csv!H81/Optimistic_small.csv!J81</f>
+        <v>424.1569489224961</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82">
+        <f>Regular_small.csv!G82/Optimistic_small.csv!G82</f>
+        <v>1.1822729207806322</v>
+      </c>
+      <c r="C82">
+        <f>Regular_small.csv!H82/Optimistic_small.csv!H82</f>
+        <v>0.50296439399773651</v>
+      </c>
+      <c r="E82">
+        <f>Regular_small.csv!I82/Optimistic_small.csv!I82</f>
+        <v>2.0328741000859636</v>
+      </c>
+      <c r="G82">
+        <f>Regular_small.csv!J82/Optimistic_small.csv!J82</f>
+        <v>1.000015100819543</v>
+      </c>
+      <c r="I82">
+        <f>Regular_small.csv!G82/Regular_small.csv!I82</f>
+        <v>19210.909627282734</v>
+      </c>
+      <c r="K82">
+        <f>Optimistic_small.csv!G82/Optimistic_small.csv!I82</f>
+        <v>33032.441100493932</v>
+      </c>
+      <c r="M82">
+        <f>Regular_small.csv!H82/Regular_small.csv!J82</f>
+        <v>221.21277021070358</v>
+      </c>
+      <c r="O82">
+        <f>Optimistic_small.csv!H82/Optimistic_small.csv!J82</f>
+        <v>439.82459463288109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83">
+        <f>Regular_small.csv!G83/Optimistic_small.csv!G83</f>
+        <v>1.1077895373280446</v>
+      </c>
+      <c r="C83">
+        <f>Regular_small.csv!H83/Optimistic_small.csv!H83</f>
+        <v>0.47167164316057641</v>
+      </c>
+      <c r="E83">
+        <f>Regular_small.csv!I83/Optimistic_small.csv!I83</f>
+        <v>2.010133185186163</v>
+      </c>
+      <c r="G83">
+        <f>Regular_small.csv!J83/Optimistic_small.csv!J83</f>
+        <v>1.0000017976910816</v>
+      </c>
+      <c r="I83">
+        <f>Regular_small.csv!G83/Regular_small.csv!I83</f>
+        <v>19596.216985310457</v>
+      </c>
+      <c r="K83">
+        <f>Optimistic_small.csv!G83/Optimistic_small.csv!I83</f>
+        <v>35558.203737229036</v>
+      </c>
+      <c r="M83">
+        <f>Regular_small.csv!H83/Regular_small.csv!J83</f>
+        <v>220.47688272297935</v>
+      </c>
+      <c r="O83">
+        <f>Optimistic_small.csv!H83/Optimistic_small.csv!J83</f>
+        <v>467.43806262113065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84">
+        <f>Regular_small.csv!G84/Optimistic_small.csv!G84</f>
+        <v>1.0190855449010252</v>
+      </c>
+      <c r="C84">
+        <f>Regular_small.csv!H84/Optimistic_small.csv!H84</f>
+        <v>0.56200385287313304</v>
+      </c>
+      <c r="E84">
+        <f>Regular_small.csv!I84/Optimistic_small.csv!I84</f>
+        <v>2.0001979903130254</v>
+      </c>
+      <c r="G84">
+        <f>Regular_small.csv!J84/Optimistic_small.csv!J84</f>
+        <v>1.0000012583889601</v>
+      </c>
+      <c r="I84">
+        <f>Regular_small.csv!G84/Regular_small.csv!I84</f>
+        <v>18524.57265231742</v>
+      </c>
+      <c r="K84">
+        <f>Optimistic_small.csv!G84/Optimistic_small.csv!I84</f>
+        <v>36358.883879735084</v>
+      </c>
+      <c r="M84">
+        <f>Regular_small.csv!H84/Regular_small.csv!J84</f>
+        <v>242.17496222590751</v>
+      </c>
+      <c r="O84">
+        <f>Optimistic_small.csv!H84/Optimistic_small.csv!J84</f>
+        <v>430.91389096023704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85">
+        <f>Regular_small.csv!G85/Optimistic_small.csv!G85</f>
+        <v>1.029187051755992</v>
+      </c>
+      <c r="C85">
+        <f>Regular_small.csv!H85/Optimistic_small.csv!H85</f>
+        <v>0.59554348907512433</v>
+      </c>
+      <c r="E85">
+        <f>Regular_small.csv!I85/Optimistic_small.csv!I85</f>
+        <v>1.9179798375647523</v>
+      </c>
+      <c r="G85">
+        <f>Regular_small.csv!J85/Optimistic_small.csv!J85</f>
+        <v>1.0000102469331109</v>
+      </c>
+      <c r="I85">
+        <f>Regular_small.csv!G85/Regular_small.csv!I85</f>
+        <v>19912.296480014549</v>
+      </c>
+      <c r="K85">
+        <f>Optimistic_small.csv!G85/Optimistic_small.csv!I85</f>
+        <v>37108.3012588602</v>
+      </c>
+      <c r="M85">
+        <f>Regular_small.csv!H85/Regular_small.csv!J85</f>
+        <v>245.44903164777804</v>
+      </c>
+      <c r="O85">
+        <f>Optimistic_small.csv!H85/Optimistic_small.csv!J85</f>
+        <v>412.14714164497434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86">
+        <f>Regular_small.csv!G86/Optimistic_small.csv!G86</f>
+        <v>1.0830601120000793</v>
+      </c>
+      <c r="C86">
+        <f>Regular_small.csv!H86/Optimistic_small.csv!H86</f>
+        <v>0.57632611355854402</v>
+      </c>
+      <c r="E86">
+        <f>Regular_small.csv!I86/Optimistic_small.csv!I86</f>
+        <v>2.0140510618867569</v>
+      </c>
+      <c r="G86">
+        <f>Regular_small.csv!J86/Optimistic_small.csv!J86</f>
+        <v>0.9999917306180518</v>
+      </c>
+      <c r="I86">
+        <f>Regular_small.csv!G86/Regular_small.csv!I86</f>
+        <v>19448.245867931564</v>
+      </c>
+      <c r="K86">
+        <f>Optimistic_small.csv!G86/Optimistic_small.csv!I86</f>
+        <v>36165.822938311132</v>
+      </c>
+      <c r="M86">
+        <f>Regular_small.csv!H86/Regular_small.csv!J86</f>
+        <v>251.68748309032236</v>
+      </c>
+      <c r="O86">
+        <f>Optimistic_small.csv!H86/Optimistic_small.csv!J86</f>
+        <v>436.70657266656468</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87">
+        <f>Regular_small.csv!G87/Optimistic_small.csv!G87</f>
+        <v>1.2523212500183418</v>
+      </c>
+      <c r="C87">
+        <f>Regular_small.csv!H87/Optimistic_small.csv!H87</f>
+        <v>0.56697183570004051</v>
+      </c>
+      <c r="E87">
+        <f>Regular_small.csv!I87/Optimistic_small.csv!I87</f>
+        <v>2.0212938620010061</v>
+      </c>
+      <c r="G87">
+        <f>Regular_small.csv!J87/Optimistic_small.csv!J87</f>
+        <v>0.9999985618388616</v>
+      </c>
+      <c r="I87">
+        <f>Regular_small.csv!G87/Regular_small.csv!I87</f>
+        <v>19560.742093877951</v>
+      </c>
+      <c r="K87">
+        <f>Optimistic_small.csv!G87/Optimistic_small.csv!I87</f>
+        <v>31571.777553052882</v>
+      </c>
+      <c r="M87">
+        <f>Regular_small.csv!H87/Regular_small.csv!J87</f>
+        <v>247.90615553627219</v>
+      </c>
+      <c r="O87">
+        <f>Optimistic_small.csv!H87/Optimistic_small.csv!J87</f>
+        <v>437.2453504699821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88">
+        <f>Regular_small.csv!G88/Optimistic_small.csv!G88</f>
+        <v>1.2020740602225448</v>
+      </c>
+      <c r="C88">
+        <f>Regular_small.csv!H88/Optimistic_small.csv!H88</f>
+        <v>0.49474622357395293</v>
+      </c>
+      <c r="E88">
+        <f>Regular_small.csv!I88/Optimistic_small.csv!I88</f>
+        <v>2.0732270974013214</v>
+      </c>
+      <c r="G88">
+        <f>Regular_small.csv!J88/Optimistic_small.csv!J88</f>
+        <v>1.0000030560676967</v>
+      </c>
+      <c r="I88">
+        <f>Regular_small.csv!G88/Regular_small.csv!I88</f>
+        <v>19752.437235519381</v>
+      </c>
+      <c r="K88">
+        <f>Optimistic_small.csv!G88/Optimistic_small.csv!I88</f>
+        <v>34067.192256703514</v>
+      </c>
+      <c r="M88">
+        <f>Regular_small.csv!H88/Regular_small.csv!J88</f>
+        <v>214.04594765763014</v>
+      </c>
+      <c r="O88">
+        <f>Optimistic_small.csv!H88/Optimistic_small.csv!J88</f>
+        <v>432.63918267087371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89">
+        <f>Regular_small.csv!G89/Optimistic_small.csv!G89</f>
+        <v>1.1129216564799138</v>
+      </c>
+      <c r="C89">
+        <f>Regular_small.csv!H89/Optimistic_small.csv!H89</f>
+        <v>0.59221080980454999</v>
+      </c>
+      <c r="E89">
+        <f>Regular_small.csv!I89/Optimistic_small.csv!I89</f>
+        <v>1.953335480233799</v>
+      </c>
+      <c r="G89">
+        <f>Regular_small.csv!J89/Optimistic_small.csv!J89</f>
+        <v>0.99999586533132445</v>
+      </c>
+      <c r="I89">
+        <f>Regular_small.csv!G89/Regular_small.csv!I89</f>
+        <v>19942.708331215428</v>
+      </c>
+      <c r="K89">
+        <f>Optimistic_small.csv!G89/Optimistic_small.csv!I89</f>
+        <v>35002.283879108196</v>
+      </c>
+      <c r="M89">
+        <f>Regular_small.csv!H89/Regular_small.csv!J89</f>
+        <v>270.25912327403836</v>
+      </c>
+      <c r="O89">
+        <f>Optimistic_small.csv!H89/Optimistic_small.csv!J89</f>
+        <v>456.35439503595273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90">
+        <f>Regular_small.csv!G90/Optimistic_small.csv!G90</f>
+        <v>1.0952402573999651</v>
+      </c>
+      <c r="C90">
+        <f>Regular_small.csv!H90/Optimistic_small.csv!H90</f>
+        <v>0.50458328924572071</v>
+      </c>
+      <c r="E90">
+        <f>Regular_small.csv!I90/Optimistic_small.csv!I90</f>
+        <v>2.0003778692900571</v>
+      </c>
+      <c r="G90">
+        <f>Regular_small.csv!J90/Optimistic_small.csv!J90</f>
+        <v>1.0000066513517794</v>
+      </c>
+      <c r="I90">
+        <f>Regular_small.csv!G90/Regular_small.csv!I90</f>
+        <v>18275.880921814514</v>
+      </c>
+      <c r="K90">
+        <f>Optimistic_small.csv!G90/Optimistic_small.csv!I90</f>
+        <v>33379.58725564582</v>
+      </c>
+      <c r="M90">
+        <f>Regular_small.csv!H90/Regular_small.csv!J90</f>
+        <v>216.60449383909156</v>
+      </c>
+      <c r="O90">
+        <f>Optimistic_small.csv!H90/Optimistic_small.csv!J90</f>
+        <v>429.2768689894026</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91">
+        <f>Regular_small.csv!G91/Optimistic_small.csv!G91</f>
+        <v>1.0806028501339831</v>
+      </c>
+      <c r="C91">
+        <f>Regular_small.csv!H91/Optimistic_small.csv!H91</f>
+        <v>0.49101920195725035</v>
+      </c>
+      <c r="E91">
+        <f>Regular_small.csv!I91/Optimistic_small.csv!I91</f>
+        <v>2.0159738272149936</v>
+      </c>
+      <c r="G91">
+        <f>Regular_small.csv!J91/Optimistic_small.csv!J91</f>
+        <v>1.0000017976587652</v>
+      </c>
+      <c r="I91">
+        <f>Regular_small.csv!G91/Regular_small.csv!I91</f>
+        <v>19534.719645316494</v>
+      </c>
+      <c r="K91">
+        <f>Optimistic_small.csv!G91/Optimistic_small.csv!I91</f>
+        <v>36443.993759647899</v>
+      </c>
+      <c r="M91">
+        <f>Regular_small.csv!H91/Regular_small.csv!J91</f>
+        <v>216.9744112723069</v>
+      </c>
+      <c r="O91">
+        <f>Optimistic_small.csv!H91/Optimistic_small.csv!J91</f>
+        <v>441.88659110148126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92">
+        <f>Regular_small.csv!G92/Optimistic_small.csv!G92</f>
+        <v>1.0593475231330955</v>
+      </c>
+      <c r="C92">
+        <f>Regular_small.csv!H92/Optimistic_small.csv!H92</f>
+        <v>0.5131697007329995</v>
+      </c>
+      <c r="E92">
+        <f>Regular_small.csv!I92/Optimistic_small.csv!I92</f>
+        <v>2.0045522307336689</v>
+      </c>
+      <c r="G92">
+        <f>Regular_small.csv!J92/Optimistic_small.csv!J92</f>
+        <v>1.0000174375063144</v>
+      </c>
+      <c r="I92">
+        <f>Regular_small.csv!G92/Regular_small.csv!I92</f>
+        <v>19233.307037418734</v>
+      </c>
+      <c r="K92">
+        <f>Optimistic_small.csv!G92/Optimistic_small.csv!I92</f>
+        <v>36394.259376013455</v>
+      </c>
+      <c r="M92">
+        <f>Regular_small.csv!H92/Regular_small.csv!J92</f>
+        <v>219.1423017718175</v>
+      </c>
+      <c r="O92">
+        <f>Optimistic_small.csv!H92/Optimistic_small.csv!J92</f>
+        <v>427.04415859717597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93">
+        <f>Regular_small.csv!G93/Optimistic_small.csv!G93</f>
+        <v>1.3620019383603208</v>
+      </c>
+      <c r="C93">
+        <f>Regular_small.csv!H93/Optimistic_small.csv!H93</f>
+        <v>0.69032173967668986</v>
+      </c>
+      <c r="E93">
+        <f>Regular_small.csv!I93/Optimistic_small.csv!I93</f>
+        <v>2.0443646750988189</v>
+      </c>
+      <c r="G93">
+        <f>Regular_small.csv!J93/Optimistic_small.csv!J93</f>
+        <v>0.99999514629777575</v>
+      </c>
+      <c r="I93">
+        <f>Regular_small.csv!G93/Regular_small.csv!I93</f>
+        <v>20166.317386848183</v>
+      </c>
+      <c r="K93">
+        <f>Optimistic_small.csv!G93/Optimistic_small.csv!I93</f>
+        <v>30269.638927339591</v>
+      </c>
+      <c r="M93">
+        <f>Regular_small.csv!H93/Regular_small.csv!J93</f>
+        <v>303.4316840792581</v>
+      </c>
+      <c r="O93">
+        <f>Optimistic_small.csv!H93/Optimistic_small.csv!J93</f>
+        <v>439.54897241730907</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94">
+        <f>Regular_small.csv!G94/Optimistic_small.csv!G94</f>
+        <v>0.96469236147027848</v>
+      </c>
+      <c r="C94">
+        <f>Regular_small.csv!H94/Optimistic_small.csv!H94</f>
+        <v>0.53323137335679205</v>
+      </c>
+      <c r="E94">
+        <f>Regular_small.csv!I94/Optimistic_small.csv!I94</f>
+        <v>1.9621399588220698</v>
+      </c>
+      <c r="G94">
+        <f>Regular_small.csv!J94/Optimistic_small.csv!J94</f>
+        <v>0.99998507940542691</v>
+      </c>
+      <c r="I94">
+        <f>Regular_small.csv!G94/Regular_small.csv!I94</f>
+        <v>17915.416216074118</v>
+      </c>
+      <c r="K94">
+        <f>Optimistic_small.csv!G94/Optimistic_small.csv!I94</f>
+        <v>36439.133801072334</v>
+      </c>
+      <c r="M94">
+        <f>Regular_small.csv!H94/Regular_small.csv!J94</f>
+        <v>223.73635814850994</v>
+      </c>
+      <c r="O94">
+        <f>Optimistic_small.csv!H94/Optimistic_small.csv!J94</f>
+        <v>419.57962537083517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95">
+        <f>Regular_small.csv!G95/Optimistic_small.csv!G95</f>
+        <v>1.1448368453603051</v>
+      </c>
+      <c r="C95">
+        <f>Regular_small.csv!H95/Optimistic_small.csv!H95</f>
+        <v>0.48002160893370743</v>
+      </c>
+      <c r="E95">
+        <f>Regular_small.csv!I95/Optimistic_small.csv!I95</f>
+        <v>2.0136679846635972</v>
+      </c>
+      <c r="G95">
+        <f>Regular_small.csv!J95/Optimistic_small.csv!J95</f>
+        <v>1.0000300212035986</v>
+      </c>
+      <c r="I95">
+        <f>Regular_small.csv!G95/Regular_small.csv!I95</f>
+        <v>19897.145822033897</v>
+      </c>
+      <c r="K95">
+        <f>Optimistic_small.csv!G95/Optimistic_small.csv!I95</f>
+        <v>34997.341053783945</v>
+      </c>
+      <c r="M95">
+        <f>Regular_small.csv!H95/Regular_small.csv!J95</f>
+        <v>219.27711255743856</v>
+      </c>
+      <c r="O95">
+        <f>Optimistic_small.csv!H95/Optimistic_small.csv!J95</f>
+        <v>456.8204669106114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96">
+        <f>Regular_small.csv!G96/Optimistic_small.csv!G96</f>
+        <v>1.0701619024382505</v>
+      </c>
+      <c r="C96">
+        <f>Regular_small.csv!H96/Optimistic_small.csv!H96</f>
+        <v>1.2312715269069763</v>
+      </c>
+      <c r="E96">
+        <f>Regular_small.csv!I96/Optimistic_small.csv!I96</f>
+        <v>2.3921397103404765</v>
+      </c>
+      <c r="G96">
+        <f>Regular_small.csv!J96/Optimistic_small.csv!J96</f>
+        <v>0.99990329381621479</v>
+      </c>
+      <c r="I96">
+        <f>Regular_small.csv!G96/Regular_small.csv!I96</f>
+        <v>17004.160974480459</v>
+      </c>
+      <c r="K96">
+        <f>Optimistic_small.csv!G96/Optimistic_small.csv!I96</f>
+        <v>38009.509229771509</v>
+      </c>
+      <c r="M96">
+        <f>Regular_small.csv!H96/Regular_small.csv!J96</f>
+        <v>31861.733846393076</v>
+      </c>
+      <c r="O96">
+        <f>Optimistic_small.csv!H96/Optimistic_small.csv!J96</f>
+        <v>25874.595427163618</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97">
+        <f>Regular_small.csv!G97/Optimistic_small.csv!G97</f>
+        <v>0.92875050684900473</v>
+      </c>
+      <c r="C97">
+        <f>Regular_small.csv!H97/Optimistic_small.csv!H97</f>
+        <v>0.99034814026739248</v>
+      </c>
+      <c r="E97">
+        <f>Regular_small.csv!I97/Optimistic_small.csv!I97</f>
+        <v>1.9684811125756085</v>
+      </c>
+      <c r="G97">
+        <f>Regular_small.csv!J97/Optimistic_small.csv!J97</f>
+        <v>1.0000307406888072</v>
+      </c>
+      <c r="I97">
+        <f>Regular_small.csv!G97/Regular_small.csv!I97</f>
+        <v>17243.140906268713</v>
+      </c>
+      <c r="K97">
+        <f>Optimistic_small.csv!G97/Optimistic_small.csv!I97</f>
+        <v>36546.73342858073</v>
+      </c>
+      <c r="M97">
+        <f>Regular_small.csv!H97/Regular_small.csv!J97</f>
+        <v>26720.017412716654</v>
+      </c>
+      <c r="O97">
+        <f>Optimistic_small.csv!H97/Optimistic_small.csv!J97</f>
+        <v>26981.25812327196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98">
+        <f>Regular_small.csv!G98/Optimistic_small.csv!G98</f>
+        <v>0.92456880556246657</v>
+      </c>
+      <c r="C98">
+        <f>Regular_small.csv!H98/Optimistic_small.csv!H98</f>
+        <v>1.0079201128407127</v>
+      </c>
+      <c r="E98">
+        <f>Regular_small.csv!I98/Optimistic_small.csv!I98</f>
+        <v>2.0929938110954587</v>
+      </c>
+      <c r="G98">
+        <f>Regular_small.csv!J98/Optimistic_small.csv!J98</f>
+        <v>1.000004314422918</v>
+      </c>
+      <c r="I98">
+        <f>Regular_small.csv!G98/Regular_small.csv!I98</f>
+        <v>16772.332240665641</v>
+      </c>
+      <c r="K98">
+        <f>Optimistic_small.csv!G98/Optimistic_small.csv!I98</f>
+        <v>37968.388470552018</v>
+      </c>
+      <c r="M98">
+        <f>Regular_small.csv!H98/Regular_small.csv!J98</f>
+        <v>26638.550886511213</v>
+      </c>
+      <c r="O98">
+        <f>Optimistic_small.csv!H98/Optimistic_small.csv!J98</f>
+        <v>26429.342442038873</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99">
+        <f>Regular_small.csv!G99/Optimistic_small.csv!G99</f>
+        <v>0.92584513654345046</v>
+      </c>
+      <c r="C99">
+        <f>Regular_small.csv!H99/Optimistic_small.csv!H99</f>
+        <v>1.0567994133780665</v>
+      </c>
+      <c r="E99">
+        <f>Regular_small.csv!I99/Optimistic_small.csv!I99</f>
+        <v>2.1107256959374117</v>
+      </c>
+      <c r="G99">
+        <f>Regular_small.csv!J99/Optimistic_small.csv!J99</f>
+        <v>0.99996961961055941</v>
+      </c>
+      <c r="I99">
+        <f>Regular_small.csv!G99/Regular_small.csv!I99</f>
+        <v>16241.715113045173</v>
+      </c>
+      <c r="K99">
+        <f>Optimistic_small.csv!G99/Optimistic_small.csv!I99</f>
+        <v>37027.580620218097</v>
+      </c>
+      <c r="M99">
+        <f>Regular_small.csv!H99/Regular_small.csv!J99</f>
+        <v>28037.342117667362</v>
+      </c>
+      <c r="O99">
+        <f>Optimistic_small.csv!H99/Optimistic_small.csv!J99</f>
+        <v>26529.623292159216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100">
+        <f>Regular_small.csv!G100/Optimistic_small.csv!G100</f>
+        <v>0.95009907573654773</v>
+      </c>
+      <c r="C100">
+        <f>Regular_small.csv!H100/Optimistic_small.csv!H100</f>
+        <v>1.0058060001687656</v>
+      </c>
+      <c r="E100">
+        <f>Regular_small.csv!I100/Optimistic_small.csv!I100</f>
+        <v>1.9682064853227972</v>
+      </c>
+      <c r="G100">
+        <f>Regular_small.csv!J100/Optimistic_small.csv!J100</f>
+        <v>1.0000397293514336</v>
+      </c>
+      <c r="I100">
+        <f>Regular_small.csv!G100/Regular_small.csv!I100</f>
+        <v>18027.268304432575</v>
+      </c>
+      <c r="K100">
+        <f>Optimistic_small.csv!G100/Optimistic_small.csv!I100</f>
+        <v>37344.933065987847</v>
+      </c>
+      <c r="M100">
+        <f>Regular_small.csv!H100/Regular_small.csv!J100</f>
+        <v>26891.243346631651</v>
+      </c>
+      <c r="O100">
+        <f>Optimistic_small.csv!H100/Optimistic_small.csv!J100</f>
+        <v>26737.076249074631</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101">
+        <f>Regular_small.csv!G101/Optimistic_small.csv!G101</f>
+        <v>0.89811673022370542</v>
+      </c>
+      <c r="C101">
+        <f>Regular_small.csv!H101/Optimistic_small.csv!H101</f>
+        <v>0.91649204070743728</v>
+      </c>
+      <c r="E101">
+        <f>Regular_small.csv!I101/Optimistic_small.csv!I101</f>
+        <v>1.6431399314689161</v>
+      </c>
+      <c r="G101">
+        <f>Regular_small.csv!J101/Optimistic_small.csv!J101</f>
+        <v>1.0000348746803529</v>
+      </c>
+      <c r="I101">
+        <f>Regular_small.csv!G101/Regular_small.csv!I101</f>
+        <v>19582.14659023115</v>
+      </c>
+      <c r="K101">
+        <f>Optimistic_small.csv!G101/Optimistic_small.csv!I101</f>
+        <v>35826.308455775157</v>
+      </c>
+      <c r="M101">
+        <f>Regular_small.csv!H101/Regular_small.csv!J101</f>
+        <v>24470.169019457055</v>
+      </c>
+      <c r="O101">
+        <f>Optimistic_small.csv!H101/Optimistic_small.csv!J101</f>
+        <v>26700.747329884816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102">
+        <f>Regular_small.csv!G102/Optimistic_small.csv!G102</f>
+        <v>0.9475400830810925</v>
+      </c>
+      <c r="C102">
+        <f>Regular_small.csv!H102/Optimistic_small.csv!H102</f>
+        <v>1.3115874740840781</v>
+      </c>
+      <c r="E102">
+        <f>Regular_small.csv!I102/Optimistic_small.csv!I102</f>
+        <v>2.133797463882745</v>
+      </c>
+      <c r="G102">
+        <f>Regular_small.csv!J102/Optimistic_small.csv!J102</f>
+        <v>0.9999991011570446</v>
+      </c>
+      <c r="I102">
+        <f>Regular_small.csv!G102/Regular_small.csv!I102</f>
+        <v>16713.885213027581</v>
+      </c>
+      <c r="K102">
+        <f>Optimistic_small.csv!G102/Optimistic_small.csv!I102</f>
+        <v>37638.561698854661</v>
+      </c>
+      <c r="M102">
+        <f>Regular_small.csv!H102/Regular_small.csv!J102</f>
+        <v>35320.061780048614</v>
+      </c>
+      <c r="O102">
+        <f>Optimistic_small.csv!H102/Optimistic_small.csv!J102</f>
+        <v>26929.221825273198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103">
+        <f>Regular_small.csv!G103/Optimistic_small.csv!G103</f>
+        <v>0.93959956466308514</v>
+      </c>
+      <c r="C103">
+        <f>Regular_small.csv!H103/Optimistic_small.csv!H103</f>
+        <v>1.3057831600977117</v>
+      </c>
+      <c r="E103">
+        <f>Regular_small.csv!I103/Optimistic_small.csv!I103</f>
+        <v>2.0642274848616911</v>
+      </c>
+      <c r="G103">
+        <f>Regular_small.csv!J103/Optimistic_small.csv!J103</f>
+        <v>1.0000133027131244</v>
+      </c>
+      <c r="I103">
+        <f>Regular_small.csv!G103/Regular_small.csv!I103</f>
+        <v>16653.194210507492</v>
+      </c>
+      <c r="K103">
+        <f>Optimistic_small.csv!G103/Optimistic_small.csv!I103</f>
+        <v>36585.778126020581</v>
+      </c>
+      <c r="M103">
+        <f>Regular_small.csv!H103/Regular_small.csv!J103</f>
+        <v>35330.479443177406</v>
+      </c>
+      <c r="O103">
+        <f>Optimistic_small.csv!H103/Optimistic_small.csv!J103</f>
+        <v>27057.286779350234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104">
+        <f>Regular_small.csv!G104/Optimistic_small.csv!G104</f>
+        <v>0.96144665175537791</v>
+      </c>
+      <c r="C104">
+        <f>Regular_small.csv!H104/Optimistic_small.csv!H104</f>
+        <v>1.3013548788148401</v>
+      </c>
+      <c r="E104">
+        <f>Regular_small.csv!I104/Optimistic_small.csv!I104</f>
+        <v>2.0212484077359751</v>
+      </c>
+      <c r="G104">
+        <f>Regular_small.csv!J104/Optimistic_small.csv!J104</f>
+        <v>1.0000028762328252</v>
+      </c>
+      <c r="I104">
+        <f>Regular_small.csv!G104/Regular_small.csv!I104</f>
+        <v>17187.710871997962</v>
+      </c>
+      <c r="K104">
+        <f>Optimistic_small.csv!G104/Optimistic_small.csv!I104</f>
+        <v>36133.708687033097</v>
+      </c>
+      <c r="M104">
+        <f>Regular_small.csv!H104/Regular_small.csv!J104</f>
+        <v>35169.486432848782</v>
+      </c>
+      <c r="O104">
+        <f>Optimistic_small.csv!H104/Optimistic_small.csv!J104</f>
+        <v>27025.362690083039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105">
+        <f>Regular_small.csv!G105/Optimistic_small.csv!G105</f>
+        <v>0.96483099424169139</v>
+      </c>
+      <c r="C105">
+        <f>Regular_small.csv!H105/Optimistic_small.csv!H105</f>
+        <v>1.2811014338541615</v>
+      </c>
+      <c r="E105">
+        <f>Regular_small.csv!I105/Optimistic_small.csv!I105</f>
+        <v>2.0730942594974611</v>
+      </c>
+      <c r="G105">
+        <f>Regular_small.csv!J105/Optimistic_small.csv!J105</f>
+        <v>0.99994535414022379</v>
+      </c>
+      <c r="I105">
+        <f>Regular_small.csv!G105/Regular_small.csv!I105</f>
+        <v>17227.273149353809</v>
+      </c>
+      <c r="K105">
+        <f>Optimistic_small.csv!G105/Optimistic_small.csv!I105</f>
+        <v>37015.561570748818</v>
+      </c>
+      <c r="M105">
+        <f>Regular_small.csv!H105/Regular_small.csv!J105</f>
+        <v>34566.794634849532</v>
+      </c>
+      <c r="O105">
+        <f>Optimistic_small.csv!H105/Optimistic_small.csv!J105</f>
+        <v>26980.61588975773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106">
+        <f>Regular_small.csv!G106/Optimistic_small.csv!G106</f>
+        <v>0.92690654490153579</v>
+      </c>
+      <c r="C106">
+        <f>Regular_small.csv!H106/Optimistic_small.csv!H106</f>
+        <v>1.2786718587185226</v>
+      </c>
+      <c r="E106">
+        <f>Regular_small.csv!I106/Optimistic_small.csv!I106</f>
+        <v>2.0551744810341752</v>
+      </c>
+      <c r="G106">
+        <f>Regular_small.csv!J106/Optimistic_small.csv!J106</f>
+        <v>1.0000400874229396</v>
+      </c>
+      <c r="I106">
+        <f>Regular_small.csv!G106/Regular_small.csv!I106</f>
+        <v>16591.617654901376</v>
+      </c>
+      <c r="K106">
+        <f>Optimistic_small.csv!G106/Optimistic_small.csv!I106</f>
+        <v>36787.602149310165</v>
+      </c>
+      <c r="M106">
+        <f>Regular_small.csv!H106/Regular_small.csv!J106</f>
+        <v>34550.077136254928</v>
+      </c>
+      <c r="O106">
+        <f>Optimistic_small.csv!H106/Optimistic_small.csv!J106</f>
+        <v>27021.367463609429</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <f>Regular_small.csv!G107/Optimistic_small.csv!G107</f>
+        <v>0.93543922512353006</v>
+      </c>
+      <c r="C107">
+        <f>Regular_small.csv!H107/Optimistic_small.csv!H107</f>
+        <v>1.2835031708180089</v>
+      </c>
+      <c r="E107">
+        <f>Regular_small.csv!I107/Optimistic_small.csv!I107</f>
+        <v>2.0298754492874731</v>
+      </c>
+      <c r="G107">
+        <f>Regular_small.csv!J107/Optimistic_small.csv!J107</f>
+        <v>0.99997051957805605</v>
+      </c>
+      <c r="I107">
+        <f>Regular_small.csv!G107/Regular_small.csv!I107</f>
+        <v>17224.41927451501</v>
+      </c>
+      <c r="K107">
+        <f>Optimistic_small.csv!G107/Optimistic_small.csv!I107</f>
+        <v>37376.480346924567</v>
+      </c>
+      <c r="M107">
+        <f>Regular_small.csv!H107/Regular_small.csv!J107</f>
+        <v>34604.129552297833</v>
+      </c>
+      <c r="O107">
+        <f>Optimistic_small.csv!H107/Optimistic_small.csv!J107</f>
+        <v>26959.893979774275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <f>Regular_small.csv!G108/Optimistic_small.csv!G108</f>
+        <v>0.96352023275434318</v>
+      </c>
+      <c r="C108">
+        <f>Regular_small.csv!H108/Optimistic_small.csv!H108</f>
+        <v>1.2953906434590847</v>
+      </c>
+      <c r="E108">
+        <f>Regular_small.csv!I108/Optimistic_small.csv!I108</f>
+        <v>2.0868872308522368</v>
+      </c>
+      <c r="G108">
+        <f>Regular_small.csv!J108/Optimistic_small.csv!J108</f>
+        <v>1.0000050336526647</v>
+      </c>
+      <c r="I108">
+        <f>Regular_small.csv!G108/Regular_small.csv!I108</f>
+        <v>16850.701564601357</v>
+      </c>
+      <c r="K108">
+        <f>Optimistic_small.csv!G108/Optimistic_small.csv!I108</f>
+        <v>36496.912810583497</v>
+      </c>
+      <c r="M108">
+        <f>Regular_small.csv!H108/Regular_small.csv!J108</f>
+        <v>34880.069251206587</v>
+      </c>
+      <c r="O108">
+        <f>Optimistic_small.csv!H108/Optimistic_small.csv!J108</f>
+        <v>26926.429491739505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <f>Regular_small.csv!G109/Optimistic_small.csv!G109</f>
+        <v>0.93694675461052501</v>
+      </c>
+      <c r="C109">
+        <f>Regular_small.csv!H109/Optimistic_small.csv!H109</f>
+        <v>1.0059872818338775</v>
+      </c>
+      <c r="E109">
+        <f>Regular_small.csv!I109/Optimistic_small.csv!I109</f>
+        <v>2.0840691575859056</v>
+      </c>
+      <c r="G109">
+        <f>Regular_small.csv!J109/Optimistic_small.csv!J109</f>
+        <v>1.0000019774754758</v>
+      </c>
+      <c r="I109">
+        <f>Regular_small.csv!G109/Regular_small.csv!I109</f>
+        <v>16814.971854186955</v>
+      </c>
+      <c r="K109">
+        <f>Optimistic_small.csv!G109/Optimistic_small.csv!I109</f>
+        <v>37401.873750609462</v>
+      </c>
+      <c r="M109">
+        <f>Regular_small.csv!H109/Regular_small.csv!J109</f>
+        <v>27039.772431134104</v>
+      </c>
+      <c r="O109">
+        <f>Optimistic_small.csv!H109/Optimistic_small.csv!J109</f>
+        <v>26878.89438555163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110">
+        <f>Regular_small.csv!G110/Optimistic_small.csv!G110</f>
+        <v>0.95320368136396272</v>
+      </c>
+      <c r="C110">
+        <f>Regular_small.csv!H110/Optimistic_small.csv!H110</f>
+        <v>1.3066640992331306</v>
+      </c>
+      <c r="E110">
+        <f>Regular_small.csv!I110/Optimistic_small.csv!I110</f>
+        <v>2.1324212610133104</v>
+      </c>
+      <c r="G110">
+        <f>Regular_small.csv!J110/Optimistic_small.csv!J110</f>
+        <v>0.99999478663119656</v>
+      </c>
+      <c r="I110">
+        <f>Regular_small.csv!G110/Regular_small.csv!I110</f>
+        <v>16825.929196459489</v>
+      </c>
+      <c r="K110">
+        <f>Optimistic_small.csv!G110/Optimistic_small.csv!I110</f>
+        <v>37641.450464703703</v>
+      </c>
+      <c r="M110">
+        <f>Regular_small.csv!H110/Regular_small.csv!J110</f>
+        <v>35157.013819993663</v>
+      </c>
+      <c r="O110">
+        <f>Optimistic_small.csv!H110/Optimistic_small.csv!J110</f>
+        <v>26905.790519650625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111">
+        <f>Regular_small.csv!G111/Optimistic_small.csv!G111</f>
+        <v>0.92254085154740606</v>
+      </c>
+      <c r="C111">
+        <f>Regular_small.csv!H111/Optimistic_small.csv!H111</f>
+        <v>1.3211468312445878</v>
+      </c>
+      <c r="E111">
+        <f>Regular_small.csv!I111/Optimistic_small.csv!I111</f>
+        <v>2.023047318186137</v>
+      </c>
+      <c r="G111">
+        <f>Regular_small.csv!J111/Optimistic_small.csv!J111</f>
+        <v>1.0000055729495501</v>
+      </c>
+      <c r="I111">
+        <f>Regular_small.csv!G111/Regular_small.csv!I111</f>
+        <v>16956.344537992813</v>
+      </c>
+      <c r="K111">
+        <f>Optimistic_small.csv!G111/Optimistic_small.csv!I111</f>
+        <v>37183.7055088544</v>
+      </c>
+      <c r="M111">
+        <f>Regular_small.csv!H111/Regular_small.csv!J111</f>
+        <v>35552.969115425032</v>
+      </c>
+      <c r="O111">
+        <f>Optimistic_small.csv!H111/Optimistic_small.csv!J111</f>
+        <v>26910.837167762322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112">
+        <f>Regular_small.csv!G112/Optimistic_small.csv!G112</f>
+        <v>0.93506513983271278</v>
+      </c>
+      <c r="C112">
+        <f>Regular_small.csv!H112/Optimistic_small.csv!H112</f>
+        <v>1.1948221582888006</v>
+      </c>
+      <c r="E112">
+        <f>Regular_small.csv!I112/Optimistic_small.csv!I112</f>
+        <v>2.0003698533658185</v>
+      </c>
+      <c r="G112">
+        <f>Regular_small.csv!J112/Optimistic_small.csv!J112</f>
+        <v>1.0000003595417712</v>
+      </c>
+      <c r="I112">
+        <f>Regular_small.csv!G112/Regular_small.csv!I112</f>
+        <v>17412.944957111937</v>
+      </c>
+      <c r="K112">
+        <f>Optimistic_small.csv!G112/Optimistic_small.csv!I112</f>
+        <v>37251.233808969424</v>
+      </c>
+      <c r="M112">
+        <f>Regular_small.csv!H112/Regular_small.csv!J112</f>
+        <v>32182.723549510141</v>
+      </c>
+      <c r="O112">
+        <f>Optimistic_small.csv!H112/Optimistic_small.csv!J112</f>
+        <v>26935.167629159987</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <f>Regular_small.csv!G113/Optimistic_small.csv!G113</f>
+        <v>0.99285707957991509</v>
+      </c>
+      <c r="C113">
+        <f>Regular_small.csv!H113/Optimistic_small.csv!H113</f>
+        <v>1.2834224991160053</v>
+      </c>
+      <c r="E113">
+        <f>Regular_small.csv!I113/Optimistic_small.csv!I113</f>
+        <v>2.1947947541080053</v>
+      </c>
+      <c r="G113">
+        <f>Regular_small.csv!J113/Optimistic_small.csv!J113</f>
+        <v>0.99998220297986828</v>
+      </c>
+      <c r="I113">
+        <f>Regular_small.csv!G113/Regular_small.csv!I113</f>
+        <v>17188.583705935776</v>
+      </c>
+      <c r="K113">
+        <f>Optimistic_small.csv!G113/Optimistic_small.csv!I113</f>
+        <v>37996.821621391944</v>
+      </c>
+      <c r="M113">
+        <f>Regular_small.csv!H113/Regular_small.csv!J113</f>
+        <v>34530.453066984504</v>
+      </c>
+      <c r="O113">
+        <f>Optimistic_small.csv!H113/Optimistic_small.csv!J113</f>
+        <v>26904.498364022405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <f>Regular_small.csv!G114/Optimistic_small.csv!G114</f>
+        <v>0.93029603894175017</v>
+      </c>
+      <c r="C114">
+        <f>Regular_small.csv!H114/Optimistic_small.csv!H114</f>
+        <v>1.3059477334313141</v>
+      </c>
+      <c r="E114">
+        <f>Regular_small.csv!I114/Optimistic_small.csv!I114</f>
+        <v>2.0480146122042324</v>
+      </c>
+      <c r="G114">
+        <f>Regular_small.csv!J114/Optimistic_small.csv!J114</f>
+        <v>1.0000062920511259</v>
+      </c>
+      <c r="I114">
+        <f>Regular_small.csv!G114/Regular_small.csv!I114</f>
+        <v>17025.273925207868</v>
+      </c>
+      <c r="K114">
+        <f>Optimistic_small.csv!G114/Optimistic_small.csv!I114</f>
+        <v>37480.552766051987</v>
+      </c>
+      <c r="M114">
+        <f>Regular_small.csv!H114/Regular_small.csv!J114</f>
+        <v>35175.053294596117</v>
+      </c>
+      <c r="O114">
+        <f>Optimistic_small.csv!H114/Optimistic_small.csv!J114</f>
+        <v>26934.672588625337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <f>Regular_small.csv!G115/Optimistic_small.csv!G115</f>
+        <v>0.94097941479675329</v>
+      </c>
+      <c r="C115">
+        <f>Regular_small.csv!H115/Optimistic_small.csv!H115</f>
+        <v>1.2326860677458116</v>
+      </c>
+      <c r="E115">
+        <f>Regular_small.csv!I115/Optimistic_small.csv!I115</f>
+        <v>2.0764160699161165</v>
+      </c>
+      <c r="G115">
+        <f>Regular_small.csv!J115/Optimistic_small.csv!J115</f>
+        <v>1.0000048538680115</v>
+      </c>
+      <c r="I115">
+        <f>Regular_small.csv!G115/Regular_small.csv!I115</f>
+        <v>16795.926195401586</v>
+      </c>
+      <c r="K115">
+        <f>Optimistic_small.csv!G115/Optimistic_small.csv!I115</f>
+        <v>37062.79915675924</v>
+      </c>
+      <c r="M115">
+        <f>Regular_small.csv!H115/Regular_small.csv!J115</f>
+        <v>33250.689648241896</v>
+      </c>
+      <c r="O115">
+        <f>Optimistic_small.csv!H115/Optimistic_small.csv!J115</f>
+        <v>26974.305877818435</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <f>Regular_small.csv!G116/Optimistic_small.csv!G116</f>
+        <v>1.0274414821060449</v>
+      </c>
+      <c r="C116">
+        <f>Regular_small.csv!H116/Optimistic_small.csv!H116</f>
+        <v>1.1490244288647866</v>
+      </c>
+      <c r="E116">
+        <f>Regular_small.csv!I116/Optimistic_small.csv!I116</f>
+        <v>2.3959984507382708</v>
+      </c>
+      <c r="G116">
+        <f>Regular_small.csv!J116/Optimistic_small.csv!J116</f>
+        <v>0.99995991241131521</v>
+      </c>
+      <c r="I116">
+        <f>Regular_small.csv!G116/Regular_small.csv!I116</f>
+        <v>16506.572843762078</v>
+      </c>
+      <c r="K116">
+        <f>Optimistic_small.csv!G116/Optimistic_small.csv!I116</f>
+        <v>38493.406826035003</v>
+      </c>
+      <c r="M116">
+        <f>Regular_small.csv!H116/Regular_small.csv!J116</f>
+        <v>29858.089821371173</v>
+      </c>
+      <c r="O116">
+        <f>Optimistic_small.csv!H116/Optimistic_small.csv!J116</f>
+        <v>25984.558841839003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <f>Regular_small.csv!G117/Optimistic_small.csv!G117</f>
+        <v>0.9442246908657409</v>
+      </c>
+      <c r="C117">
+        <f>Regular_small.csv!H117/Optimistic_small.csv!H117</f>
+        <v>1.2926541076291718</v>
+      </c>
+      <c r="E117">
+        <f>Regular_small.csv!I117/Optimistic_small.csv!I117</f>
+        <v>2.032170235220319</v>
+      </c>
+      <c r="G117">
+        <f>Regular_small.csv!J117/Optimistic_small.csv!J117</f>
+        <v>1.0000001797727924</v>
+      </c>
+      <c r="I117">
+        <f>Regular_small.csv!G117/Regular_small.csv!I117</f>
+        <v>17097.066338990822</v>
+      </c>
+      <c r="K117">
+        <f>Optimistic_small.csv!G117/Optimistic_small.csv!I117</f>
+        <v>36796.484628916187</v>
+      </c>
+      <c r="M117">
+        <f>Regular_small.csv!H117/Regular_small.csv!J117</f>
+        <v>34861.614625448849</v>
+      </c>
+      <c r="O117">
+        <f>Optimistic_small.csv!H117/Optimistic_small.csv!J117</f>
+        <v>26969.024959474718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <f>Regular_small.csv!G118/Optimistic_small.csv!G118</f>
+        <v>1.1045798173510444</v>
+      </c>
+      <c r="C118">
+        <f>Regular_small.csv!H118/Optimistic_small.csv!H118</f>
+        <v>1.0219218689747507</v>
+      </c>
+      <c r="E118">
+        <f>Regular_small.csv!I118/Optimistic_small.csv!I118</f>
+        <v>2.4166469079923467</v>
+      </c>
+      <c r="G118">
+        <f>Regular_small.csv!J118/Optimistic_small.csv!J118</f>
+        <v>0.99984272609068103</v>
+      </c>
+      <c r="I118">
+        <f>Regular_small.csv!G118/Regular_small.csv!I118</f>
+        <v>17146.707885768032</v>
+      </c>
+      <c r="K118">
+        <f>Optimistic_small.csv!G118/Optimistic_small.csv!I118</f>
+        <v>37514.299956849674</v>
+      </c>
+      <c r="M118">
+        <f>Regular_small.csv!H118/Regular_small.csv!J118</f>
+        <v>26460.574690521651</v>
+      </c>
+      <c r="O118">
+        <f>Optimistic_small.csv!H118/Optimistic_small.csv!J118</f>
+        <v>25888.88048656773</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <f>Regular_small.csv!G119/Optimistic_small.csv!G119</f>
+        <v>0.85899984404812879</v>
+      </c>
+      <c r="C119">
+        <f>Regular_small.csv!H119/Optimistic_small.csv!H119</f>
+        <v>0.93476698595956365</v>
+      </c>
+      <c r="E119">
+        <f>Regular_small.csv!I119/Optimistic_small.csv!I119</f>
+        <v>1.7209403383061483</v>
+      </c>
+      <c r="G119">
+        <f>Regular_small.csv!J119/Optimistic_small.csv!J119</f>
+        <v>1.0000237294625547</v>
+      </c>
+      <c r="I119">
+        <f>Regular_small.csv!G119/Regular_small.csv!I119</f>
+        <v>18851.05279124104</v>
+      </c>
+      <c r="K119">
+        <f>Optimistic_small.csv!G119/Optimistic_small.csv!I119</f>
+        <v>37766.639182495303</v>
+      </c>
+      <c r="M119">
+        <f>Regular_small.csv!H119/Regular_small.csv!J119</f>
+        <v>24411.125830938421</v>
+      </c>
+      <c r="O119">
+        <f>Optimistic_small.csv!H119/Optimistic_small.csv!J119</f>
+        <v>26115.283766440967</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <f>Regular_small.csv!G120/Optimistic_small.csv!G120</f>
+        <v>0.93051975837668544</v>
+      </c>
+      <c r="C120">
+        <f>Regular_small.csv!H120/Optimistic_small.csv!H120</f>
+        <v>0.98174943002210935</v>
+      </c>
+      <c r="E120">
+        <f>Regular_small.csv!I120/Optimistic_small.csv!I120</f>
+        <v>2.0316017891002192</v>
+      </c>
+      <c r="G120">
+        <f>Regular_small.csv!J120/Optimistic_small.csv!J120</f>
+        <v>1.0000073706791865</v>
+      </c>
+      <c r="I120">
+        <f>Regular_small.csv!G120/Regular_small.csv!I120</f>
+        <v>16905.451922753553</v>
+      </c>
+      <c r="K120">
+        <f>Optimistic_small.csv!G120/Optimistic_small.csv!I120</f>
+        <v>36909.636859006416</v>
+      </c>
+      <c r="M120">
+        <f>Regular_small.csv!H120/Regular_small.csv!J120</f>
+        <v>26409.875020808533</v>
+      </c>
+      <c r="O120">
+        <f>Optimistic_small.csv!H120/Optimistic_small.csv!J120</f>
+        <v>26901.028787895404</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121">
+        <f>Regular_small.csv!G121/Optimistic_small.csv!G121</f>
+        <v>0.89581606482070408</v>
+      </c>
+      <c r="C121">
+        <f>Regular_small.csv!H121/Optimistic_small.csv!H121</f>
+        <v>0.94077574342451886</v>
+      </c>
+      <c r="E121">
+        <f>Regular_small.csv!I121/Optimistic_small.csv!I121</f>
+        <v>1.7099940290967457</v>
+      </c>
+      <c r="G121">
+        <f>Regular_small.csv!J121/Optimistic_small.csv!J121</f>
+        <v>1.0000469205469749</v>
+      </c>
+      <c r="I121">
+        <f>Regular_small.csv!G121/Regular_small.csv!I121</f>
+        <v>19538.314019886766</v>
+      </c>
+      <c r="K121">
+        <f>Optimistic_small.csv!G121/Optimistic_small.csv!I121</f>
+        <v>37296.049518056629</v>
+      </c>
+      <c r="M121">
+        <f>Regular_small.csv!H121/Regular_small.csv!J121</f>
+        <v>25333.023422500959</v>
+      </c>
+      <c r="O121">
+        <f>Optimistic_small.csv!H121/Optimistic_small.csv!J121</f>
+        <v>26929.065974423807</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122">
+        <f>Regular_small.csv!G122/Optimistic_small.csv!G122</f>
+        <v>0.97301280038283744</v>
+      </c>
+      <c r="C122">
+        <f>Regular_small.csv!H122/Optimistic_small.csv!H122</f>
+        <v>1.2554134054230979</v>
+      </c>
+      <c r="E122">
+        <f>Regular_small.csv!I122/Optimistic_small.csv!I122</f>
+        <v>2.0586680387725043</v>
+      </c>
+      <c r="G122">
+        <f>Regular_small.csv!J122/Optimistic_small.csv!J122</f>
+        <v>0.99999982022953449</v>
+      </c>
+      <c r="I122">
+        <f>Regular_small.csv!G122/Regular_small.csv!I122</f>
+        <v>17063.560342933448</v>
+      </c>
+      <c r="K122">
+        <f>Optimistic_small.csv!G122/Optimistic_small.csv!I122</f>
+        <v>36102.512003790376</v>
+      </c>
+      <c r="M122">
+        <f>Regular_small.csv!H122/Regular_small.csv!J122</f>
+        <v>33800.890568664421</v>
+      </c>
+      <c r="O122">
+        <f>Optimistic_small.csv!H122/Optimistic_small.csv!J122</f>
+        <v>26924.106709591058</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123">
+        <f>Regular_small.csv!G123/Optimistic_small.csv!G123</f>
+        <v>1.0164108196291557</v>
+      </c>
+      <c r="C123">
+        <f>Regular_small.csv!H123/Optimistic_small.csv!H123</f>
+        <v>1.2128743261638555</v>
+      </c>
+      <c r="E123">
+        <f>Regular_small.csv!I123/Optimistic_small.csv!I123</f>
+        <v>2.3632451610397101</v>
+      </c>
+      <c r="G123">
+        <f>Regular_small.csv!J123/Optimistic_small.csv!J123</f>
+        <v>0.99995290290664562</v>
+      </c>
+      <c r="I123">
+        <f>Regular_small.csv!G123/Regular_small.csv!I123</f>
+        <v>16266.155840811265</v>
+      </c>
+      <c r="K123">
+        <f>Optimistic_small.csv!G123/Optimistic_small.csv!I123</f>
+        <v>37820.252733575246</v>
+      </c>
+      <c r="M123">
+        <f>Regular_small.csv!H123/Regular_small.csv!J123</f>
+        <v>31499.230615846867</v>
+      </c>
+      <c r="O123">
+        <f>Optimistic_small.csv!H123/Optimistic_small.csv!J123</f>
+        <v>25969.506002542523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124">
+        <f>Regular_small.csv!G124/Optimistic_small.csv!G124</f>
+        <v>0.87400219498674259</v>
+      </c>
+      <c r="C124">
+        <f>Regular_small.csv!H124/Optimistic_small.csv!H124</f>
+        <v>0.9517809457308275</v>
+      </c>
+      <c r="E124">
+        <f>Regular_small.csv!I124/Optimistic_small.csv!I124</f>
+        <v>1.7641329259683798</v>
+      </c>
+      <c r="G124">
+        <f>Regular_small.csv!J124/Optimistic_small.csv!J124</f>
+        <v>0.99998364161694886</v>
+      </c>
+      <c r="I124">
+        <f>Regular_small.csv!G124/Regular_small.csv!I124</f>
+        <v>18763.727019755966</v>
+      </c>
+      <c r="K124">
+        <f>Optimistic_small.csv!G124/Optimistic_small.csv!I124</f>
+        <v>37873.713406333205</v>
+      </c>
+      <c r="M124">
+        <f>Regular_small.csv!H124/Regular_small.csv!J124</f>
+        <v>24681.854698510069</v>
+      </c>
+      <c r="O124">
+        <f>Optimistic_small.csv!H124/Optimistic_small.csv!J124</f>
+        <v>25931.860743781523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125">
+        <f>Regular_small.csv!G125/Optimistic_small.csv!G125</f>
+        <v>0.95088995932026921</v>
+      </c>
+      <c r="C125">
+        <f>Regular_small.csv!H125/Optimistic_small.csv!H125</f>
+        <v>1.2701703737031351</v>
+      </c>
+      <c r="E125">
+        <f>Regular_small.csv!I125/Optimistic_small.csv!I125</f>
+        <v>2.0710161322833027</v>
+      </c>
+      <c r="G125">
+        <f>Regular_small.csv!J125/Optimistic_small.csv!J125</f>
+        <v>0.99999766298184822</v>
+      </c>
+      <c r="I125">
+        <f>Regular_small.csv!G125/Regular_small.csv!I125</f>
+        <v>16740.265075850322</v>
+      </c>
+      <c r="K125">
+        <f>Optimistic_small.csv!G125/Optimistic_small.csv!I125</f>
+        <v>36459.906523324433</v>
+      </c>
+      <c r="M125">
+        <f>Regular_small.csv!H125/Regular_small.csv!J125</f>
+        <v>34207.987879116918</v>
+      </c>
+      <c r="O125">
+        <f>Optimistic_small.csv!H125/Optimistic_small.csv!J125</f>
+        <v>26931.747616421257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126">
+        <f>Regular_small.csv!G126/Optimistic_small.csv!G126</f>
+        <v>0.93560233050963826</v>
+      </c>
+      <c r="C126">
+        <f>Regular_small.csv!H126/Optimistic_small.csv!H126</f>
+        <v>1.2694803138413095</v>
+      </c>
+      <c r="E126">
+        <f>Regular_small.csv!I126/Optimistic_small.csv!I126</f>
+        <v>2.0736613076309651</v>
+      </c>
+      <c r="G126">
+        <f>Regular_small.csv!J126/Optimistic_small.csv!J126</f>
+        <v>0.9999989213502537</v>
+      </c>
+      <c r="I126">
+        <f>Regular_small.csv!G126/Regular_small.csv!I126</f>
+        <v>16971.472829140381</v>
+      </c>
+      <c r="K126">
+        <f>Optimistic_small.csv!G126/Optimistic_small.csv!I126</f>
+        <v>37615.432744944497</v>
+      </c>
+      <c r="M126">
+        <f>Regular_small.csv!H126/Regular_small.csv!J126</f>
+        <v>34300.074470058811</v>
+      </c>
+      <c r="O126">
+        <f>Optimistic_small.csv!H126/Optimistic_small.csv!J126</f>
+        <v>27018.959725735323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127">
+        <f>Regular_small.csv!G127/Optimistic_small.csv!G127</f>
+        <v>0.72132896455577711</v>
+      </c>
+      <c r="C127">
+        <f>Regular_small.csv!H127/Optimistic_small.csv!H127</f>
+        <v>0.94216604388937442</v>
+      </c>
+      <c r="E127">
+        <f>Regular_small.csv!I127/Optimistic_small.csv!I127</f>
+        <v>1.7202609898687076</v>
+      </c>
+      <c r="G127">
+        <f>Regular_small.csv!J127/Optimistic_small.csv!J127</f>
+        <v>1.0002011553760797</v>
+      </c>
+      <c r="I127">
+        <f>Regular_small.csv!G127/Regular_small.csv!I127</f>
+        <v>16393.039519746071</v>
+      </c>
+      <c r="K127">
+        <f>Optimistic_small.csv!G127/Optimistic_small.csv!I127</f>
+        <v>39094.931407006625</v>
+      </c>
+      <c r="M127">
+        <f>Regular_small.csv!H127/Regular_small.csv!J127</f>
+        <v>24492.524972847688</v>
+      </c>
+      <c r="O127">
+        <f>Optimistic_small.csv!H127/Optimistic_small.csv!J127</f>
+        <v>26001.204283261282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>